--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySelf\xmind\写作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF13A1-E23E-4D8D-B838-47AFF2DBD822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68CBFA8-3DAA-42DD-9F91-165C81DBEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="物品" sheetId="4" r:id="rId4"/>
     <sheet name="理论根基" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金丹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,14 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元婴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出窍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五气朝元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,23 +371,114 @@
   <si>
     <t>虚极静笃</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得窍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取坎填离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此阶段是调动元神，使之调理身心，藏魂伏魄，使精、气、魂、魄、意相与混融，化为一体，聚于上丹田（泥丸）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五气朝元，聚于上丹田，和合而成“圣胎”，即“取坎填离”阶段，这是《无极图》第四圈所示，为内丹术的核心。图中左为坎卦，阴中含阳，为水，水中生气，谓之真气，或叫作虎；左为离卦，阳中含阴，为火，火中生液，谓之真水，或叫做龙。陈抟《胎息诀》曰：“龙虎相交谓之曰丹，三丹同契谓之曰了，若修行之人知此根源，乃可入道近矣。”即指水火既济，龙虎相交，取坎中之一阳，填离中之一阴，使离卦变为纯阳之乾卦，由后天复归先天，这就是“得药”而“结胎”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至此，经过得窍、炼己、和合、得药四个阶段，精气神三宝合炼的结果，只存元神，经有为进入无为，由命功转为纯粹的性功，常定常觉，寂空观照，做到一切归于自然，进入“炼神还虚，复归无极”的阶段，这是《无极图》所示内丹修炼的最高境界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大归空，脱离生死，得大解脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归根复命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静之复静，以至于一。一者，道之用也。道者，一之体也。一之与道，盖自然而然者焉。是以至神无方，至道无体，无为而无不为，斯合于理焉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出窍元婴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基得窍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内 丹 修炼， 首先 从 修 命 开始， 即 识 玄 牝 之门， 守 一得 窍， 这是《 无极 图》 丹 法 的 下手 功夫。 陈 抟 说：“ 人 无论 贤 愚， 质 不分 高下， 俱 可 复 全 元 始， 洞见 本来。 所以然 者， 童 相 未 漓， 一 真 浩然， 玄 牝 一 穴， 妙 气 回旋， 三 品 光 中， 潜 符 太极， 先天 而生， 后天 而 存， 存 存 涵养， 贯 古 彻 今。”[ 29] 在此， 陈 抟 把“ 玄 牝” 作为 天地 造化、 生命 繁衍、 生人 成仙 的 本源， 这与《 老子》 旨趣 是 吻合 的， 亦 与 中国 传统 理论 相符。 </t>
+  </si>
+  <si>
+    <t>人之 一身， 左 足 太阳， 右 足 太阴， 两 足底 为 涌泉， 发水、 火 二 气， 自 两足 入 尾 闾， 上 合于 两 肾。 左 为 肾 堂， 右 为 精 府， 一 水 一 火， 一 龟 一 蛇， 互相 橐。 两 肾 之间， 空虚 一 窍， 名 曰 玄 牝， 二 肾 之气 贯通 玄 牝。 气 之由 此 发黄 赤 二 道， 上 夹 脊 双关， 贯 二十四 椎， 中 通 心腹， 入 膏 肓， 会 乎 风 府， 上朝 泥 丸； 由 泥 丸 而下 明堂， 散 灌 五 宫， 下 重 楼， 复 流 入于 本 宫。 日夜 循环， 周 流 不息， 皆是 自然而然。</t>
+  </si>
+  <si>
+    <t>炼精化气</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《无极 图》 的 第二 圈 叫做“ 炼 精 化 气， 炼 气化 神”。 这是 在 筑基 的 基础上， 炼 有形 之 精， 化为 无形 之气； 炼 依 希 之气， 化为 玄妙 之神， 属于 陈 抟 丹 法 的 第二个 层次—— 炼 己。 按照 内 丹 学说， 炼丹 的 药物 是由 精、 气、 神 构成 的。 精气神 是 生命 的 三大 元素， 丹 经 中 称为 三 宝。 陈 抟 说：“ 故 曰 存 精， 养神， 炼 气， 此 乃 三 德 之神， 不可 不知。”[ 33] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三 宝 之中， 以 精 为 物质 基础， 元 精 虽 属 先天， 但 亦 多 杂质， 为有 形 质的 阴 物， 不能 通过 督 脉 上升 至 头顶。 陈 抟《 指 玄 篇》 说：“ 涕 涶 精液 气血 液， 七 者 元 来 尽 属 阴。 若 将此 物 为 仙 质， 怎 得 飞 神 贯 玉 京。”[ 34] 所以 必 须将 精 与 气 合 炼， 化为 精气合一 之“ 阳气”， 轻 清 无 质， 始能 随 意念 沿 任、 督 二 脉 运转。 此 合 三（ 精、 气、 神） 为 二（ 气、 神） 的 过程， 就叫“ 炼 精 化 气。” 炼 精 化 气 阶段 又可 分为 几个 具体 步骤， 但 最 基本 的 功夫 是 炼 己， 在 整个 修炼 过程 不可 须臾 或 离。 陈 抟 指出：“ 定心 不动 谓之 曰 禅， 神通 万变 谓之 曰 灵， 智 通 万事 谓之 曰 慧， 道 元 合 气 谓之 曰 修， 真气 归 源 谓之 曰 炼。”[ 35] 张 无梦 亦 曰：“ 道在 丹田 达 者 知， 分明 悟 了 更 何 疑。 乾 男 自 逐 龙 潜 坎， 坤 女 须 随 虎 隐 离。 但 守 清 虚 除 嗜欲， 自然 恬淡 合 希 夷。 仙 经 不是 闲言 语， 看 取 千年 胎 息 龟。”[ 36] 这里 所说 的 都是 炼 己 功夫。 </t>
+  </si>
+  <si>
+    <t>练气化神</t>
+  </si>
+  <si>
+    <t>五气朝元</t>
+  </si>
+  <si>
+    <t>取坎填离</t>
+  </si>
+  <si>
+    <t>练神还虚</t>
+  </si>
+  <si>
+    <t>复归无极</t>
+  </si>
+  <si>
+    <t>故炼丹采药，首先当识玄牝之门，然后澄思息虑，意守命门，气沉丹田，这就叫做守一得窍</t>
+  </si>
+  <si>
+    <t>三宝之中，以精为物质基础，元精虽属先天，但亦多杂质，为有形质的阴物，不能通过督脉上升至头顶。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -716,20 +795,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="39.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="45.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +835,11 @@
       <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -768,8 +852,11 @@
       <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="195">
       <c r="A3">
         <v>2</v>
       </c>
@@ -783,8 +870,14 @@
       <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="195">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,16 +889,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="345">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -822,16 +921,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="75">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -840,31 +939,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="225">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="188.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="105">
       <c r="A10">
         <v>9</v>
       </c>
@@ -874,32 +982,44 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="345">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -909,8 +1029,11 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
@@ -918,107 +1041,153 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="165">
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="105">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="2:11" ht="150">
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1038,19 +1207,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC46289-42AD-4AA4-A5AA-BA94EF9204A4}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1081,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1095,7 +1264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1106,7 +1275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1123,7 +1292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1131,7 +1300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1145,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1153,7 +1322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1161,7 +1330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1175,72 +1344,72 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1257,7 +1426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,14 +1441,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1301,7 +1470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1309,7 +1478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1317,104 +1486,104 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1429,16 +1598,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D274ED-35F8-47C9-953B-FD8E30408D2D}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1449,7 +1618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1457,7 +1626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1465,7 +1634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1473,7 +1642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1481,7 +1650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1489,7 +1658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="120">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1497,7 +1666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="180">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1505,7 +1674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1513,7 +1682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1521,7 +1690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1529,7 +1698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1537,7 +1706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="60">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1545,7 +1714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="409.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1553,7 +1722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="120">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1561,142 +1730,142 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>42</v>
       </c>

--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68CBFA8-3DAA-42DD-9F91-165C81DBEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48509A57-A035-4A14-96F4-DDA8A60F0CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
-    <sheet name="秘典" sheetId="2" r:id="rId2"/>
-    <sheet name="派系" sheetId="3" r:id="rId3"/>
-    <sheet name="物品" sheetId="4" r:id="rId4"/>
-    <sheet name="理论根基" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="秘典" sheetId="2" r:id="rId3"/>
+    <sheet name="派系" sheetId="3" r:id="rId4"/>
+    <sheet name="物品" sheetId="4" r:id="rId5"/>
+    <sheet name="理论根基" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +463,112 @@
   </si>
   <si>
     <t>三宝之中，以精为物质基础，元精虽属先天，但亦多杂质，为有形质的阴物，不能通过督脉上升至头顶。</t>
+  </si>
+  <si>
+    <t>称号</t>
+  </si>
+  <si>
+    <t>道士之名源于战国、秦汉时的方士，即有方术之士。道教创立之后，道士则专指从道修行的道教神职教徒。隋唐前后道士，习惯上男称道士、黄冠；女称女冠、女真。较晚至今，则分别称男、女道士为乾道和坤道。南北朝时代奉道之士增多，对在家修持的人，称为“火居道士”，以区别出家道士。</t>
+  </si>
+  <si>
+    <t>　　天师：指张陵或其嗣号之后裔。但后世也有个别道士称“天师”，如寇谦之（北魏），隋焦子顺，唐胡惠超等。</t>
+  </si>
+  <si>
+    <t>　　法师：精通经戒、主持斋仪，度人入道，堪为众范的道士，叫法师。精通道法，能养生教化，为人师表者叫法师。</t>
+  </si>
+  <si>
+    <t>　　炼师：起初多指修习上清法者，后泛称修炼丹法达到很高深境界的道士。</t>
+  </si>
+  <si>
+    <t>　　祖师宗师：各道派的创始人曰祖师；各派传道的首领称之为宗师。</t>
+  </si>
+  <si>
+    <t>　　真人： 通常尊称那些体道大法，道行高深，羽化登仙的道士。</t>
+  </si>
+  <si>
+    <t>　　黄冠：早期道教徒崇尚黄色，故世人根据道士衣冠颜色，称道士为黄冠。</t>
+  </si>
+  <si>
+    <t>　　羽客：亦称“羽士”、“羽人”。以鸟羽比喻仙人可飞升上天，引申为神仙方士，进而专指道士。后世道士多取以自号。</t>
+  </si>
+  <si>
+    <t>　　先生：道士的尊称或谥号、赐号。</t>
+  </si>
+  <si>
+    <t>　　居士：信奉道教的俗家信众。</t>
+  </si>
+  <si>
+    <t>　　方丈：对道教十方丛林最高领导者称谓，亦可称“住持”。方丈是受过三坛大戒，接过律师传“法”，戒行精严，德高望重，受全体道众拥戴而选的道士。</t>
+  </si>
+  <si>
+    <t>　　监院：亦称“当家”、“住持”。由常住道众公选，为道教丛林中总管内外一切事务者。当监院大任者，必须才全智足，通道明德，仁义谦恭，宽宏大量，弱己卫众，柔和善良，明罪福因果，功行俱备。</t>
+  </si>
+  <si>
+    <t>　　知客：负责接待参访及迎送宾客，《三乘集要》记载：“知客应答高明言语，接待十方宾朋，须以深知事务，通达人情，乃可任也。</t>
+  </si>
+  <si>
+    <t>　　高功：指那些德高望重，精于斋醮科仪，善于踏罡步斗，沟通神人，代神宣教，祈福消灾，拔度幽魂，主持斋醮法会的道士，是经师的首领。</t>
+  </si>
+  <si>
+    <t>　　道人：最初与方士同义，最早出现于《汉书·京房传》。道教创立后，道人一词曾专指道士。南北朝时代，则以道人专指沙门，而区别于道士。唐朝以后，又以道人泛指有道术之人，或指道士。</t>
+  </si>
+  <si>
+    <t>　　道长：是当今教外人士对出家道士的尊称，而不是职称。</t>
+  </si>
+  <si>
+    <t>这是神洲古代对个人及神仙的教化修炼境界分类，包括了人类与神仙在内的修炼教化境界分级。但是关于古代人神分级比较混乱，没有统一标准，因而存在多种说法。综合易学原理、道家、儒家、荀子等学派思想观点及天教、方仙道、儒教、道教等思想，古代神洲华夏把具有灵思机能的高级生命机体——神人（神仙）及地人（凡人）的修教境界，分为十二个等级：1.神人（无所不能的至神境界）；2.天人（次神级——道人，可入地阴之境，比如阴冥界之神）；3.真人（可长生不老的仙人级，包括犯罪真人神人如妖魔鬼怪，以上三级为神仙级）；4.至人（通道明分境界的最高地人）；5.圣人（德能具高而明道昧分境界的地人）；6.贤人（通德能并高而通于中道的地人，一般为君子或者隐士，治世可以为明君，如夏禹王、商汤王、周武王、唐太宗、宋太祖、元世祖等）；7.卓人（某方面有大能但德常甚至德劣境界的地人，一般可以成为伟人，学术可以成为巨子，如海德格尔之流，治世可以成为巨人，如嬴政、刘邦、刘彻、希特勒、东条英机等）；8.士人（小德小能境界的地人）；9.常人（德能最低境界的庸人）；10.倚人（身心残缺者）；11.佞人（小能而邪德境界的小人，包括中恶境界的骗子与暗盗，也包括搞权力交易的腐败分子）；12.恶人（品德大劣而以强能取利或泄愤境界的贼人——持戈以强力杀人抢夺财贝就是贼，包括利用权力致人伤死的极端腐败分子）。其中，神人、真人、仙人都是不是凡间人类，而是神灵级别，统称神仙。从至人开始才是人类，其中佞人与恶人合成邪人。所以，对于地星人类而言，还是至人最高。
+        中国修教境界分类有一个漫长的形成过程。教化圣人孔子首先根据个人的教化修炼程度，把人分为五等：圣人、贤人、君子、士人、小人（庸人）。后来庄子按照个人身心修养境界，把个人分为八个等级：天人、神人、至人、圣人、贤人、君子、官人（百官）、民人（民众）。荀子综合百家学说，反对庄子伪造的天人、神人观念——人不可能达到的境界，认为个人可以通过教化修炼，身心可以达到的最高境界才是真实不虚的，于是荀子提出比较严谨的人灵修炼境界分类，即把个人教化修养境界分为六个等级：至人（道性并至境界的地星人灵）、圣人（道至性常境界的道圣）、贤人（中道中性境界的君子）、士人（中性小道或中道小性境界的官人）、庸人（小性小道境界的常人或民人）、倚人（身心缺陷全无法修炼而需要倚仗的人），并且荀子认为凡是生理正常的人，只要方法得当，通过教化修炼，人人可以成为君子，人人可以成为圣人。后来道家发展为道教后，进一步调整了等级，在庄子分类基础上又加入道人、真人，但是说法并不统一。</t>
+  </si>
+  <si>
+    <t>1.神人（无所不能的至神境界）；2.天人（次神级——道人，可入地阴之境，比如阴冥界之神）；3.真人（可长生不老的仙人级，包括犯罪真人神人如妖魔鬼怪，以上三级为神仙级）；4.至人（通道明分境界的最高地人）；5.圣人（德能具高而明道昧分境界的地人）；6.贤人（通德能并高而通于中道的地人，一般为君子或者隐士，治世可以为明君，如夏禹王、商汤王、周武王、唐太宗、宋太祖、元世祖等）；7.卓人（某方面有大能但德常甚至德劣境界的地人，一般可以成为伟人，学术可以成为巨子，如海德格尔之流，治世可以成为巨人，如嬴政、刘邦、刘彻、希特勒、东条英机等）；8.士人（小德小能境界的地人）；9.常人（德能最低境界的庸人）；10.倚人（身心残缺者）；11.佞人（小能而邪德境界的小人，包括中恶境界的骗子与暗盗，也包括搞权力交易的腐败分子）；12.恶人（品德大劣而以强能取利或泄愤境界的贼人——持戈以强力杀人抢夺财贝就是贼，包括利用权力致人伤死的极端腐败分子）。其中，神人、真人、仙人都是不是凡间人类，而是神灵级别，统称神仙。</t>
+  </si>
+  <si>
+    <t>神人</t>
+  </si>
+  <si>
+    <t>天人</t>
+  </si>
+  <si>
+    <t>真人</t>
+  </si>
+  <si>
+    <t>至人</t>
+  </si>
+  <si>
+    <t>圣人</t>
+  </si>
+  <si>
+    <t>贤人</t>
+  </si>
+  <si>
+    <t>玄三
+卓人</t>
+  </si>
+  <si>
+    <t>玄一
+常人</t>
+  </si>
+  <si>
+    <t>仙人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《黄帝阴符经》：“天性，人也；人心，机也。”人是大自然的产物，自然的属性与阴阳五行、天干地支相契合，具有客观物质属性。人心支配着身体的言语行为，感受体悟、探索认知大自然的奥秘，具有意念与思想，具有主观能动性。心附着于身体，合二为一为人。
+人有多种，不一而论。“性有巧拙，可以伏藏”（见《黄帝阴符经》），人的天性有灵巧和愚笨的区分，而且这种属性可以展现可以隐藏。如果再细区分，以庄子的划分较为准确。《庄子·天下》：
+不离于宗，谓之天人；不离于精，谓之神人；不离于真，谓之至人。以天为宗，以德为本，以道为门，兆于变化，谓之圣人。以仁为恩，以义为理，以礼为行，以乐为和，熏然慈仁，谓之君子。以法为分，以名为表，以参为验，以稽为决，其数一二三四是也，百官以此相齿，以事为常，以衣食为主，蕃息畜藏，老弱孤寡，皆有以养，民之理也。
+不脱离于祖先形体，叫做自然之人。所谓“天人合一”，实属自然状态。人有人形，即便与人是近亲的猿猴、猩猩，也不是人，更别说飞禽走兽了。不脱离于元精的人，叫做“神人”。按道家老子的观点，这种人当是婴儿，人在初生之时元精守身。由精化气固有神，人都有精气神，但只有极少数天份与修为极高的人，能做到元精不离于身，成为“神人”。
+“真者，精诚之至也”（见《庄子·渔父》），不脱离于至端精诚的人，才是“真人”。“真人者，知大己而小天下，贵治身而贱治人，不与物滑和，不以欲乱情，隐其名姓；有道则隐，无道则见。”（见《文子·道原篇》）真实真正的人，懂得强大自己而以天下为小，重视修身而轻视治理人，不被外物表象诱惑，不被欲望迷乱性情，不好虚名，天下有道就隐藏，天下无道就现身布道。“真人”在现实社会中不多，却总有出现。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">把大自然当作根源所在，把拥有完备的身心当作品质的根本，把自然之道当作思想之门，明察各种变化于征兆之中，这样的人叫做“圣人”。“圣人”乃通人情达天理之人。“圣人妄乎治人，而在乎自理。”“圣人不以人易天，外与物化而内不失情，故通于道者反于清静，究于物者终于无为。”（见《文子·道原篇》）是说通达之人不在乎治理人，而在乎理顺自身的行为。“圣人”不以主观意识、亲疏贵贱来改变自然本性，顾及物质利益又不失去精神内涵，所以能融会贯通大道而返归于清静自然，能领会探究物理而顺应自然之道作为。不过“圣人无全能”（见《列子·天瑞第一》），“执一以为天下牧”，专守一业便能生存生活于天下。现实社会中只有一小部分人属于“圣人”，如房屋的脊柱。
+把仁爱作为恩德，把仗义作为道理，把礼仪作为行为，把乐声作为和顺，温和的样子慈祥仁爱，这样的人称为“君子”。“君子”有良好的修为，是社会的中坚力量，是栋梁。“言念君子，温其如玉”（见《诗经·秦风·小戎》），“君子爱财，取之有道”（见《增广贤文》）。翩翩君子，人之所爱。
+众人为民，民众以法律作尺度，以名号作标志，以比较为校验，以考核来判断，等级像一二三四之数明显，百官以此相排列，以职业事业为常务；以衣食为主旨，生产休息、畜养储藏，关心老弱孤寡，皆有所养，这是民众的社会常理。民众完全带有社会属性。
+“天人”为众人。“神人”、“至人”、“圣人”稀缺却对天下有大作为，“至人无己，神人无功，圣人无名”（见《庄子·逍遥游》），三者都是大公无私的，其贡献是属于人类的。“君子”众多，可以带动民众，影响社会发展趋势。“神人”、“至人”、“圣人”、“君子”皆出自民众，出自“天人”。
+</t>
+  </si>
+  <si>
+    <t>玄二
+达人</t>
   </si>
 </sst>
 </file>
@@ -504,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -514,6 +621,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,22 +905,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,23 +935,26 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:12" ht="330">
       <c r="A2">
         <v>1</v>
       </c>
@@ -852,11 +967,14 @@
       <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="195">
+    <row r="3" spans="1:12" ht="195">
       <c r="A3">
         <v>2</v>
       </c>
@@ -864,20 +982,23 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="195">
+    <row r="4" spans="1:12" ht="195">
       <c r="A4">
         <v>3</v>
       </c>
@@ -885,11 +1006,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="345">
+    <row r="5" spans="1:12" ht="345">
       <c r="A5">
         <v>4</v>
       </c>
@@ -897,14 +1021,17 @@
       <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -917,11 +1044,11 @@
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="75">
+    <row r="7" spans="1:12" ht="75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -932,14 +1059,17 @@
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="225">
+    <row r="8" spans="1:12" ht="225">
       <c r="A8">
         <v>7</v>
       </c>
@@ -950,14 +1080,17 @@
       <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="188.25" customHeight="1">
+    <row r="9" spans="1:12" ht="188.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -968,11 +1101,14 @@
       <c r="D9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="105">
+    <row r="10" spans="1:12" ht="105">
       <c r="A10">
         <v>9</v>
       </c>
@@ -986,7 +1122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="345">
+    <row r="11" spans="1:12" ht="345">
       <c r="A11">
         <v>10</v>
       </c>
@@ -994,14 +1130,17 @@
       <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1009,8 +1148,11 @@
       <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="E12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1018,8 +1160,11 @@
       <c r="C13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1033,7 +1178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60">
+    <row r="15" spans="1:12" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1044,8 +1189,11 @@
       <c r="D15" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="E15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1132,7 +1280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="165">
+    <row r="33" spans="2:12" ht="165">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -1140,24 +1288,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="105">
+    <row r="34" spans="2:12" ht="105">
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="2:11" ht="150">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="2:12" ht="150">
       <c r="B38" t="s">
         <v>99</v>
       </c>
@@ -1165,27 +1313,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
         <v>106</v>
       </c>
@@ -1204,10 +1352,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB4C30E-2879-4905-9857-A2D37CC0963E}">
+  <dimension ref="B2:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="315">
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC46289-42AD-4AA4-A5AA-BA94EF9204A4}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDFBD47-8057-4711-BFDF-9413BA7676C6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1433,7 +1684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4542B1-4E20-4872-880D-0A9D5BAC6827}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -1594,17 +1845,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D274ED-35F8-47C9-953B-FD8E30408D2D}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="94.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1730,87 +1982,96 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="405">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="375">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>

--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48509A57-A035-4A14-96F4-DDA8A60F0CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53FA8E-A2B3-4D7F-B82F-9C22A54E8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="秘典" sheetId="2" r:id="rId3"/>
-    <sheet name="派系" sheetId="3" r:id="rId4"/>
+    <sheet name="派系" sheetId="3" r:id="rId2"/>
+    <sheet name="人物" sheetId="7" r:id="rId3"/>
+    <sheet name="秘典" sheetId="2" r:id="rId4"/>
     <sheet name="物品" sheetId="4" r:id="rId5"/>
     <sheet name="理论根基" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,10 +545,6 @@
   <si>
     <t>玄三
 卓人</t>
-  </si>
-  <si>
-    <t>玄一
-常人</t>
   </si>
   <si>
     <t>仙人</t>
@@ -569,6 +567,124 @@
   <si>
     <t>玄二
 达人</t>
+  </si>
+  <si>
+    <t>玄一
+平人</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>原型</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>主要事迹</t>
+  </si>
+  <si>
+    <t>派别</t>
+  </si>
+  <si>
+    <t>五行属性</t>
+  </si>
+  <si>
+    <t>人际关系</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>作风</t>
+  </si>
+  <si>
+    <t>掌教</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>派别关系</t>
+  </si>
+  <si>
+    <t>秘典</t>
+  </si>
+  <si>
+    <t>葛洪</t>
+  </si>
+  <si>
+    <t>鲍姑</t>
+  </si>
+  <si>
+    <t>葛洪之妻</t>
+  </si>
+  <si>
+    <t>鲍靓</t>
+  </si>
+  <si>
+    <t>葛洪岳父</t>
+  </si>
+  <si>
+    <t>太玄真人</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>艾灸</t>
+  </si>
+  <si>
+    <t>鲍静，字太玄</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>地址、洞府</t>
+  </si>
+  <si>
+    <t>阴长生</t>
+  </si>
+  <si>
+    <t>郑隐</t>
+  </si>
+  <si>
+    <t>鲍静师父</t>
+  </si>
+  <si>
+    <t>葛洪之师</t>
+  </si>
+  <si>
+    <t>罗浮宫</t>
+  </si>
+  <si>
+    <t>罗浮山</t>
+  </si>
+  <si>
+    <t>抱朴子</t>
+  </si>
+  <si>
+    <t>葛玄</t>
+  </si>
+  <si>
+    <t>葛洪之祖父</t>
+  </si>
+  <si>
+    <t>白日冲举</t>
+  </si>
+  <si>
+    <t>左慈</t>
+  </si>
+  <si>
+    <t>葛玄之师</t>
   </si>
 </sst>
 </file>
@@ -617,13 +733,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,7 +1074,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -978,12 +1094,12 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>41</v>
@@ -1002,12 +1118,12 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>74</v>
@@ -1017,7 +1133,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -1035,7 +1151,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1052,7 +1168,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>76</v>
       </c>
@@ -1073,7 +1189,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
@@ -1094,7 +1210,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>86</v>
       </c>
@@ -1112,7 +1228,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -1126,7 +1242,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -1144,19 +1260,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>82</v>
       </c>
@@ -1168,7 +1284,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -1182,7 +1298,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1197,13 +1313,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
@@ -1352,101 +1468,506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB4C30E-2879-4905-9857-A2D37CC0963E}">
-  <dimension ref="B2:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDFBD47-8057-4711-BFDF-9413BA7676C6}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73611BBC-3244-45BF-A36A-C1AC67B1EDBA}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="8" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="315">
-      <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC46289-42AD-4AA4-A5AA-BA94EF9204A4}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -1666,19 +2187,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDFBD47-8057-4711-BFDF-9413BA7676C6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1995,10 +2503,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2135,4 +2643,128 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB4C30E-2879-4905-9857-A2D37CC0963E}">
+  <dimension ref="B2:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="315">
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="178" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53FA8E-A2B3-4D7F-B82F-9C22A54E8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD8C195-1AF2-43A6-A545-D9456FDE3E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="234">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏伯阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,9 +614,6 @@
     <t>葛洪</t>
   </si>
   <si>
-    <t>鲍姑</t>
-  </si>
-  <si>
     <t>葛洪之妻</t>
   </si>
   <si>
@@ -678,20 +671,216 @@
     <t>葛洪之祖父</t>
   </si>
   <si>
-    <t>白日冲举</t>
-  </si>
-  <si>
-    <t>左慈</t>
-  </si>
-  <si>
-    <t>葛玄之师</t>
+    <t>魏夫人</t>
+  </si>
+  <si>
+    <t>生卒</t>
+  </si>
+  <si>
+    <t>251～334</t>
+  </si>
+  <si>
+    <t>紫虚元君
+南岳魏夫人</t>
+  </si>
+  <si>
+    <t>我行我素</t>
+  </si>
+  <si>
+    <t>魏夫人
+魏华存</t>
+  </si>
+  <si>
+    <t>黄庭经</t>
+  </si>
+  <si>
+    <t>魏伯阳</t>
+  </si>
+  <si>
+    <t>283—363</t>
+  </si>
+  <si>
+    <t>王弼</t>
+  </si>
+  <si>
+    <t>226—249</t>
+  </si>
+  <si>
+    <t>三国魏玄学家。与何晏、夏侯玄等同开玄学清谈风气，世称“正始之音”。始以新的玄学代替当时逐渐失势的汉儒经学，对于儒学经典的注疏，偏重哲理发挥。著有《周易注》、《老子注》等。有《王弼集》。</t>
+  </si>
+  <si>
+    <t>王羲之</t>
+  </si>
+  <si>
+    <t>321—379</t>
+  </si>
+  <si>
+    <t>字逸少。东晋大书法家。他博采秦汉以来篆、隶、楷、行、草等诸体之长，成功地把楷书和草书结合起来，把书法的实用性和艺术性结合起来，创新了刚劲中正，妍美流变的新书体，被后人尊称为书圣。《乐毅论》、《兰亭序》、《十七帖》等书迹刻本著称于世。有《王右军集》。</t>
+  </si>
+  <si>
+    <t>王猛</t>
+  </si>
+  <si>
+    <t>325—375</t>
+  </si>
+  <si>
+    <t>字景略。十六国时前秦政治家、军事家。终其一生辅佐朝政，立法度，讲礼义，兴学校，课农桑，淳风俗，促团结，角逐群雄，统一北方，是历史上著名的贤臣良相。</t>
+  </si>
+  <si>
+    <t>陶渊明</t>
+  </si>
+  <si>
+    <t>365-427</t>
+  </si>
+  <si>
+    <t>嵇康</t>
+  </si>
+  <si>
+    <t>223-262</t>
+  </si>
+  <si>
+    <t>欧阳健</t>
+  </si>
+  <si>
+    <t>267-300</t>
+  </si>
+  <si>
+    <t>干宝</t>
+  </si>
+  <si>
+    <t>嵇含</t>
+  </si>
+  <si>
+    <t>280-336</t>
+  </si>
+  <si>
+    <t>王导</t>
+  </si>
+  <si>
+    <t>干宝（280-336），字令升，汝南郡新蔡县（今河南省新蔡县）人。东晋时期大臣，文学家、史学家，作品有《搜神记》，参与编修《晋纪》。</t>
+  </si>
+  <si>
+    <t>司马睿</t>
+  </si>
+  <si>
+    <t>皇帝</t>
+  </si>
+  <si>
+    <t>276－323</t>
+  </si>
+  <si>
+    <t>263—306</t>
+  </si>
+  <si>
+    <t>嵇康之侄孙</t>
+  </si>
+  <si>
+    <t>石冰</t>
+  </si>
+  <si>
+    <t>字君道 [1]  ，自号亳丘子，谯郡铚县（今安徽省濉溪县临涣镇）人。西晋时期大臣、文学家、植物学家，徐州刺史嵇喜之孙，太子舍人嵇蕃之子，“竹林七贤之一”嵇康的侄孙。
+嵇含举秀才出仕，初任郎中，历任征西参军、骠骑记室、尚书郎中、幽州从事中郎、中书郎、累迁襄城太守。依附于镇南将军刘弘，镇守于襄阳。陈敏作乱时，担任广州刺史。刘弘死后，留领荆州。光熙元年，被荆州司马郭劢杀害，时年四十四岁。
+嵇含的著名作品不多，包括了三首五言诗《登高》、《悦晴》、《伉俪》。《隋书·经籍志》录有《嵇含集》十卷，今已佚失。著有《南方草木状》一书，成为我国现存最早的地方植物志。</t>
+  </si>
+  <si>
+    <t>邓岳
+邓伯山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邓岳年少时就有将帅的才干，最初担任王敦的参军，后改任从事中郎、西阳太守。王含反叛时，邓岳率军跟随王敦进军京都建康（今江苏南京市）。王含覆败后，邓岳与周抚都投奔蛮王向蚕。后来遇到大赦，邓岳与周抚都出来请罪，并受诏被禁锢。久之，司徒王导任命邓岳为从事中郎，后来再度担任西阳太守。 [2] 
+咸和三年（328年），当时苏峻起兵反叛朝廷，平南将军温峤派遣邓岳与督护王愆期、鄱阳太守纪睦等率领水军赴难。苏峻之乱平定后，邓岳回到西阳郡。 [3] 
+咸和五年（330年），郭默杀害刘胤，大司马陶侃派邓岳率领西阳兵众征讨郭默。郭默平定后，升任督交、广二州军事，建武将军，兼任平越中郎将、广州刺史、假节，因前后功勋，赐封爵位为宜城县伯。 [4] 
+咸康三年（337年），邓岳派兵攻打夜郎，取得胜利，加任督宁州军事，进号征虏将军，升任平南将军。 [5] 
+咸康五年（339年）三月二月二十日，邓岳率军攻打成汉政权，收复了南中。 [6]  邓岳死后，其子邓遐继承宜城县伯的爵位。 [7] 
+</t>
+  </si>
+  <si>
+    <t>276～339</t>
+  </si>
+  <si>
+    <t>门阀，权臣。
+王导（276年～339年），字茂弘，小字赤龙 [1]  ，琅琊郡临沂县（今山东省临沂市）人。东晋开国元勋，政治家、书法家，镇军司马王裁的儿子。
+出身“琅琊王氏”，袭封即丘县子。凭借门荫入仕，起家司空（刘寔）东阁祭酒，迁东海王（司马越）参军。交好琅琊王司马睿，随其移镇建邺，联络南方士族，安抚南渡士族。东晋建立后，拜骠骑大将军、开府仪同三司，册封武冈县侯，进位侍中、司空公、录尚书事、中书监，形成“王与马，共天下”的格局。“王敦之乱”时，反对废除晋元帝，拥立晋明帝，进位太保、司徒，册封始兴郡公。晋明帝驾崩后，联合外戚庾亮等共同辅政，反对征召苏峻入京。“苏峻之乱”平定后，全力稳定局势，联合太尉郗鉴继续执政。咸康五年（339年9月7日），因病去世，享年六十四岁，谥号“文献”， [2]  葬礼规格按照霍光、司马孚故事，为东晋中兴名臣之最。
+王导善于书法，以行草最佳。学习钟繇、卫瓘之法，自成一格，颇有声望，草书作品《省示帖》、《改朔帖》传世。</t>
+  </si>
+  <si>
+    <t>王羲之叔父。跟司马睿关系好，重臣。</t>
+  </si>
+  <si>
+    <t>王敦</t>
+  </si>
+  <si>
+    <t>266～324</t>
+  </si>
+  <si>
+    <t>王敦（266年～324年），字处仲，琅琊临沂（今山东省临沂市）人。东晋时期大臣，晋武帝司马炎的女婿，治书侍御史王基的儿子。
+王敦出身琅琊王氏，善于清谈。迎娶襄城公主，授驸马都尉，历任太子舍人、给事黄门侍郎。支持晋惠帝复位，授散骑常侍、左卫将军、大鸿胪卿、侍中，出任青扬二州刺史。永嘉之乱后，消灭江州刺史华轶、镇压荆湘流民起义，拥戴晋元帝继位。东晋建立后，担任大将军、江州牧，册封汉安县侯。掌控长江中上游的军队，统辖州郡，自收贡赋，对东晋政权造成极大威胁。晋元帝以北讨后赵为名，将刘隗、戴渊外放领军，防御王敦。永昌元年（322年），以诛杀刘隗为名，发动叛乱，攻破建康，诛除异己，自领丞相、江州牧，进爵武昌郡公。移镇姑孰，自领扬州牧。
+太宁二年（324年），再次进攻建康，病逝于军中，享年五十九岁。叛乱平定后，剖棺戮尸。</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>据《晋书》等记载，5岁时对父母说：“我本是曲阳李家子，9岁坠井死。”父母寻访得李氏，推问，果符其说。靓兼学道教和儒典，明天文、《河图》、《洛书》。迁南阳中部都尉，为广东南海太守。曾入海遇风，煮白石充饥。曾与许谧往还。
+鲍靓自小聪明好学，博览勤书，尤好道学。青年时在龙山中遇见仙人阴长生，逐拜为师，学了炼丹和尸解等道法后，就被师傅打发回家。
+晋室南渡，鲍靓也举家迁到江苏的最新丹阳，他在丹阳开馆授徒。他见到学生葛洪沉重好学，不慕名利，便将女儿鲍姑许了给他，后来鲍靓调到南海任太守，而葛洪也到了广东罗浮山，鲍靓日理政事，晚上乘着由两只鞋变成的燕子飞到罗浮山和葛洪研究仙术。享年百余岁。或云年过七十而尸解。或云后还丹阳，卒葬于召子冈。或云于罗浮山得道。
+鲍靓活到一百多岁后葬在丹阳石子岗上，后有人想盗他的墓，但他的棺材里只有一把大刀，而鲍靓却成仙去了</t>
+  </si>
+  <si>
+    <t>309-363</t>
+  </si>
+  <si>
+    <t>鲍姑
+名潜光</t>
+  </si>
+  <si>
+    <t>鲍姑（309-363），小字潜光，陈留郡（今开封陈留）人。其父亲鲍靓，字太玄，曾任南海太守。319年（东晋太兴二年），鲍靓在越秀山南麓建越岗院（即今三元宫），供鲍姑居住修炼。与葛洪结为夫妻后，共同研究医学和炼丹术，一起炼丹制药，并到广州一带采集丹砂等20余种药物，作为原料。现南海西樵山附近的仙岗还存有他们早年炼丹的遗址。鲍姑一生行医、采药，足迹遍及广州所辖南海郡的番禺、博罗等县。医德高尚，擅长灸法，尤精通艾炙法，善于医治赘瘤与赘疣等病症，为百姓解除病痛，被尊称为“女仙”、“鲍仙姑”。鲍姑的灸法经验主要记载在葛洪的《肘后要急方》内。全书记有针灸方109条，其中灸方占99条。该书较详明的记述灸法的作用、疗效、操作方法、注意事项等，丰富了中医学的灸法内容。原存于广州市三元宫的“鲍姑艾灸穴位图”，对人体骨节经络、五脏六腑均有详细叙述，大致符合现代医学原理，是中医学的宝贵遗产。363年（建元元年）鲍姑患急病辞世（一说在罗浮山玉鹅峰千丈岩采药坠岩身亡） [1]  。</t>
+  </si>
+  <si>
+    <t>？-302</t>
+  </si>
+  <si>
+    <t>郑隐（？-302），字思远，精通礼记、尚书，善律侯，阅览九宫、三奇、河洛、谶记。收葛洪为徒，受《正一法文》、《黄帝九鼎神丹经一卷》、《金液丹经一卷》、《太清金液神丹经三卷》，精于炼丹，入庐江马迹山居，仁及鸟兽，常年有50余位充作仆役的弟子。 [1]  80岁时体力充沛，健步如飞。藏书1298卷，涵盖经、记、符、图、文、篆、律、仪、法、言。302年为躲避兵祸，负笈持仙药之扑，带入室弟子东投霍山，不知所终。</t>
+  </si>
+  <si>
+    <t>164—244</t>
+  </si>
+  <si>
+    <t>白日冲举
+三国著名高道，道教灵宝派祖师。据《抱朴子》记述葛玄以左慈为师，修习道术，受《太清丹经》、《九鼎丹经》、《金液丹经》等炼丹经书，后传授给郑隐。相传他曾在江西阁皂山修道，常辟谷服食，擅符咒诸法，奇术甚多。后世道教尊称葛玄为“葛仙公”，又称“太极左仙公”，北宋徽宗时封为“冲应真人”，南宋理宗时封为“冲应孚佑真君”。</t>
+  </si>
+  <si>
+    <t>灵宝派</t>
+  </si>
+  <si>
+    <t xml:space="preserve">葛 洪 的 父亲 葛 悌(？ ～ 295 年)， 仕 吴， 曾为 中 书 郎、 廷尉 平、 中 护 军、 五 郡 赴 警， 这些 官职 都是 一些 重要 部门 副职， 有 提拔 之意， 可见 葛 悌 深得 吴 国君 主 信任， 这 也是 受 其父 的 荫 泽。 但 吴 灭 后， 西晋 政权 初 以 故 官 任 郎中， 稍 迁至 大 中 大夫， 历 位 大 中正、 肥乡 令、 邵 陵 太守。 而这 些 官职 都是 一些 闲职 或 小官， 可见 葛 悌 后半生 并不 怎么 得意。 最后 葛 悌 死 在 邵 陵 太守 任 上， 葛 洪 时 年 13 岁， 家道 从此 中落。
+李强. 儒本道宗,学贯百家:葛洪传 (Kindle 位置 234-237). Kindle 版本. </t>
+  </si>
+  <si>
+    <t>葛 悌</t>
+  </si>
+  <si>
+    <t>？-295</t>
+  </si>
+  <si>
+    <t>葛洪之父</t>
+  </si>
+  <si>
+    <t>郭文</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郭 文， 字 文 举， 是 河内 郡 轵 县( 今 河南省 济源 市 一带) 人。 从小 忘情 于 山水， 崇尚 隐居。 十三 岁时， 经常 到 山林 里 游玩， 过了 十天 八 天 还不 回家。 父母 死后， 郭 文 服丧 完毕， 不 娶妻， 辞别 家乡， 去 游览 名山， 登上 了 华阴 的 悬崖， 观 览 石 室 中的 石 函。 洛阳 沦陷 后， 郭 文 就 挑着 担子 走进 吴 兴 余杭 大 辟 山里 深谷 无人 的 地方， 用 木头 靠着 树， 把 茅 苫 覆盖 在上面 就 住进 去了， 也没 有 墙壁 遮蔽。 当时 猛兽 作恶， 进入 房子 里 害人， 但是 郭 文 独自 住了 十 多年， 最终 也没 有 遭受 灾祸。 他 经常 是 穿着 粗陋 的 裘 衣 和 葛 布 头巾， 不喝 酒 不吃 肉， 按 距离 挖开 沟 播 种豆 和 麦， 采摘 竹叶 和 树木 的 果实， 换回 一些 盐 供给 自己。 有的 人用 低贱 的 价格 换 他的 东西， 他也 马上 给了 别人。 后来 人们 知道 他是 郭 文， 就不 再 贱买 他的 东西。 郭 文 有了 余粮， 总是 拿来 救济 没有 饭 吃 的 人。 有人 送 东西 给他， 他 只 拿 那些 粗劣 的， 以示 不 违 逆 别人 的 好意。 有 猛兽 在 草屋 旁边 咬 死了 大 母 鹿， 郭 文 把这 一 情况 告诉 别人， 人们 拿去 卖了， 分给 郭 文钱。 郭 文 说：“ 我 如果 需 要钱， 自己 就会 卖了 死 鹿。 我 之所以 告诉 你们， 正是 因为 不需要 钱 的 缘故。” 人们 听了， 都 感叹 不已。 曾经 有 猛兽 对着 郭 文 张开 大口， 郭 文 看见 它的 口中 横着 一 根 骨头， 就 把手 探 进 去拿 了 出来， 第二天 清晨 猛兽 把 一只 鹿 送到 郭 文 的 屋前。 猎人 有时候 到 他那 里 寄宿， 他 连夜 给 猎人 挑水 用， 脸上 也没 有 厌倦 的 神色。
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +893,20 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -727,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,11 +938,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -1067,98 +1279,98 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="330">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="195">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="195">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="345">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1168,15 +1380,15 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1189,137 +1401,137 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="188.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="105">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="345">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
@@ -1398,10 +1610,10 @@
     </row>
     <row r="33" spans="2:12" ht="165">
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="105">
@@ -1412,46 +1624,46 @@
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="2:12" ht="150">
       <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1491,43 +1703,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>151</v>
       </c>
-      <c r="K1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>152</v>
-      </c>
-      <c r="M1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1535,16 +1747,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1700,10 +1912,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73611BBC-3244-45BF-A36A-C1AC67B1EDBA}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1712,266 +1925,462 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
-    <col min="8" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="270">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="E3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="255">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" t="s">
         <v>162</v>
       </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:13" ht="135">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:13" ht="105">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="E7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="165">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="E8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="E9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="195">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="E10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="285">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="375">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="E12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="60">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="E17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="265.5" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="E22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="240">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1980,7 +2389,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2005,7 +2414,7 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2016,7 +2425,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -2027,13 +2436,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2041,10 +2450,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2052,16 +2464,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2069,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -2077,13 +2489,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2091,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2099,7 +2511,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
@@ -2107,13 +2519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2212,10 +2624,10 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -2226,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2234,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2242,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2369,13 +2781,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2383,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75">
@@ -2391,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
@@ -2399,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
@@ -2407,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
@@ -2415,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120">
@@ -2423,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
@@ -2431,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2439,7 +2851,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2447,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2455,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60">
@@ -2463,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60">
@@ -2471,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.5">
@@ -2479,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120">
@@ -2487,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="405">
@@ -2495,7 +2907,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="375">
@@ -2503,10 +2915,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2660,87 +3072,87 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="315">
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySelf\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD8C195-1AF2-43A6-A545-D9456FDE3E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BFD19-1CFF-4481-B68F-DAA2E275EC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="75" windowWidth="18840" windowHeight="20910" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="物品" sheetId="4" r:id="rId5"/>
     <sheet name="理论根基" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="大纲" sheetId="8" r:id="rId8"/>
+    <sheet name="年谱" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="369">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,22 +876,1654 @@
     <t xml:space="preserve">郭 文， 字 文 举， 是 河内 郡 轵 县( 今 河南省 济源 市 一带) 人。 从小 忘情 于 山水， 崇尚 隐居。 十三 岁时， 经常 到 山林 里 游玩， 过了 十天 八 天 还不 回家。 父母 死后， 郭 文 服丧 完毕， 不 娶妻， 辞别 家乡， 去 游览 名山， 登上 了 华阴 的 悬崖， 观 览 石 室 中的 石 函。 洛阳 沦陷 后， 郭 文 就 挑着 担子 走进 吴 兴 余杭 大 辟 山里 深谷 无人 的 地方， 用 木头 靠着 树， 把 茅 苫 覆盖 在上面 就 住进 去了， 也没 有 墙壁 遮蔽。 当时 猛兽 作恶， 进入 房子 里 害人， 但是 郭 文 独自 住了 十 多年， 最终 也没 有 遭受 灾祸。 他 经常 是 穿着 粗陋 的 裘 衣 和 葛 布 头巾， 不喝 酒 不吃 肉， 按 距离 挖开 沟 播 种豆 和 麦， 采摘 竹叶 和 树木 的 果实， 换回 一些 盐 供给 自己。 有的 人用 低贱 的 价格 换 他的 东西， 他也 马上 给了 别人。 后来 人们 知道 他是 郭 文， 就不 再 贱买 他的 东西。 郭 文 有了 余粮， 总是 拿来 救济 没有 饭 吃 的 人。 有人 送 东西 给他， 他 只 拿 那些 粗劣 的， 以示 不 违 逆 别人 的 好意。 有 猛兽 在 草屋 旁边 咬 死了 大 母 鹿， 郭 文 把这 一 情况 告诉 别人， 人们 拿去 卖了， 分给 郭 文钱。 郭 文 说：“ 我 如果 需 要钱， 自己 就会 卖了 死 鹿。 我 之所以 告诉 你们， 正是 因为 不需要 钱 的 缘故。” 人们 听了， 都 感叹 不已。 曾经 有 猛兽 对着 郭 文 张开 大口， 郭 文 看见 它的 口中 横着 一 根 骨头， 就 把手 探 进 去拿 了 出来， 第二天 清晨 猛兽 把 一只 鹿 送到 郭 文 的 屋前。 猎人 有时候 到 他那 里 寄宿， 他 连夜 给 猎人 挑水 用， 脸上 也没 有 厌倦 的 神色。
 </t>
   </si>
+  <si>
+    <t>章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>东晋（317年～420年），是由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>西晋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇族</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>司马睿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>南迁后建立起来的王朝。此外，史书中又仿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>东汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>称中汉，称东晋为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中晋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，寓以晋室中兴之意；又东晋统治地区大部分在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>江东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，古称江左，因此以江左代指东晋。</t>
+    </r>
+  </si>
+  <si>
+    <t>东晋是门阀士族政治，与北方的五胡十六国并存，这一历史时期又称东晋十六国。东晋时代，也曾经内部四分五裂。东晋与之前的孙吴以及其后的宋、齐、梁、陈，合称为六朝。
+东晋曾多次试图北伐，但由于内部不团结，除了最后篡晋的刘裕取得一定成果外，其余都无建树。祖逖本有希望恢复旧土，但他被司马睿挟制，郁郁而终。桓温的北伐则先后被苻雄、慕容垂击败。太元八年（383年），前秦天王苻坚率兵南侵，东晋宰相谢安力主抗击，派谢石、谢玄率军，在淝水之战大获全胜，苻坚只身逃回北方，南北分立之势从此而成。后有桓玄叛乱，废安帝，自立为天子，后为大将刘裕所平，拥恭帝，然大权落裕。
+元熙二年（420年），宋公刘裕废除晋恭帝，建立刘宋，东晋灭亡，中国历史进入南北朝时期。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%9C%E6%99%8B/456028?fr=aladdin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283年(西晋武帝太康四年)葛洪出生。</t>
+  </si>
+  <si>
+    <t>295年(西晋惠帝元康五年)葛洪13岁，其父亲葛悌于邵陵太守任上去世。其父去世后，葛洪一家生活困难，不得已回到故乡，从前深受父母宠爱的葛洪不得不参加农业生产。</t>
+  </si>
+  <si>
+    <t>297年(元康七年)葛洪开始著述，后来也没有保存下来，一些思想可能融入他后面的著作中。此后到二十岁时，他不断审阅早期的写作，采取了严苛的批判态度。</t>
+  </si>
+  <si>
+    <t>298年(元康八年)葛洪开始系统阅读儒家经典，而且十分广泛，于诸史和百家之言都有涉猎。此后到二十岁，葛洪跟随郑隐学习，开始接受道家思想。</t>
+  </si>
+  <si>
+    <t>302年(太安元年)葛洪在马迹山受郑隐金丹之经，开始草创《抱朴子》。其师郑隐因江南战乱而东投霍山。</t>
+  </si>
+  <si>
+    <t>303年(太安二年)葛洪居扬州。十一月，因石冰作乱，攻打扬州，葛洪受义军首领顾秘之邀，募集数百人，加入讨伐石冰的队伍，因功受封伏波将军。</t>
+  </si>
+  <si>
+    <t>304年(永兴元年)春夏之交，葛洪从家乡出发，渡过长江，欲经徐州达洛阳搜求异书，因江南、江北战乱，中途受阻，进退不能，所幸与故交嵇含相遇，此后两年与嵇含有探讨学问的经历。</t>
+  </si>
+  <si>
+    <t>306年(元熙元年)嵇含被任命为广州刺史，邀葛洪担任参军。葛洪先行广州，而嵇含却未及成行就被仇敌刺杀，葛洪停留南土多年(二十四到岁三十二岁)，隐居罗浮山。</t>
+  </si>
+  <si>
+    <t>313年(建兴元年)琅琊王司马睿被任命为左丞相。葛洪因“平贼有功”被辟为掾。</t>
+  </si>
+  <si>
+    <t>314年(建兴二年)葛洪返回家乡。317年(东晋元帝建武元年)《抱朴子》成书。</t>
+  </si>
+  <si>
+    <t>318年(大兴元年)司马睿即皇帝位，葛洪因军功赐关内侯，领句容之邑两百户。</t>
+  </si>
+  <si>
+    <t>319年(大兴二年)此后，葛洪隐居，常入山选址炼丹，仍然坚持写作。</t>
+  </si>
+  <si>
+    <t>326年(东晋成帝咸和元年)司徒王导征讨王敦，葛洪补州主簿，后转司徒掾，又迁为咨议参军。大约此年或稍后，干宝推荐葛洪作散骑常侍，领大著作，葛洪固辞不就。</t>
+  </si>
+  <si>
+    <t>328年(咸和三年)葛洪转任咨议参军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>333年(咸和八年)葛洪上书皇帝，求为句漏令，蒙皇帝允准，率子侄南下。至广州后刺史邓岳聘其为记室参军，被葛洪拒绝，于是留罗浮山炼丹。</t>
+  </si>
+  <si>
+    <t>年份从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王之乱.
+“五胡乱华”、西晋灭亡，八王之乱是其重要原因。八王之乱以极端的形式向世人昭示社会风气的畸变，造成了秩序的崩溃，把所有的人推向动乱的深渊，给社会带来深重而又长久的灾难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太安二年（303年）、永兴二年（305年）及永嘉四年（310年）间江南发生三次叛乱，皆由义兴周氏的周玘所平定，使江南得以稳定，史称三定江南。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王之乱结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉元年（307年）八王之乱后，司马睿听从王导建议迁镇到建康。南迁后王导以“镇之以静，群情自安” [3]  政策稳定政权，他藉由当地名士顾荣、贺偱为引，进而获得吴姓世族的拥护。而后大量北方世族及皇族衣冠南渡，在王导号召下共同支持司马睿，使得江南诸州次第归附，东晋得以偏安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西晋灭亡，东晋建立。当时东海王就留下琅邪王司马睿以安东将军都督扬州诸军事，镇守下邳。后来琅邪王就移镇建邺，在江左发展，奠下了东晋的基础。晋愍帝死后，琅邪王司马睿即位，是为晋元帝。建兴五年（317年）西晋灭亡后，司马睿在建康重建晋廷，为晋元帝，史称东晋。但晋廷稳定后大量引用侨姓世族（原北方世族），压抑吴姓世族。使周玘等吴姓世族不满，有意叛变，但事洩未果，周玘忧郁而死。其子周勰继之，意图叛变，其叔周札洩密而未果。而后晋室分化周沈二氏，使其先后崩溃，并将亲晋的朱张顾陆四氏递升。然而，由于侨姓世族持续侵犯江南经济并打压南方世族入仕朝廷，使得侨吴世族在政治及经济上的冲突仍在。加上世族对寒族歧视、与朝廷分庭抗礼；中央与方镇对立及野心家的崛起，使得东晋一朝始终动荡不安。 [4] 
+因为北方外患威胁仍在，东晋朝廷赖世族及方镇的支持以稳定局势，这使得不少实力派世族意图叛变，夺取政权。当时晋元帝倚重王氏，任王导丞相、王敦专政军事，时称“王与马，共天下” [5]  。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁三年（325年）晋明帝去世，太子衍继立，是为晋成帝。由王导及外戚庾亮辅政。当时军事重镇分由陶侃镇守荆襄地区及由苏峻及祖约等镇守淮南地区。陶侃怀疑因为庾亮的干预，使得未能辅政而感到不满。庾亮为了提防陶侃，任温峤镇守武昌。由于苏峻及祖约对庾亮巩固中央的政策感到不满，于327年反叛。次年苏祖联军攻陷京师，胁持晋成帝，庾亮逃至寻阳（今江西九江市），史称苏峻之乱。此时陶侃观望，经温峤力劝之下决定讨伐苏峻。苏峻迎战阵亡，329年陶温联军收复京师，平乱成功。事后庾亮请罪，外调镇芜湖，朝廷由王导执政。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏峻之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>363 羽化成仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和九年（334年）陶侃去世，庾亮代之，仍遥控朝廷，与王导交恶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康五年（339年）后王导与庾亮先后去世，由庾翼执政，掌握荆州军权。</t>
+  </si>
+  <si>
+    <t>东晋本身并没有强大的实力，主要是凭着长江天险，偏安江南；及依靠丞相王导号召南迁避难的中原士族。王导选取北方名士百余人做属官，并联合南方大族，取得他们的支持。不过，南北大族之间时常发生冲突，内乱频生，导致东晋政权并不稳定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自晋怀帝从祖弟琅琊王司马睿迁镇建康后起，王氏—司马睿政治集团开始对中原播乱的京都洛阳及长安流亡政权作壁上观，表现出极度消极的小富即安的心理。曾参与、目睹八王之乱权利分配的王马集团，多少延续着各王角逐权利的争斗，实际上深受原东海王势力影响的司马睿也不可能会祛除司马氏唯权是图、不顾手足的阴暗心理，以此主观上了决定琅琊王勤王中原、关中的虚伪性。司马氏、王氏尚未立威信原东吴士族，客观上决定该集团也不可能尽心尽力地发兵中原与匈奴汉军交战，何况有冒险之虞，所以表现为偷安于江东。
+南方地势险要，有长江天险，易守难攻，十分易于防守，有战略的优势。自淝水之战胜利后，南北的局势稳定，南北疆界大致以长江为分界线。南方水陆交通十分便利，商贸频繁，商品经济发达，有利于增加国库的收入。
+由于少数民族的入主中原，使他们更多的接触到华夏文化，与汉民族逐渐发展为同一生活习惯的民族，进而被汉族融合。自魏、晋、南北朝之后，中原北方大体已形成以汉族为主，其他少数民族混居的人口构成形式，使中国正式成为具有相似生活习惯的多民族国家。 [8] 
+西晋灭吴国后，南方士族被排斥，仕进很困难。陆机荐贺循表里云：至于荆、扬二州，户各数十万，今扬州无郎，而荆州江南乃无一人为京城职者。南方士族对中原士族的独霸仕途，当然不能满意。王导想在吴国旧境内建立以中原士族为骨干的东晋朝，联络南方士族便成为极其重要的事务。晋元帝初到建康，南方士族都不理他，过了大半年还没有人来求见。王导很担心，和从兄王敦商议，替晋元帝制造威望。一个节日，王导请晋元帝坐肩舆出巡，王敦王导和北方名士都骑马随从，显出晋元帝的尊严。南方士族顾荣等在门隙窥看，大惊，相率到路旁拜见。王导对晋元帝说，顾荣贺循是南方士族的首领，招这两人来任职，其余士人自然都来了。晋元帝使王导亲自去招顾、贺，二人应命来见晋元帝。从此，南方士族归附，成为东晋政权的一个构成部分。 [9-10] 
+士族间必须说洛阳话，通婚姻必须严格衡量门第的高低。王导为联络南方士族，常常说吴语。北方士族骄傲自大，说王导没有什么特长，只会说些吴语罢了。王导曾向南方士族陆玩请婚。陆玩辞谢说，小山上长不了大树，香草臭草不能放在一起，我不能开乱伦的例。北方士族轻视吴语，实际就是轻视南方士族，南方士族拒绝和北方士族通婚，表面上是谦逊，实际也是轻视北方士族。陆玩曾在王导家食酪得病，写信给王导说，我虽是吴人，却几乎做了伧（音仓cāng南人轻视北人的称呼）鬼。这都说明南北士族的界限很分明，北方士族的政治地位比南方士族高，南方士族并不心服。义兴郡强族周玘，因被北士轻侮，准备起兵杀诸执政，以南士代北士。阴谋败露后，忧愤发病，死时嘱咐儿子周勰说，我是被那伙伧子气死的，你能报仇，才是我的儿子。周勰集合一些怨恨北士的豪强，谋起兵攻王导、刁协等。事败后，王导因周氏强盛，不敢追究。在晋元帝即帝位以前，王导的政治措施，主要是在争取南北士族间相对的平衡，由于王导的忍让，基本上是成功了。 [9-10] 
+王导在政治上取得这些成功，关键在于给士族安排了经济上的利益。南方各级士族自然就是各级地主，其中强宗大族，如吴郡顾氏、陆氏，义兴郡周氏，都是拥有部曲的大地主，不允许北方士族侵犯他们的利益。王导定侨寄法，在南方士族势力较弱的地区，设立侨州、侨郡、侨县，安置北方逃来的士族和民众。侨州多至司、豫、兖、徐、青、并等六州，侨郡侨县为数更是繁多。这种侨州郡县大都在丹阳、晋陵、广陵等郡境内，形势上可以保卫建康，同时流亡士族保持原来的籍贯，凭借势力在寄居地依然奴役从北方流亡来的民众，逼迫他们当奴隶或佃客，为自己创立新产业。侨州郡县有大量的各级文武官职，当然又是流亡士族的出路。所以，侨寄法虽然是紊乱行政系统、加深人民穷困的恶劣制度，但对东晋政权说来，却是安置流亡士族，缓和南北士族间矛盾的重要措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋元帝只想做个偏安的皇帝，王导也只想建立一个王氏当权的小朝廷，他们的目光专注在江东内部的权利分配上，从来不作北伐的准备，而且还反对有人主张北伐。晋元帝将要称帝，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>周嵩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>上书劝他整军讲武，收复失地，那时候称皇帝不算迟。周嵩说忠直话，几乎被杀死。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>熊远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>要求朝廷改正过失，说不能遣军北伐是一失，朝官们忘记国耻，以游戏酒食为正务是二失。熊远说忠直话，掉了京官出去做地方官。谁主张北伐，谁就被排斥，至于实行北伐的祖逖，当然要遭到冷酷的对待。祖逖是当时最识大体最有才能的杰出人物。中原大乱，祖逖率亲友数百家来投晋元帝，要求率兵北伐。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [9-10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>王敦画像</t>
+  </si>
+  <si>
+    <r>
+      <t>313年，晋元帝给他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>豫州</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>刺史名义，又给一千人的食粮和三千匹布，叫他自己去募兵、造兵器。祖逖率部曲百余家渡江北上，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>淮阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>铸造兵器，募兵得二千余人。祖逖军纪律严明，得广大民众的爱护，屡次击败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>石勒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>军，收复黄河以南全部土地。晋元帝给祖逖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>镇西将军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>的称号。321年，祖逖准备渡黄河击石勒，收复河北。晋元帝却派仅有虚名的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>戴渊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>做征西将军，都督司、兖、豫、并、雍、冀六州诸军事、司州刺史。真正出征的祖逖官职是镇守；根本不出征的戴渊官职是出征，而且祖逖已收复的和未收复的州，都归戴渊统辖，这显然是不信任祖逖的表示。当时王敦和晋元帝对抗，东晋内乱势必爆发，祖逖感到前途无望，忧愤成病，就在这一年死去了。晋元帝深怕臣下在北伐中立功，建立起崇高的威望，对自己的帝位不利，却不想想专和臣下在内部计较权利，自己原来就很有限的一些威望将愈益缩小，对帝位的保持更加不利。格言说得好，“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>人无远虑，必有近忧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”，晋元帝正是这样的一个庸人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [9-10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋元帝登帝位后，不满意王氏的骄横，想削弱王氏势力。他引用善于奉迎的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>刘隗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、酗酒放肆的刁协作心腹，暗中作军事布置。王导被疏远，仍能保持常态，士族一般都同情他，刘隗、刁协反陷于孤立。王敦本来是个野心家，乘机以反对刘隗、刁协，替王导诉冤为借口，阴谋篡夺。祖逖死后，王敦更无忌惮。322年，王敦在武昌起兵反晋，刘隗等人战败，王敦攻入建康。王导和朝官们消极抵抗，王敦无法实现他的篡夺野心，只好退回武昌。323年，晋元帝忧愤病死，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>晋明帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>继位，王导辅政。王敦老迈已无野心，然部署皆以为有机可乘，加紧谋夺帝位。324年，晋明帝乘王敦病重，发兵谋讨王敦，王敦部署战败，王敦不服，带病领兵来攻建康，被晋军击败。王敦病死，谋夺帝位的战争告一结束。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [9-10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>王敦之乱</t>
+  </si>
+  <si>
+    <r>
+      <t>东晋统治集团内部最主要的矛盾是帝室和几个强大士族之间的矛盾。帝室如果安分享受尊荣，不干涉强大族的权利，那么，各种势力相对平衡，政治上呈现正常的局面。反之，帝室企图增强自己的权力，因而引起强大族的不满，野心家便乘机而起，要篡夺司马氏的帝位。归根还是那些强大族保护帝室，推翻野心家，使势力又趋于平衡。晋元帝信任刘隗、刁协，并且用南方士族戴渊作将军，这是和王氏势力不相容的。王导认为佞臣扰乱朝纲，同意王敦来杀逐这些人。这些人被杀逐以后，帝室势力退缩回去，王敦还想篡夺，王导便宣称“宁为忠臣而死，不为无赖而生”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ，表示坚决的反对态度来维持帝室。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [9-10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[13]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 东晋朝在399年孙卢之乱以前，重大政治事件的演变，本质上无非是这个主要矛盾在反复表现。</t>
+    </r>
+  </si>
+  <si>
+    <t>元帝只想做个偏安的皇帝，王导也只想建立一个王氏当权的小朝廷，他们的目光专注在江东内部的权利分配上，从来不作北伐的准备，而且还反对有人主张北伐。晋元帝将要称帝，周嵩上书劝他整军讲武，收复失地，那时候称皇帝不算迟。周嵩说忠直话，几乎被杀死。熊远要求朝廷改正过失，说不能遣军北伐是一失，朝官们忘记国耻，以游戏酒食为正务是二失。熊远说忠直话，掉了京官出去做地方官。谁主张北伐，谁就被排斥，至于实行北伐的祖逖，当然要遭到冷酷的对待。祖逖是当时最识大体最有才能的杰出人物。中原大乱，祖逖率亲友数百家来投晋元帝，要求率兵北伐。 [9-10] 
+313年，晋元帝给他豫州刺史名义，又给一千人的食粮和三千匹布，叫他自己去募兵、造兵器。祖逖率部曲百余家渡江北上，在淮阴铸造兵器，募兵得二千余人。祖逖军纪律严明，得广大民众的爱护，屡次击败石勒军，收复黄河以南全部土地。晋元帝给祖逖镇西将军的称号。321年，祖逖准备渡黄河击石勒，收复河北。晋元帝却派仅有虚名的戴渊做征西将军，都督司、兖、豫、并、雍、冀六州诸军事、司州刺史。真正出征的祖逖官职是镇守；根本不出征的戴渊官职是出征，而且祖逖已收复的和未收复的州，都归戴渊统辖，这显然是不信任祖逖的表示。当时王敦和晋元帝对抗，东晋内乱势必爆发，祖逖感到前途无望，忧愤成病，就在这一年死去了。晋元帝深怕臣下在北伐中立功，建立起崇高的威望，对自己的帝位不利，却不想想专和臣下在内部计较权利，自己原来就很有限的一些威望将愈益缩小，对帝位的保持更加不利。格言说得好，“人无远虑，必有近忧”，晋元帝正是这样的一个庸人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱。
+王敦素来桀傲，有意控制朝廷，晋元帝为了抑制王氏权势，以刘隗、刁协、戴渊等人牵制，并防御京师。王敦万份怨恨，于322年发兵，攻陷建康。刁协等人被杀，史称王敦之乱。晋元帝备受恐惧，忧愤而死，太子绍继位，是为晋明帝。当时王敦欲篡位，移镇姑孰（今安徽当涂县），但于324年病危。晋明帝下令讨伐，平乱成功，由于王导未附逆，所以王氏仍受晋室重用。
+晋元帝登帝位后，不满意王氏的骄横，想削弱王氏势力。他引用善于奉迎的刘隗、酗酒放肆的刁协作心腹，暗中作军事布置。王导被疏远，仍能保持常态，士族一般都同情他，刘隗、刁协反陷于孤立。王敦本来是个野心家，乘机以反对刘隗、刁协，替王导诉冤为借口，阴谋篡夺。祖逖死后，王敦更无忌惮。322年，王敦在武昌起兵反晋，刘隗等人战败，王敦攻入建康。王导和朝官们消极抵抗，王敦无法实现他的篡夺野心，只好退回武昌。323年，晋元帝忧愤病死，晋明帝继位，王导辅政。王敦老迈已无野心，然部署皆以为有机可乘，加紧谋夺帝位。324年，晋明帝乘王敦病重，发兵谋讨王敦，王敦部署战败，王敦不服，带病领兵来攻建康，被晋军击败。王敦病死，谋夺帝位的战争告一结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶温联军收复京师，平乱成功.
+王导又执政，东晋朝又算危而复安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庾氏势力不得专擅朝政，转移到上游，宣称以北伐中原为己任，企图建立起自己的根基。庾亮庾翼兄弟相继镇守武昌，占有了东晋朝重要领土的一半。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，庾翼临死，让他的儿子继任，开藩镇世袭的恶例。东晋朝廷不允许他的要求，是合理的，但用桓温去驱逐庾氏势力，东晋朝又出现篡夺事件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永和二年（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>346</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年），东晋安西将军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桓温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伐蜀，次年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月克成都，控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上游和四川盆地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政权灭亡。至此，东晋统一了南方，与后赵隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秦岭淮河</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对峙。
+桓温是当时最有才干的野心家。他做了荆州刺史以后，积极对外发展。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>347</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，桓温灭成汉国，收复蜀地，威名大振。东晋朝廷疑惧，引用虚名甚大的清谈家殷浩参与朝政，专和桓温作对。桓温伐前秦伐前燕，都遭致失败，损害了他的实力和威望，在王谢两大族抵制下，桓温篡夺的野心未能实现。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>373年，桓温死，东晋朝又算危而复安。桓温死后，谢安执朝政。桓温弟桓冲做荆州刺史，与谢安同心保护帝室。东晋朝内部出现前所未有的和睦气象，是和谢安完全继承王导力求大族间势力平衡的做法分不开的。谢安的做法是“镇之以和静”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383年，晋兵大破苻坚的南侵军。谢安乘前秦崩溃，使谢玄等率诸将北伐。384年，收复徐、兖、青、司、豫、梁六州。385年，猛将刘牢之进入河北名都邺。东晋朝建立以来，这是最大的一次战胜扩地。取胜的重要原因之一就是内部和睦，有些力量可以对外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗室、外戚和门阀大族王、谢、庾、桓先后共同支配着王朝政局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东晋初期，朝廷采取以攻为守态度抵御北方。317年祖逖意图北伐，晋元帝只有给予少量军队，命他相机进取。他招募流民建立军队，并与当地坞堡合作，最后成功收复黄河以南领土，与石勒隔河相持。但由于东晋发生内乱，朝廷又担心他威望太高，于321年派戴渊为总督节制，以致收复河北的计划无疾而终，祖逖忧愤而死，失地得而复失。王敦因为祖逖去世而不必顾虑，之后遂叛变。祖逖军由其弟祖约率之，最后也随苏峻叛变。晋成帝时则由庾亮、庾翼兄弟主持北伐，他们以荆州为中心，意图发动北伐。但是因为朝廷抵制，所以没有实现。庾氏兄弟相继去世后，荆州刺史由桓温担任。他向往刘琨、陶侃事迹，以北伐为务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东晋初期，道教的架构、章法尚未形成，直到东晋中期发生改革，才形成组织化的宗教体制。当时北方道教注重功德及道规，南方则注重经法及义理。受到佛教散播的刺激，道教加速吸取儒玄思想，丰富本身理论。炼丹术盛行，深化相关理论。 [34]  [37]  援佛入道是道教不断丰富并提升自我的重要手段。 [43] 
+东晋时，葛洪结合神仙学说与道术理论，并加入炼丹等理论，整合道教理论。他所著的《抱朴子》，外篇论时局与道德，内篇则论道家学论和炼丹、养生之道。杨羲、许谧及许翽著《上清经》，最后发展成上清派，主张简化修行力法，贬斥房中术，以存神为主。葛洪孙葛巢甫又著《灵宝经》，借用和融汇了佛教的概念和术语， [42]  后来也发展成灵宝派。该派以符籙科教为主，受到上清派影响，也提倡简化修行、"仙道贵生，无量度人"。道教对文学、艺术多有贡献。例如描述神仙之游的《游仙诗》，历代道教的神仙画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谥号</t>
+  </si>
+  <si>
+    <t>年号</t>
+  </si>
+  <si>
+    <t>起讫时间</t>
+  </si>
+  <si>
+    <t>使用时间</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>建武</t>
+  </si>
+  <si>
+    <t>317年三月—318年三月</t>
+  </si>
+  <si>
+    <t>2年</t>
+  </si>
+  <si>
+    <t>大兴</t>
+  </si>
+  <si>
+    <t>318年三月—321年</t>
+  </si>
+  <si>
+    <t>4年</t>
+  </si>
+  <si>
+    <r>
+      <t>或作</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>太兴</t>
+    </r>
+  </si>
+  <si>
+    <t>永昌</t>
+  </si>
+  <si>
+    <r>
+      <t>闰十月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋明帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>太宁</t>
+  </si>
+  <si>
+    <t>323年三月—326年正月</t>
+  </si>
+  <si>
+    <r>
+      <t>三年闰八月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋成帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>咸和</t>
+  </si>
+  <si>
+    <t>326年二月—334年</t>
+  </si>
+  <si>
+    <t>9年</t>
+  </si>
+  <si>
+    <t>咸康</t>
+  </si>
+  <si>
+    <t>335年—342年</t>
+  </si>
+  <si>
+    <t>8年</t>
+  </si>
+  <si>
+    <r>
+      <t>八年六月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋康帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>建元</t>
+  </si>
+  <si>
+    <t>343年—344年</t>
+  </si>
+  <si>
+    <r>
+      <t>二年九月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋穆帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>永和</t>
+  </si>
+  <si>
+    <t>345年—356年</t>
+  </si>
+  <si>
+    <t>12年</t>
+  </si>
+  <si>
+    <t>升平</t>
+  </si>
+  <si>
+    <t>357年—361年</t>
+  </si>
+  <si>
+    <t>5年</t>
+  </si>
+  <si>
+    <r>
+      <t>五年五月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>晋哀帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>即位沿用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>前凉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沿用该年号</t>
+    </r>
+  </si>
+  <si>
+    <t>隆和</t>
+  </si>
+  <si>
+    <t>362年—363年二月</t>
+  </si>
+  <si>
+    <r>
+      <t>或作</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>崇和</t>
+    </r>
+  </si>
+  <si>
+    <t>兴宁</t>
+  </si>
+  <si>
+    <t>363年二月—365年</t>
+  </si>
+  <si>
+    <t>3年</t>
+  </si>
+  <si>
+    <r>
+      <t>三年二月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋废帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>太和</t>
+  </si>
+  <si>
+    <t>366年—371年十一月</t>
+  </si>
+  <si>
+    <t>6年</t>
+  </si>
+  <si>
+    <t>咸安</t>
+  </si>
+  <si>
+    <t>371年十一月—372年</t>
+  </si>
+  <si>
+    <r>
+      <t>二年七月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋孝武帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>宁康</t>
+  </si>
+  <si>
+    <t>373年—375年</t>
+  </si>
+  <si>
+    <r>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>魏书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>》错写作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>康宁</t>
+    </r>
+  </si>
+  <si>
+    <t>太元</t>
+  </si>
+  <si>
+    <t>376年—396年</t>
+  </si>
+  <si>
+    <t>21年</t>
+  </si>
+  <si>
+    <r>
+      <t>二十一年九月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晋安帝即位沿用</t>
+    </r>
+  </si>
+  <si>
+    <t>隆安</t>
+  </si>
+  <si>
+    <t>397年—401年</t>
+  </si>
+  <si>
+    <r>
+      <t>或作</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>崇安</t>
+    </r>
+  </si>
+  <si>
+    <t>元兴</t>
+  </si>
+  <si>
+    <t>402年—404年</t>
+  </si>
+  <si>
+    <r>
+      <t>胡三省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>注《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>资治通鉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>》：元年三月，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>元显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>败，复隆安年号。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>桓玄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>寻改曰大亨。玄篡，又改曰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>永始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>大亨</t>
+  </si>
+  <si>
+    <t>402年三月—十二月</t>
+  </si>
+  <si>
+    <t>1年</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>义熙</t>
+  </si>
+  <si>
+    <t>405年—418年</t>
+  </si>
+  <si>
+    <t>14年</t>
+  </si>
+  <si>
+    <t>403年—404年桓玄篡位</t>
+  </si>
+  <si>
+    <t>元熙</t>
+  </si>
+  <si>
+    <t>419年—420年六月</t>
+  </si>
+  <si>
+    <r>
+      <t>322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>—323</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年二月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋元帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：318年—322年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋明帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：322年—325年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋成帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：325年—342年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋康帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：342年—344年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋穆帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：344年—361年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋哀帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：361年—365年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋废帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：365年—371年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋简文帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：371年—372年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋孝武帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：372年—396年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋安帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：397年—418年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋恭帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在位：419年—420年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>时东晋流行清谈，于是僧侣就藉由清谈将佛理传播给士大夫，使佛教得以在南方传播。其中以支道林最擅长谈玄。南北佛教到后来形成不同学风，北方重行业，崇尚禅学、律学及净土信仰。南方重义理、注重在涅槃佛性的探讨。东晋晚期时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>慧远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>擅长儒学，力谋佛、玄、儒融合，促使佛教中国化，最后成为净土宗的祖师之一。慧远还提倡译经，与北方名僧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>鸠摩罗什</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>交流译本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>法显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>是中国西行求法的著名僧侣，他于399年自长安出发，经西域抵北天竺、狮子国及中天竺。取得梵本戒律后，414年经海路返抵建康。他与名僧大量翻译经文，并将旅途见闻写成《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>佛国记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>》，成为研究西域及印度史地的重要作品。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [34]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[37]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -905,20 +2538,131 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF136EC2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF136EC2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF136EC2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -926,11 +2670,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -940,12 +2715,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -953,9 +2722,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1239,18 +3053,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="45.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="39.75" customWidth="1"/>
+    <col min="12" max="12" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1282,11 +3096,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="330">
+    <row r="2" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -1302,11 +3116,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="195">
+    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -1326,11 +3140,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="195">
+    <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1341,11 +3155,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="345">
+    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -1359,11 +3173,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1376,11 +3190,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75">
+    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -1397,11 +3211,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="225">
+    <row r="8" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>79</v>
       </c>
@@ -1418,11 +3232,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="188.25" customHeight="1">
+    <row r="9" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -1436,11 +3250,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="105">
+    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -1450,11 +3264,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="345">
+    <row r="11" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -1468,11 +3282,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
@@ -1480,11 +3294,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -1492,11 +3306,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -1506,11 +3320,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1521,94 +3335,94 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="165">
+    <row r="33" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>74</v>
       </c>
@@ -1616,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="105">
+    <row r="34" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -1627,13 +3441,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>95</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="150">
+    <row r="38" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>98</v>
       </c>
@@ -1641,27 +3455,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -1687,21 +3501,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="2" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="44.375" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="37.625" customWidth="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -1742,7 +3556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1759,147 +3573,147 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1914,67 +3728,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73611BBC-3244-45BF-A36A-C1AC67B1EDBA}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="58.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="28.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1991,11 +3805,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="270">
+    <row r="3" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>220</v>
       </c>
       <c r="F3" t="s">
@@ -2011,7 +3825,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="255">
+    <row r="4" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2037,7 +3851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2048,7 +3862,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="135">
+    <row r="6" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2068,7 +3882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="105">
+    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2088,7 +3902,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="165">
+    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2105,7 +3919,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60">
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2119,7 +3933,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="195">
+    <row r="10" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2136,18 +3950,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="285">
+    <row r="11" spans="1:13" ht="228" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>209</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="375">
+    <row r="12" spans="1:13" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2161,7 +3975,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30">
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2181,7 +3995,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60">
+    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2195,7 +4009,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="75">
+    <row r="15" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2209,7 +4023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45">
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2223,7 +4037,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2234,7 +4048,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2245,7 +4059,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2256,7 +4070,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="265.5" customHeight="1">
+    <row r="20" spans="1:12" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2276,7 +4090,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2293,7 +4107,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2301,7 +4115,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="240">
+    <row r="23" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2318,67 +4132,68 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2392,15 +4207,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2417,7 +4232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2431,7 +4246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2445,7 +4260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2459,7 +4274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2476,7 +4291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2484,7 +4299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2498,7 +4313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2506,7 +4321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2514,7 +4329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2528,72 +4343,72 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2612,14 +4427,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +4448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2641,7 +4456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2649,7 +4464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2657,104 +4472,104 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2773,13 +4588,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="94.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.42578125" customWidth="1"/>
+    <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2790,7 +4605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2798,7 +4613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75">
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2806,7 +4621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2814,7 +4629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2822,7 +4637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2830,7 +4645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="120">
+    <row r="7" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2838,7 +4653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="180">
+    <row r="8" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2846,7 +4661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2854,7 +4669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2862,7 +4677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2870,7 +4685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60">
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2878,7 +4693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2886,7 +4701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5">
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2894,7 +4709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120">
+    <row r="15" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2902,7 +4717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="405">
+    <row r="16" spans="1:3" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2910,7 +4725,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="375">
+    <row r="17" spans="1:3" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2921,132 +4736,132 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3059,124 +4874,1326 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB4C30E-2879-4905-9857-A2D37CC0963E}">
-  <dimension ref="B2:B33"/>
+  <dimension ref="B2:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+    <col min="2" max="2" width="124.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="315">
+    <row r="33" spans="2:2" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="37" spans="2:2" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B39" r:id="rId1" tooltip="王敦画像" display="https://baike.baidu.com/pic/%E4%B8%9C%E6%99%8B/456028/0/5ab5c9ea15ce36d37576011938f33a87e950b1ad?fr=lemma&amp;ct=single" xr:uid="{D8BBC159-B158-4045-A66E-5B68ABE54A8D}"/>
+    <hyperlink ref="B42" r:id="rId2" tooltip="王敦之乱" display="https://baike.baidu.com/pic/%E4%B8%9C%E6%99%8B/456028/0/d50735fae6cd7b89b531b8aa0d2442a7d9330ebd?fr=lemma&amp;ct=single" xr:uid="{374690DE-927E-432A-A338-EEEA99503AC4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
-  <dimension ref="B4"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="178" customWidth="1"/>
+    <col min="2" max="2" width="69.625" customWidth="1"/>
+    <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C8A5D9-1696-47E5-94E3-00A89F0F208E}">
+  <dimension ref="B1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="4" max="4" width="55.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="E2" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E4" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="D5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>283</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>291</v>
+      </c>
+      <c r="C11">
+        <v>306</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>303</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>306</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>307</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="399" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>313</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>316</v>
+      </c>
+      <c r="C29">
+        <v>317</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="171" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>317</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>322</v>
+      </c>
+      <c r="C33">
+        <v>324</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>325</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>327</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>329</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>334</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>339</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>345</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>346</v>
+      </c>
+      <c r="C45">
+        <v>347</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>373</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>383</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="D49" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="C59" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="C60" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="C63" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="23"/>
+      <c r="C66" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="23"/>
+      <c r="C68" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
+      <c r="C72" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="23"/>
+      <c r="C74" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="23"/>
+      <c r="C75" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="23"/>
+      <c r="C76" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B76"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{B2D03586-433D-4383-B5AB-DD0822FD0A63}"/>
+    <hyperlink ref="C59" r:id="rId2" display="https://baike.baidu.com/item/%E5%A4%A7%E5%85%B4" xr:uid="{A02453B6-C54D-42A0-9EC6-BCDB354607DC}"/>
+    <hyperlink ref="F59" r:id="rId3" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%B4" xr:uid="{E861EC80-B39F-4108-881C-5D0CC2AEDAFB}"/>
+    <hyperlink ref="C60" r:id="rId4" display="https://baike.baidu.com/item/%E6%B0%B8%E6%98%8C" xr:uid="{54666548-873B-43E2-9DE4-3DACF4C75F01}"/>
+    <hyperlink ref="F60" r:id="rId5" display="https://baike.baidu.com/item/%E6%99%8B%E6%98%8E%E5%B8%9D" xr:uid="{02B02092-6F16-4EC2-9975-1738F5AEDFA1}"/>
+    <hyperlink ref="C61" r:id="rId6" display="https://baike.baidu.com/item/%E5%A4%AA%E5%AE%81" xr:uid="{FBD6D5AD-8809-459A-A279-2A97A535104C}"/>
+    <hyperlink ref="F61" r:id="rId7" display="https://baike.baidu.com/item/%E6%99%8B%E6%88%90%E5%B8%9D" xr:uid="{884F8276-0631-47D9-9C66-5B34C1714CD3}"/>
+    <hyperlink ref="C62" r:id="rId8" display="https://baike.baidu.com/item/%E5%92%B8%E5%92%8C" xr:uid="{C6A1FCA0-D8FE-43DC-9219-4BB1E3F2FBC9}"/>
+    <hyperlink ref="C63" r:id="rId9" display="https://baike.baidu.com/item/%E5%92%B8%E5%BA%B7" xr:uid="{C444389B-D644-4BE7-BA3C-C726B1655482}"/>
+    <hyperlink ref="F63" r:id="rId10" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%B7%E5%B8%9D" xr:uid="{63912AC7-4B9F-4170-B416-C0012B6C3A7D}"/>
+    <hyperlink ref="F64" r:id="rId11" display="https://baike.baidu.com/item/%E6%99%8B%E7%A9%86%E5%B8%9D" xr:uid="{007ED7A9-F041-45CE-B903-D247E535C839}"/>
+    <hyperlink ref="C65" r:id="rId12" display="https://baike.baidu.com/item/%E6%B0%B8%E5%92%8C" xr:uid="{DFDEC4D7-AA39-4057-9FE4-4BD7484854A6}"/>
+    <hyperlink ref="C66" r:id="rId13" display="https://baike.baidu.com/item/%E5%8D%87%E5%B9%B3" xr:uid="{18B77761-1002-496D-BE3D-13D53E5871AA}"/>
+    <hyperlink ref="C67" r:id="rId14" display="https://baike.baidu.com/item/%E9%9A%86%E5%92%8C" xr:uid="{B0F42B78-C6AC-47B4-A126-CADCA9583C77}"/>
+    <hyperlink ref="F67" r:id="rId15" display="https://baike.baidu.com/item/%E5%B4%87%E5%92%8C" xr:uid="{DD62E43F-8745-42D8-96CC-9F32BA46796F}"/>
+    <hyperlink ref="C68" r:id="rId16" display="https://baike.baidu.com/item/%E5%85%B4%E5%AE%81" xr:uid="{0EFDD73C-DAF8-4852-86DD-D6CDF545E59F}"/>
+    <hyperlink ref="F68" r:id="rId17" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%9F%E5%B8%9D" xr:uid="{56A0115D-D09A-4B05-A826-A44EE67E40D7}"/>
+    <hyperlink ref="C69" r:id="rId18" display="https://baike.baidu.com/item/%E5%A4%AA%E5%92%8C" xr:uid="{43F455A4-B62B-42FB-97AE-BA767BA81F6B}"/>
+    <hyperlink ref="C70" r:id="rId19" display="https://baike.baidu.com/item/%E5%92%B8%E5%AE%89" xr:uid="{49D2E1E3-0822-412D-9F4D-494A0247D924}"/>
+    <hyperlink ref="F70" r:id="rId20" display="https://baike.baidu.com/item/%E6%99%8B%E5%AD%9D%E6%AD%A6%E5%B8%9D" xr:uid="{D2CBBE8E-7F47-415D-ABB1-DD98D9579A22}"/>
+    <hyperlink ref="C71" r:id="rId21" display="https://baike.baidu.com/item/%E5%AE%81%E5%BA%B7" xr:uid="{702DC475-06AF-41B0-8193-E82240415980}"/>
+    <hyperlink ref="C72" r:id="rId22" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%83" xr:uid="{2F3E2A7E-A92B-444D-9E0B-372E28B000E2}"/>
+    <hyperlink ref="F72" r:id="rId23" display="https://baike.baidu.com/item/%E6%99%8B%E5%AE%89%E5%B8%9D" xr:uid="{41878EDA-7230-4539-9749-A2C7F8AA34FB}"/>
+    <hyperlink ref="C73" r:id="rId24" display="https://baike.baidu.com/item/%E9%9A%86%E5%AE%89" xr:uid="{8BAD6162-F93B-46A1-BAFE-D6C30F3DB05A}"/>
+    <hyperlink ref="F73" r:id="rId25" display="https://baike.baidu.com/item/%E5%B4%87%E5%AE%89" xr:uid="{B5A9C611-B82C-4B6C-B331-E547E6F07D9E}"/>
+    <hyperlink ref="C74" r:id="rId26" display="https://baike.baidu.com/item/%E5%85%83%E5%85%B4" xr:uid="{EFF0D945-B9A0-48B8-BA1C-14FD903AECF9}"/>
+    <hyperlink ref="C75" r:id="rId27" display="https://baike.baidu.com/item/%E5%A4%A7%E4%BA%A8" xr:uid="{86269E2E-CFF1-4335-8057-CE06667D17E7}"/>
+    <hyperlink ref="C76" r:id="rId28" display="https://baike.baidu.com/item/%E4%B9%89%E7%86%99" xr:uid="{2A508A96-7FD1-410C-A505-C28072AAFA29}"/>
+    <hyperlink ref="C77" r:id="rId29" display="https://baike.baidu.com/item/%E5%85%83%E7%86%99" xr:uid="{105E62D6-432F-4B62-ADB8-65593F5216F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId30"/>
 </worksheet>
 </file>
--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySelf\xmind\写作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BFD19-1CFF-4481-B68F-DAA2E275EC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009AE669-FAC9-4857-AAD6-E601C39C1E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="75" windowWidth="18840" windowHeight="20910" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="391">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,10 +877,6 @@
 </t>
   </si>
   <si>
-    <t>章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1717,7 +1713,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1737,7 +1733,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1760,7 +1756,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1795,7 +1791,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1818,7 +1814,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1900,7 +1896,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1926,7 +1922,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1958,7 +1954,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2022,7 +2018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2045,7 +2041,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2218,7 +2214,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2234,7 +2230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2250,7 +2246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2266,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2282,7 +2278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2298,7 +2294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2314,7 +2310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2330,7 +2326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2346,7 +2342,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2362,7 +2358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2378,7 +2374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2507,23 +2503,92 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>章节</t>
+  </si>
+  <si>
+    <t>太极左仙翁白日冲举，丹道秘传郑隐</t>
+  </si>
+  <si>
+    <t>葛玄白日冲举，预言天下大乱，将持续400年之久。但是这400年将是道教发展的关键时刻，将有众多人得到成仙。秘密传给郑隐，然后解散道场，白日飞升而去。托付郑隐，50年后将丹道传给葛家后人。</t>
+  </si>
+  <si>
+    <t>葛洪出生</t>
+  </si>
+  <si>
+    <t>少年葛洪得遇高人</t>
+  </si>
+  <si>
+    <t>遇到郭文，有了做神仙的愿望，听了很多神仙的故事，为以后写神仙传提供了素材。</t>
+  </si>
+  <si>
+    <t>父亲被杀之后刻苦攻读</t>
+  </si>
+  <si>
+    <t>父亲被杀，托孤嵇含</t>
+  </si>
+  <si>
+    <t>发小干宝</t>
+  </si>
+  <si>
+    <t>鲍玄游历，结交鲍姑</t>
+  </si>
+  <si>
+    <t>结交鲍姑，但是没见到鲍玄。后面才认识鲍玄。</t>
+  </si>
+  <si>
+    <t>八王之乱</t>
+  </si>
+  <si>
+    <t>儒学初成</t>
+  </si>
+  <si>
+    <t>拜师郑隐，修习道术</t>
+  </si>
+  <si>
+    <t>298年</t>
+  </si>
+  <si>
+    <t>道术初成，郑隐隐遁</t>
+  </si>
+  <si>
+    <t>302年</t>
+  </si>
+  <si>
+    <t>著《抱朴子》</t>
+  </si>
+  <si>
+    <t>江南石冰作乱</t>
+  </si>
+  <si>
+    <t>303年</t>
+  </si>
+  <si>
+    <t>讨伐石冰</t>
+  </si>
+  <si>
+    <t>搜求异书《黄庭经》，受阻。嵇含收留之。</t>
+  </si>
+  <si>
+    <t>前往广州。嵇含被刺。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2538,7 +2603,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2546,7 +2611,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2567,7 +2632,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2621,7 +2686,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2636,7 +2701,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2705,7 +2770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2721,12 +2786,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2763,7 +2822,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3053,18 +3121,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="45.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="39.75" customWidth="1"/>
-    <col min="12" max="12" width="45.125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3096,11 +3164,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="330">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -3116,11 +3184,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="195">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="21"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3140,11 +3208,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="195">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="21"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -3155,11 +3223,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="345">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="21"/>
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -3173,11 +3241,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -3190,11 +3258,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="75">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="22"/>
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -3211,11 +3279,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="225">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
         <v>79</v>
       </c>
@@ -3232,11 +3300,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="188.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="22"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -3250,11 +3318,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="105">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -3264,11 +3332,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="345">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="21"/>
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -3282,11 +3350,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
@@ -3294,11 +3362,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="21"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -3306,11 +3374,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -3320,11 +3388,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="21"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -3335,94 +3403,94 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="165">
       <c r="C33" t="s">
         <v>74</v>
       </c>
@@ -3430,7 +3498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="105">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -3441,13 +3509,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>95</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="150">
       <c r="B38" t="s">
         <v>98</v>
       </c>
@@ -3455,27 +3523,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -3501,21 +3569,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="44.375" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="28.25" customWidth="1"/>
-    <col min="12" max="12" width="37.625" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -3556,7 +3624,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3573,147 +3641,147 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3729,25 +3797,25 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="58.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="28.25" customWidth="1"/>
-    <col min="12" max="12" width="28.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>139</v>
       </c>
@@ -3788,7 +3856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3805,7 +3873,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="270">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3825,7 +3893,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="255">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3851,7 +3919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3862,7 +3930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="135">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3882,7 +3950,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="105">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3902,7 +3970,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="165">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3919,7 +3987,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="60">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3933,7 +4001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="195">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3950,7 +4018,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="228" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="285">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3961,7 +4029,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="375">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3975,7 +4043,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3995,7 +4063,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="60">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4009,7 +4077,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="75">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4023,7 +4091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4037,7 +4105,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4048,7 +4116,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4059,7 +4127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4070,7 +4138,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="265.5" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4090,7 +4158,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4107,7 +4175,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4115,7 +4183,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="240">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4132,62 +4200,62 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4207,15 +4275,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4232,7 +4300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4246,7 +4314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4260,7 +4328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4274,7 +4342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4291,7 +4359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4299,7 +4367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4313,7 +4381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4321,7 +4389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4329,7 +4397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4343,72 +4411,72 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4427,14 +4495,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4448,7 +4516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4456,7 +4524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4464,7 +4532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4472,104 +4540,104 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4588,13 +4656,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.375" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4605,7 +4673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4613,7 +4681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4621,7 +4689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4629,7 +4697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4637,7 +4705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4645,7 +4713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="120">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4653,7 +4721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="180">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4661,7 +4729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4669,7 +4737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4677,7 +4745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4685,7 +4753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4693,7 +4761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="60">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4701,7 +4769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="409.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4709,7 +4777,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="120">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4717,7 +4785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="405">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4725,7 +4793,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="375">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4736,132 +4804,132 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4880,129 +4948,129 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="124.875" customWidth="1"/>
+    <col min="2" max="2" width="124.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="315">
       <c r="B33" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="409.5">
       <c r="B37" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="72" thickBot="1">
+      <c r="B38" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+    <row r="39" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B39" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+    <row r="40" spans="2:2" ht="114">
+      <c r="B40" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="15" t="s">
+    <row r="41" spans="2:2" ht="86.25" thickBot="1">
+      <c r="B41" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
+    <row r="42" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B42" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
+    <row r="43" spans="2:2" ht="85.5">
+      <c r="B43" s="13" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5019,475 +5087,549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="69.625" customWidth="1"/>
-    <col min="3" max="3" width="114" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="114" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5503,63 +5645,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C8A5D9-1696-47E5-94E3-00A89F0F208E}">
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="4" max="4" width="55.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
         <v>256</v>
-      </c>
-      <c r="C1" t="s">
-        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="E2" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="72">
+      <c r="E2" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="240">
+      <c r="E3" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="E3" s="1" t="s">
+    <row r="4" spans="2:5" ht="30">
+      <c r="E4" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E4" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="D5" s="11" t="s">
-        <v>275</v>
+    <row r="5" spans="2:5" ht="200.25">
+      <c r="D5" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="1">
         <v>283</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="75">
       <c r="B11" s="1">
         <v>291</v>
       </c>
@@ -5567,102 +5709,102 @@
         <v>306</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="60">
       <c r="D12" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="45">
+      <c r="D13" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="2:5" ht="45">
+      <c r="D14" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="2:5" ht="30">
+      <c r="D15" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="60">
       <c r="B16" s="1">
         <v>303</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45">
       <c r="D17" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="60">
+      <c r="D18" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
+    <row r="20" spans="2:5" ht="60">
+      <c r="D20" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" s="1">
         <v>306</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="85.5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="105">
       <c r="B22" s="1">
         <v>307</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="1">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="399" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="409.5">
       <c r="B26" s="1">
         <v>313</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30">
       <c r="D27" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30">
+      <c r="D28" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="315">
       <c r="B29" s="1">
         <v>316</v>
       </c>
@@ -5670,28 +5812,28 @@
         <v>317</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="171" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="210">
       <c r="B30" s="1">
         <v>317</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30">
       <c r="D31" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30">
+      <c r="D32" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D32" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="360">
       <c r="B33" s="1">
         <v>322</v>
       </c>
@@ -5699,467 +5841,467 @@
         <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="1">
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="180">
       <c r="B35" s="1">
         <v>325</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="60">
       <c r="D36" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="1">
         <v>327</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="D38" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30">
       <c r="B39" s="1">
         <v>329</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="45">
       <c r="D40" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="D41" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30">
       <c r="B42" s="1">
         <v>334</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="29.25">
       <c r="B43" s="1">
         <v>339</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="E43" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="96.75">
       <c r="B44" s="1">
         <v>345</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="E44" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="152.25">
       <c r="B45" s="1">
         <v>346</v>
       </c>
       <c r="C45">
         <v>347</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="E45" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="90">
       <c r="B46" s="1">
         <v>373</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="90">
       <c r="B47" s="1">
         <v>383</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="30">
+      <c r="E48" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="D49" s="11" t="s">
-        <v>368</v>
+    <row r="49" spans="2:6" ht="285">
+      <c r="D49" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="56" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B56" s="16"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B57" s="17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="F57" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="F57" s="20" t="s">
+    </row>
+    <row r="58" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B58" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="s">
+      <c r="D58" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" ht="30.75" thickBot="1">
+      <c r="B59" s="23"/>
+      <c r="C59" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B60" s="23"/>
+      <c r="C60" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B61" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="C61" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B62" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B63" s="23"/>
+      <c r="C63" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B64" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="23"/>
-      <c r="C59" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="23"/>
-      <c r="C60" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="23"/>
-      <c r="C63" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+      <c r="F64" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B65" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F64" s="22" t="s">
+      <c r="C65" s="20" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="23" t="s">
+      <c r="D65" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B66" s="23"/>
+      <c r="C66" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="30.75" thickBot="1">
+      <c r="B67" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="23"/>
-      <c r="C66" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D66" s="18" t="s">
+      <c r="C67" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B68" s="23"/>
+      <c r="C68" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B69" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B70" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="36.75" thickBot="1">
+      <c r="B71" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B72" s="23"/>
+      <c r="C72" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="30.75" thickBot="1">
+      <c r="B73" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="23"/>
-      <c r="C68" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" s="18" t="s">
+      <c r="F73" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="132.75" thickBot="1">
+      <c r="B74" s="23"/>
+      <c r="C74" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="23"/>
-      <c r="C72" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
+      <c r="F74" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B75" s="23"/>
+      <c r="C75" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="36.75" thickBot="1">
+      <c r="B76" s="23"/>
+      <c r="C76" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B77" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="23"/>
-      <c r="C74" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="23"/>
-      <c r="C75" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="23"/>
-      <c r="C76" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="F76" s="18" t="s">
+      <c r="C77" s="20" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C77" s="22" t="s">
+      <c r="D77" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F77" s="18"/>
+      <c r="E77" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B73:B76"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySelf\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009AE669-FAC9-4857-AAD6-E601C39C1E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22DAFE-178A-4327-BCF3-B08F79189868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,17 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
     <sheet name="大纲" sheetId="8" r:id="rId8"/>
     <sheet name="年谱" sheetId="9" r:id="rId9"/>
+    <sheet name="素材" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="ref_106" localSheetId="9">素材!$B$17</definedName>
+    <definedName name="ref_108" localSheetId="9">素材!$B$22</definedName>
+    <definedName name="ref_109" localSheetId="9">素材!$B$24</definedName>
+    <definedName name="ref_110" localSheetId="9">素材!$B$27</definedName>
+    <definedName name="ref_111" localSheetId="9">素材!$B$29</definedName>
+    <definedName name="ref_3" localSheetId="8">年谱!$J$1</definedName>
+    <definedName name="ref_92" localSheetId="8">年谱!$J$74</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="628">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,9 +780,6 @@
     <t>276－323</t>
   </si>
   <si>
-    <t>263—306</t>
-  </si>
-  <si>
     <t>嵇康之侄孙</t>
   </si>
   <si>
@@ -811,9 +818,6 @@
     <t>王敦</t>
   </si>
   <si>
-    <t>266～324</t>
-  </si>
-  <si>
     <t>王敦（266年～324年），字处仲，琅琊临沂（今山东省临沂市）人。东晋时期大臣，晋武帝司马炎的女婿，治书侍御史王基的儿子。
 王敦出身琅琊王氏，善于清谈。迎娶襄城公主，授驸马都尉，历任太子舍人、给事黄门侍郎。支持晋惠帝复位，授散骑常侍、左卫将军、大鸿胪卿、侍中，出任青扬二州刺史。永嘉之乱后，消灭江州刺史华轶、镇压荆湘流民起义，拥戴晋元帝继位。东晋建立后，担任大将军、江州牧，册封汉安县侯。掌控长江中上游的军队，统辖州郡，自收贡赋，对东晋政权造成极大威胁。晋元帝以北讨后赵为名，将刘隗、戴渊外放领军，防御王敦。永昌元年（322年），以诛杀刘隗为名，发动叛乱，攻破建康，诛除异己，自领丞相、江州牧，进爵武昌郡公。移镇姑孰，自领扬州牧。
 太宁二年（324年），再次进攻建康，病逝于军中，享年五十九岁。叛乱平定后，剖棺戮尸。</t>
@@ -995,9 +999,6 @@
   </si>
   <si>
     <t>283年(西晋武帝太康四年)葛洪出生。</t>
-  </si>
-  <si>
-    <t>295年(西晋惠帝元康五年)葛洪13岁，其父亲葛悌于邵陵太守任上去世。其父去世后，葛洪一家生活困难，不得已回到故乡，从前深受父母宠爱的葛洪不得不参加农业生产。</t>
   </si>
   <si>
     <t>297年(元康七年)葛洪开始著述，后来也没有保存下来，一些思想可能融入他后面的著作中。此后到二十岁时，他不断审阅早期的写作，采取了严苛的批判态度。</t>
@@ -1454,11 +1455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陶温联军收复京师，平乱成功.
-王导又执政，东晋朝又算危而复安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1713,7 +1709,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1733,7 +1729,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1756,7 +1752,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1791,7 +1787,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1814,7 +1810,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1896,7 +1892,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1922,7 +1918,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1954,7 +1950,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2018,7 +2014,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2041,7 +2037,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2208,264 +2204,695 @@
   </si>
   <si>
     <r>
-      <t>晋元帝</t>
+      <t>晋明帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：318年—322年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋明帝</t>
+      <t>（在位：322年—325年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋成帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：322年—325年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋成帝</t>
+      <t>（在位：325年—342年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋康帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：325年—342年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋康帝</t>
+      <t>（在位：342年—344年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋穆帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：342年—344年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋穆帝</t>
+      <t>（在位：344年—361年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋哀帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：344年—361年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋哀帝</t>
+      <t>（在位：361年—365年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋废帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：361年—365年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋废帝</t>
+      <t>（在位：365年—371年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋简文帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：365年—371年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋简文帝</t>
+      <t>（在位：371年—372年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋孝武帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：371年—372年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋孝武帝</t>
+      <t>（在位：372年—396年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋安帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：372年—396年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋安帝</t>
+      <t>（在位：397年—418年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>晋恭帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：397年—418年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>晋恭帝</t>
+      <t>（在位：419年—420年）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>时东晋流行清谈，于是僧侣就藉由清谈将佛理传播给士大夫，使佛教得以在南方传播。其中以支道林最擅长谈玄。南北佛教到后来形成不同学风，北方重行业，崇尚禅学、律学及净土信仰。南方重义理、注重在涅槃佛性的探讨。东晋晚期时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>慧远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>擅长儒学，力谋佛、玄、儒融合，促使佛教中国化，最后成为净土宗的祖师之一。慧远还提倡译经，与北方名僧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>鸠摩罗什</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>交流译本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>法显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>是中国西行求法的著名僧侣，他于399年自长安出发，经西域抵北天竺、狮子国及中天竺。取得梵本戒律后，414年经海路返抵建康。他与名僧大量翻译经文，并将旅途见闻写成《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>佛国记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>》，成为研究西域及印度史地的重要作品。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [34]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[37]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>章节</t>
+  </si>
+  <si>
+    <t>太极左仙翁白日冲举，丹道秘传郑隐</t>
+  </si>
+  <si>
+    <t>葛玄白日冲举，预言天下大乱，将持续400年之久。但是这400年将是道教发展的关键时刻，将有众多人得到成仙。秘密传给郑隐，然后解散道场，白日飞升而去。托付郑隐，50年后将丹道传给葛家后人。</t>
+  </si>
+  <si>
+    <t>葛洪出生</t>
+  </si>
+  <si>
+    <t>少年葛洪得遇高人</t>
+  </si>
+  <si>
+    <t>遇到郭文，有了做神仙的愿望，听了很多神仙的故事，为以后写神仙传提供了素材。</t>
+  </si>
+  <si>
+    <t>父亲被杀，托孤嵇含</t>
+  </si>
+  <si>
+    <t>发小干宝</t>
+  </si>
+  <si>
+    <t>鲍玄游历，结交鲍姑</t>
+  </si>
+  <si>
+    <t>结交鲍姑，但是没见到鲍玄。后面才认识鲍玄。</t>
+  </si>
+  <si>
+    <t>八王之乱</t>
+  </si>
+  <si>
+    <t>儒学初成</t>
+  </si>
+  <si>
+    <t>拜师郑隐，修习道术</t>
+  </si>
+  <si>
+    <t>298年</t>
+  </si>
+  <si>
+    <t>道术初成，郑隐隐遁</t>
+  </si>
+  <si>
+    <t>302年</t>
+  </si>
+  <si>
+    <t>著《抱朴子》</t>
+  </si>
+  <si>
+    <t>江南石冰作乱</t>
+  </si>
+  <si>
+    <t>303年</t>
+  </si>
+  <si>
+    <t>讨伐石冰</t>
+  </si>
+  <si>
+    <t>搜求异书《黄庭经》，受阻。嵇含收留之。</t>
+  </si>
+  <si>
+    <t>前往广州。嵇含被刺。</t>
+  </si>
+  <si>
+    <t>陶侃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295年(西晋惠帝元康五年)葛洪13岁，其父亲葛悌于邵陵太守任上去世。其父去世后，葛洪一家生活困难，不得已回到故乡，从前深受父母宠爱的葛洪不得不参加农业生产。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永宁元年（301年），赵王司马伦篡位称帝。当时，王敦的叔父王彦正任兖州刺史。司马伦遂命王敦到兖州慰劳王彦，加以笼络。不久，齐王司马冏传檄天下，起兵讨伐司马伦。王彦虽收到檄命，但因畏惧司马伦兵力强盛，不敢应命，后因王敦力劝方才举兵。是年四月，司马伦兵败被杀，晋惠帝复位。王敦因功升任散骑常侍、左卫将军、大鸿胪、侍中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太康元年（280年），晋十万大军直逼建业，东吴末帝孙皓自知大势已去，便在石头城上宣布投降，孙皓一家被送往晋都洛阳。至此，东吴灭亡，三国归西晋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.360doc.com/content/20/1205/11/72699685_949604829.shtml
+</t>
+  </si>
+  <si>
+    <t>概要1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛悌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《晋书》：“父悌，吴平后入晋，为邵陵太守。”葛洪父亲葛悌，三国时曾任东吴五官郎、中正，建城、南昌二县令，中书郎、廷尉、平中护军、会稽太守等。咸宁五年(279年)，晋武帝下令分六路大举伐吴。晋军势如破竹，吴国防线快速崩溃。内忧外患时，吴国朝野上下不约而同地想起了一位被外放多年的治世能臣——葛悌，于是，葛悌受命于危难之际，“转为五郡赴警，大都督给兵五千，总统征军，戊遏疆场”。慌乱的东吴朝廷将手中仅剩的兵马交由葛悌，期望这位文武双全的将军能挽救吴国颜面带回胜利消息。但史书对这次东吴注定要失败的保卫战却少有记载，葛洪后来以“天之所坏，人不可支”八个字概括了战争的结果。大势所趋，葛悌也无能为力。太康元年（280年），晋十万大军直逼建业，东吴末帝孙皓自知大势已去，便在石头城上宣布投降，孙皓一家被送往晋都洛阳。至此，东吴灭亡，三国归西晋。西晋灭吴，葛悌也随孙皓归了晋朝，并以护军身份同赴洛阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太康十年（289年），“发诏见用为吴王郎中令”，葛悌被皇帝挑选去辅佐他的孩子。葛悌当上郎中令不久，晋武帝死了，他的次子惠帝司马衷继位。惠帝是个白痴，有名的“何不食肉糜”即出自于这位痴顽皇帝之口。之后历任大中大夫，大中正。但作为降臣在西晋朝廷的日子并不好过，后被外放到了远离政治中心的广平郡，任肥乡（今河北省邯郸市肥乡县）县令。葛悌恪尽职守，施政有方，以德化民，廉洁从政，政绩显耀，在司州广平郡肥乡县上任的葛悌没有辜负他能吏的名声，没过多久就把这个小县城治理成了全司州两个郡一百个县中最好的地方，使肥乡县风正气清，不用刑罚而百姓自治，受到广泛称颂，后升迁为邵陵（今湖南邵阳）太守，卒于官所。据葛洪《抱朴子·外篇·自叙》“年十有三，而慈父见背”推算，葛洪出生于西晋太康五年(284年)，晋惠帝元康六年(296年) 葛洪年十三。葛悌去世时间应为晋惠帝元康六年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一年晋皇室诸王争夺中央朝权的八王之乱中，赵王司马伦入京并纵使贾后杀太子。北地(陕西耀县)、冯翊(陕西大荔)一带匈奴、马兰羌和卢水胡、扶风氐等部落起兵反晋。对于父亲，葛洪在《抱朴子·外篇·自叙》曾有细致的描述：洪父以孝友闻，行为士表，方册所载，罔不穷览。仕吴五官郎、中正，建城、南昌二县令，中书郎、廷尉、平中护军、拜会稽太守，未辞，而晋军顺流，西境不守。博简秉文经武之才，朝野之论，佥然推君，于是转为五郡赴警。大都督给亲兵五千，总统征军，戍遏疆场。天之所坏，人不能支，故主钦若，九有同宾。君以故官赴，除郎中，稍迁至大中大夫，历位大中正、肥乡令，县户二万，举州最治，德化尤异，恩洽刑清，野有颂声，路无奸迹，不佃公田，越界如市，秋毫之赠，不入于门，纸笔之用，皆出私财，刑厝而禁止，不言而化行。以疾去官，发诏见用为吴王郎中令，正色弼违，进可替不，举善弹枉，军国肃雍。迁邵陵太守，卒于官。葛洪在《抱朴子·外篇·自叙》称：“洪者，君之第三子也。”从史料上看，葛悌生有三子，葛洪为第三子。葛洪的姐夫名徐朝，因此葛洪另外还有个姐姐。据宁国市青龙乡葛氏家族明嘉靖丙寅年(1566)纂修的《宁西葛氏家乘》记载，传至三十一世至融公，生子三，长曰洪，次曰澄，三曰洋，居句容。《宁西葛氏家乘》所记与葛洪《自叙》不符，应以《自叙》为准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266～324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦266～324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦击鼓
+王敦曾当众表演击鼓，音节谐韵，神情自得，旁若无人，在坐观看的人都称他雄爽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>275-280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280-289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">266-290
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晋武帝
+司马炎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马衷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290-306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马炽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307-313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马邺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313-316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋元帝</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（在位：419年—420年）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>时东晋流行清谈，于是僧侣就藉由清谈将佛理传播给士大夫，使佛教得以在南方传播。其中以支道林最擅长谈玄。南北佛教到后来形成不同学风，北方重行业，崇尚禅学、律学及净土信仰。南方重义理、注重在涅槃佛性的探讨。东晋晚期时，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>慧远</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>擅长儒学，力谋佛、玄、儒融合，促使佛教中国化，最后成为净土宗的祖师之一。慧远还提倡译经，与北方名僧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>鸠摩罗什</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>交流译本。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>法显</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>是中国西行求法的著名僧侣，他于399年自长安出发，经西域抵北天竺、狮子国及中天竺。取得梵本戒律后，414年经海路返抵建康。他与名僧大量翻译经文，并将旅途见闻写成《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>佛国记</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>》，成为研究西域及印度史地的重要作品。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
+      <t>（在位：318年—322年）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>249-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ？～304 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西晋时蛮族起义军将领。太安二年（公元303年）， 张昌发动荆州汉、蛮各族人民起义，派他分兵东攻扬州，击败刺史陈徽，占领扬州诸郡，不久攻破江州，临淮（今江苏盱眙）人封云起兵响应，进攻徐州。永兴元年（公元304年），在 建康（今江苏南京），为 陈敏所败，被迫北依封云，与封云同为叛徒张统所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇（249年－300年），字季伦，小名齐奴，渤海南皮（今河北省南皮县）人。西晋时期大臣、文学家、富豪，“金谷二十四友”之一，大司马石苞第六子。
+石崇敏捷聪明，有勇有谋。凭借门荫入仕，起家修武县令，历任城阳太守、员外散骑侍郎、黄门郎。参谋灭亡吴国，获封安阳乡侯，累迁鹰扬将军、南中郎将、南蛮校尉、荆州刺史等职，劫掠往来富商，因而致富。历任徐州刺史、卫尉卿职。贾后专权时，依附于鲁公贾谧。
+永康元年（300年），赵王司马伦政变后，不肯将宠妾绿珠献给司马伦党羽孙秀，遭到诛杀，夷灭三族。晋惠帝复位后，以九卿之礼安葬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结交石崇
+面不改色
+石崇以生活奢华见称，厕所都常有十多名有美貌的婢女侍奉，并放置甲煎粉和沈香汁；而如厕后的人都会更换新衣。很多客人都因为要在众侍婢前脱衣而感到害羞，但王敦则一直神情自若。 [114] 
+石崇（一说王恺）举办宴会时，大多都会命令美人行酒，更规定如果客人不饮光杯中的酒就会杀死美人。一次王敦作客，坚持不肯喝酒，石崇就斩了三个美人。王敦仍是面不改色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂目豺声
+“蜂目豺声”指眼睛像胡蜂、声音像豺狼，在相法上被认为是凶残之相。王敦年轻时，潘滔曾对他说：“你蜂目已露，但豺声未发。今后一定会吃人，也一定会被别人吃掉。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八裴方八王
+王祥、王戎、王衍、王敦、王澄、王导、王绥、王玄是西晋时期琅琊王氏的八位杰出人物，合称八王，同时期的河东裴氏则有裴徽、裴康、裴楷、裴绰、裴瓒、裴遐、裴頠、裴邈并称八裴。时论常将八裴与八王并论，即“八裴方八王”，其中与裴瓒相对比的就是王敦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦是琅琊王氏的重要人物，在永嘉之乱期间与王导、王旷等倡议南迁 [110]  ，并以扬州刺史的身份帮助司马睿在江东地区树立威望。 [10]  他利用手中掌握的军队，统领甘卓、周访、陶侃等将领，先后扫平华轶、杜弢等势力，先后收取江州、湘州、荆州、广州等地，使得司马睿的势力范围由扬州一地发展到江南全境并最终建立东晋政权。 [14]  [19] 
+王敦在东晋建立后，都督六州军事，掌控长江中上游的军队，与王导一内一外，形成“王与马，共天下”的格局。 [22]  他及后又以诛奸臣为名，起兵攻入京师，架空皇帝司马睿，尽掌朝政内外大权，将琅琊王氏的权势推向了巅峰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">王敦跟舞阳公主结婚。澡豆为饭。王敦与公主成亲不久，在公主府中如厕，看到漆箱里盛着很多干枣。他以为是厕所里摆设的果品，便顺手拿起来吃，竟将干枣全部吃光。其实这些干枣是用来塞鼻孔，防臭味的。王敦出来后，又有婢女端来金澡盘、琉璃碗，里面分别盛着水与澡豆，让他净手。他却以为是干粮，便将澡豆倒进水里喝掉。婢女全都掩口而笑。 [113]  后世以“澡豆为饭”形容一个人没见过世面的窘态。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元康九年（299年），皇后贾南风废黜太子司马遹，将其送往许昌幽禁，并严禁东宫官属送行。王敦却违反禁令，与同僚江统、潘滔、杜蕤、鲁瑶等人在路侧送行，望着司马遹痛哭拜送，受到时论的称赞。 [4]  他们因此被司隶校尉满奋收捕入狱，但在河南尹乐广、都官从事孙琰的营救下，最终都得以释放。 [5]  后来，王敦又改任给事黄门侍郎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉元年（307年），王敦在族兄王衍的安排下 [7]  ，外任广武将军、青州刺史，后又被征拜为中书监。当时天下大乱，王敦将襄城公主的陪嫁侍婢百余人全部许配给军中将士，散尽府中库财，独自返回洛阳。
+王敦曾沉迷于女色，家中养有婢妾数十人，有人为此规劝。王敦便打开后门，将家中婢妾全部放出，任凭她们离去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦出身琅琊王氏，善于清谈。迎娶襄城公主，授驸马都尉，历任太子舍人、给事黄门侍郎。支持晋惠帝复位，授散骑常侍、左卫将军、大鸿胪卿、侍中，出任青扬二州刺史。永嘉之乱后，消灭江州刺史华轶、镇压荆湘流民起义，拥戴晋元帝继位。东晋建立后，担任大将军、江州牧，册封汉安县侯。掌控长江中上游的军队，统辖州郡，自收贡赋，对东晋政权造成极大威胁。晋元帝以北讨后赵为名，将刘隗、戴渊外放领军，防御王敦。永昌元年（322年），以诛杀刘隗为名，发动叛乱，攻破建康，诛除异己，自领丞相、江州牧，进爵武昌郡公。移镇姑孰，自领扬州牧。
+太宁二年（324年），再次进攻建康，病逝于军中，享年五十九岁。叛乱平定后，剖棺戮尸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦年轻时相貌俊秀，生性洒脱，善于评鉴人物，精通《左氏春秋》，尤喜清谈，深得族兄王戎赞赏。 [2]  迎娶晋武帝之女襄城公主（《世说新语注》作舞阳公主）为妻，被拜为驸马都尉，后又担任太子舍人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉三年（309年），东海王司马越自荥阳入朝，不顾幕僚潘滔的反对，任命王敦为扬州刺史。 [9]  当时，琅琊王司马睿正以安东将军之职镇守建业（扬州州治，今江苏省南京市）。而王敦的从弟王导则在司马睿幕府担任安东司马，深受司马睿信任。王敦遂与王导一同帮助司马睿在江东树立威望，使得司马睿逐渐获取江东士族的拥戴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉四年（310年），王敦被征拜为尚书，与建武将军钱璯一同北返洛阳。但钱璯行至广陵（治今江苏省扬州市），却举兵叛乱，转而攻打王敦。王敦逃回建业，向司马睿告变。 [11]  司马睿授王敦为安东军谘祭酒。王敦遂留在扬州，未再回朝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年），扬州刺史刘陶病逝。王敦被再次任命为扬州刺史，并加广武将军，不久又进拜左将军、假节、都督征讨诸军事。 [13]  同年，匈奴汉国攻破洛阳，俘获晋怀帝，史称永嘉之乱。皇室、士族纷纷南下江东。当时，司马睿被推为盟主，承制任命官吏。江州刺史华轶却不肯从命。司马睿遂命王敦与历阳内史甘卓、扬烈将军周访共讨华轶。华轶兵败被杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉六年（312年），巴蜀流民在湘州（治今湖南省长沙市）作乱，推杜弢为首领。乱军北上席卷荆州、江州，甚至威胁到扬州的安全。 [15]  王敦进屯豫章（治今江西省南昌市），命武昌太守陶侃、豫章太守周访共讨杜弢。 [16]  当时，荆州刺史王澄因平乱失利而遭免职，调赴建康（即建业）。他途经豫章，前去拜访王敦。王敦与王澄不睦，竟以勾结杜弢为罪名，将王澄杀死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴元年（313年），陶侃大破杜弢，被王敦表荐为荆州刺史。但他随即就因竟陵太守杜曾叛乱，大败而回。王敦以“处分失所”为由，请求自贬为广武将军。但司马睿没有同意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴三年（315年），陶侃讨平杜弢之乱。王敦作为统军元帅，进拜镇东大将军、开府仪同三司、都督江扬荆湘交广六州诸军事、江州刺史，封汉安侯，可自行选置刺史以下官吏。 [19]  不久，陶侃欲回镇荆州，前来向王敦辞行。王敦忌于陶侃的军功，竟趁机将其扣留，调任为广州刺史，以堂弟王廙接掌荆州。他甚至想杀死陶侃，但因忌惮其亲家周访，最终没有动手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建武元年（317年），司马睿称晋王，建立东晋，并于次年正式称帝，史称晋元帝。王敦此时已升任征南大将军，又进拜大将军，加侍中、江州牧。当时，杜曾仍在荆州一带作乱。王敦遣部将朱轨、赵诱征讨杜曾，但均被杜曾击败。他上表自请贬职，被免去侍中，后又请辞江州牧。司马睿又任命王敦为荆州牧。但王敦仍力辞州牧一职，最终被授为荆州刺史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿能立国于江南，是因得到了南北门阀大族的支持。琅琊王氏在其中更是起到决定性作用，故而在东晋建立后权势极盛。王导内掌朝政，王敦外握兵权，王氏子弟皆位居要职，以致有“王与马，共天下”的说法，但也因此引起了司马睿的忌惮。而在同时，王敦亦渐见专擅，如私自擢用降将杜弘，自行加任割据险处的何钦为将军等。司马睿更是厌恶。他为了减弱琅琊王氏的影响力，重用丹阳尹刘隗、尚书令刁协等亲信，并逐渐疏远王导。王敦对此也是极为不满。君臣之间逐渐产生嫌隙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太兴三年（320年），梁州刺史周访病逝。 [23]  湘州刺史甘卓调镇梁州。王敦趁机请求以亲信陈颁接任湘州刺史。 [24]  湘州所处位置十分紧要，素有牵制荆州的作用，司马睿不愿让湘州被王敦所控制。刘隗也建议司马睿派遣心腹重臣出镇湘州，以防备王敦。司马睿遂以宗室司马承为湘州刺史。 [25]  王敦又上表陈说古今忠臣如何被皇帝猜疑、如何被小人离间，想以此感动司马睿。司马睿却对王敦更为忌惮，但在明面上是还是给王敦增加属官、赏赐羽葆鼓吹等仪仗，提高他的待遇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>太兴四年（321年），司马睿在刁协的建议下 [27]  ，将扬州诸郡的僮客恢复良民身份，以备征役，随后又以戴渊、刘隗出镇合肥、淮阴。 [28]  他还将所征发的兵卒全部分配给戴渊、刘隗，名义上是抵御北方的后赵政权，但其实是在防备王敦。 [29]  王敦致信刘隗，表示要和他修好，同心戮力共辅王室，却被刘隗所拒绝。他不禁更为恼怒。 [30]  而就在当年九月，豫州刺史祖逖病逝。 [31]  王敦最为忌惮的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周访和祖逖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，至此全都去世。王敦认为再无人可以在军事上威胁自己，因此决意举兵入京。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱。永昌元年（322年）正月，王敦在武昌（江州州治，在今湖北鄂州）起兵，以讨伐奸臣刘隗的名义东攻建康。他上疏列举刘隗十大罪状，表示只要刘隗授首便撤军退回。党羽沈充在吴兴（治今浙江省湖州市）举兵响应。不久，王敦兵至芜湖，又奏列刁协罪状。司马睿大怒，下诏定王敦为“大逆”，表示要亲率六军与其决战，并急调刘隗、戴渊入卫建康。 [34]  但当时门阀士族对王敦起兵大多态度暧昧。温峤便曾表示王敦所为必有原因，不算过分。 [35]  王敦的兄长王含时为光禄勋，亦闻讯叛投王敦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦起兵之初，曾遣使前往梁州、湘州，约甘卓、司马承一同东下。甘卓虽允诺，但却一直未曾出兵，在朝廷和王敦之间持观望态度。而司马承则囚禁来使，在长沙（湘州州治，即今湖南省长沙市）举兵声讨王敦，并攻杀王敦的姐夫湘东太守郑澹。 [37-38] 
+王敦一面命南蛮校尉魏乂、将军李恒等率两万兵马攻打长沙 [39]  ，一面命参军乐道融去游说甘卓出兵支持自己。乐道融本就不满王敦叛乱之举，趁机背叛了王敦，反劝甘卓袭击武昌。 [40]  当时，司马承亦命主簿邓骞到梁州劝说甘卓，促请其起兵勤王。甘卓经过多番犹豫，最终还是决定支持朝廷，遂传檄声讨王敦。 [41]  武昌震动。王敦忙遣使向甘卓求和，请他罢兵退回梁州。甘卓再次犹豫，刚刚行至猪口（在今湖北省仙桃市）便停军不进。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘隗很快便与戴渊相继赶回建康，并与刁协一同入宫，请求司马睿诛杀留在京中的琅邪王氏族人，却被司马睿所拒绝。 [43]  当时，王导率宗族子弟二十多人，每日至台城待罪，最终都得司马睿宽恕。 [44]  司马睿又命王廙去劝止王敦。但王廙非但不能谏阻王敦，反而被王敦留下，协助王敦的行动。 [45]  就在当年三月，王敦大军逼近建康。司马睿以右将军周札守卫石头城（建康军事要塞，在今清凉山一带），并亲自披甲出镇城郊，准备迎战。而刘隗则戍守金城（在今江苏省句容市），作为外援。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦欲先攻金城，打击刘隗。杜弘却认为周札刻薄少恩不得军心，建议先取石头城。王敦遂进攻石头城。周札开城投降。司马睿忙命刘隗、戴渊等率部反攻石头城，但皆大败而回。 [47]  太子司马绍闻听诸军皆败，欲亲率将士出城决战，被温峤谏止。 [48]  刘隗、刁协率败兵回到台城。司马睿给二人配备人马，让他们逃离建康，自寻生路。刁协刚刚逃至江乘（治今江苏句容北），便被随从斩杀，首级送呈王敦。 [49]  而刘隗则逃回淮阴，但却遭到刘遐的袭击，只得率妻小亲信投奔后赵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专掌朝政</t>
+  </si>
+  <si>
+    <r>
+      <t>王敦起兵打的旗号是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>清君侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，而此时刁协伏诛、刘隗北逃，朝中“奸臣”业已清除。但他却继续拥兵石头城，不但不到台城朝见司马睿，反而纵兵四处劫掠。建康大乱，台城中的官员、卫士尽皆逃散，只剩安东将军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>刘超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>与两名侍中随侍在司马睿身侧。司马睿无奈，只得遣使向王敦求和。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FF3366CC"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> [34]</t>
+      <t> [51]</t>
     </r>
     <r>
       <rPr>
@@ -2483,16 +2910,79 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t> 他命公卿百官到石头城拜见王敦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [52]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ，同时大赦天下，宣告王敦等无罪，以王敦为丞相、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都督中外诸军事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>录尚书事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、江州牧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FF3366CC"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[37]</t>
+      <t> [53]</t>
     </r>
     <r>
       <rPr>
@@ -2503,92 +2993,3450 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <t>章节</t>
-  </si>
-  <si>
-    <t>太极左仙翁白日冲举，丹道秘传郑隐</t>
-  </si>
-  <si>
-    <t>葛玄白日冲举，预言天下大乱，将持续400年之久。但是这400年将是道教发展的关键时刻，将有众多人得到成仙。秘密传给郑隐，然后解散道场，白日飞升而去。托付郑隐，50年后将丹道传给葛家后人。</t>
-  </si>
-  <si>
-    <t>葛洪出生</t>
-  </si>
-  <si>
-    <t>少年葛洪得遇高人</t>
-  </si>
-  <si>
-    <t>遇到郭文，有了做神仙的愿望，听了很多神仙的故事，为以后写神仙传提供了素材。</t>
-  </si>
-  <si>
-    <t>父亲被杀之后刻苦攻读</t>
-  </si>
-  <si>
-    <t>父亲被杀，托孤嵇含</t>
-  </si>
-  <si>
-    <t>发小干宝</t>
-  </si>
-  <si>
-    <t>鲍玄游历，结交鲍姑</t>
-  </si>
-  <si>
-    <t>结交鲍姑，但是没见到鲍玄。后面才认识鲍玄。</t>
-  </si>
-  <si>
-    <t>八王之乱</t>
-  </si>
-  <si>
-    <t>儒学初成</t>
-  </si>
-  <si>
-    <t>拜师郑隐，修习道术</t>
-  </si>
-  <si>
-    <t>298年</t>
-  </si>
-  <si>
-    <t>道术初成，郑隐隐遁</t>
-  </si>
-  <si>
-    <t>302年</t>
-  </si>
-  <si>
-    <t>著《抱朴子》</t>
-  </si>
-  <si>
-    <t>江南石冰作乱</t>
-  </si>
-  <si>
-    <t>303年</t>
-  </si>
-  <si>
-    <t>讨伐石冰</t>
-  </si>
-  <si>
-    <t>搜求异书《黄庭经》，受阻。嵇含收留之。</t>
-  </si>
-  <si>
-    <t>前往广州。嵇含被刺。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ，封武昌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>郡公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，食邑万户。至此，朝政大权尽归王敦，司马睿被彻底架空。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [54]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王敦掌权后，因戴渊、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>周顗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>素有人望，将二人收捕杀害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [55]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 当时，甘卓仍停驻于猪口。王敦以朝廷的名义发出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>驺虞幡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（绘有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>驺虞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>图形的旗帜，用以传旨解兵），命甘卓退兵。甘卓担心继续进攻武昌会逼得王敦劫持天子，遂下令撤军。乐道融与都尉秦康都认为应继续进军，并建议甘卓分兵截断彭泽湖口（彭泽湖长江入口，在今江西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>湖口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>），断绝王敦在建康与后方武昌的联系，然后一鼓解决王敦。甘卓不听，径自撤回梁州。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [56]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 随后，王敦又对朝廷官员及军镇将领进行了一番调整。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [57]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王敦当时驻兵石头城，一直不肯到台城朝见司马睿。长史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>谢鲲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>试图劝说王敦，让他朝见天子，以消除君臣之间的隔阂。但王敦却担心入朝时会发生变故，竟“不朝而去”，径自回镇武昌，遥控朝政。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [58]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 不久，魏乂攻破湘州，擒获司马承，将其用槛车解送武昌。王敦命荆州刺史王廙在半路将司马承杀害，同时又指使襄阳太守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>周虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>袭杀甘卓，控制了湘州、梁州这两个能够牵制江州的军事重镇。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [59-60]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 而与此同时，沈充亦由吴兴攻入吴国（治今江苏省苏州市），杀死了吴国内史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>张茂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [61]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王敦在武昌大肆谋害忠良，扶植亲党，后又自领宁、益二州都督。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [62]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 他还取消司徒一职，将司徒府官属全部并入自己的丞相府。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [63]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 司马睿因大权旁落，于是年（322年）年末忧愤而死。司马绍即位，史称晋明帝。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [64]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 当时，王敦因司马绍勇而有谋，欲诬以不孝之名将其废黜，但却遭到温峤等大臣的强烈反对，最终未能得逞。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [65-66]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 他为了就近掌控朝政，又暗示朝廷征己入朝。司马绍遂手诏征召王敦入朝，授其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>假黄钺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>以及“奏事不名，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>入朝不趋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，剑覆上殿”等殊礼，赐班剑甲士二十人。</t>
+    </r>
+  </si>
+  <si>
+    <t>图谋篡位</t>
+  </si>
+  <si>
+    <r>
+      <t>太宁元年（323年）四月，王敦由武昌移镇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>姑孰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（在今安徽省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>当涂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>县）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [68]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ，屯驻于城东的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>于湖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，并自领扬州牧，直接控制了京畿地区。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [69]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 此后，王敦权势更盛，甚至达到“四方贡献多入己府，将相岳牧悉出其门”的地步。他控制扬州江州、荆州、徐州等重镇，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沈充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>钱凤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>为谋主，以诸葛瑶、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>邓岳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>周抚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>李恒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>谢雍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>为爪牙，更纵容沈充等人胡作非为，有篡夺晋室之意。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [70]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 但在当时，王氏兄弟如王导、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>王彬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>王舒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>王棱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>等，都或明或暗地反对王敦。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [71-74]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 王棱甚至因此被王敦暗杀。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [75]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>司马绍面对“王敦专制，内外危逼”的局面，命</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>郗鉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>以兖州刺史之职镇守合肥，欲以其为外援对抗王敦。但王敦却表举郗鉴为尚书令，迫使司马绍将郗鉴召回朝中。郗鉴在入朝途中被王敦扣留于姑孰，但因素有名望，使得王敦未敢轻易加害。他最终还是被放回了建康，遂与司马绍共谋讨伐王敦。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [76]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 当时，王敦与钱凤等亲信密谋篡晋，不慎被堂侄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>王允之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（王舒之子）获悉。王允之假装酒醉沉睡，骗过了王敦。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [77]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 他不久便以回京探父为由回到建康，通过王舒、王导将王敦的图谋报告给了司马绍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [74]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王敦于不久后患病，因会稽内史周札一族（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>义兴周氏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>）势力强盛，便采纳钱凤的建议，决定铲除周氏，为后嗣子孙消除祸患。他指使庐江太守李恒，诬称周氏勾结妖道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>李弘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>图谋不轨。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [78]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 当时，周札的侄子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>周筵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>正在王敦的军府担任谘议参军。王敦遂在军中将周筵收捕处死，同时命沈充前往义兴（治今浙江宜兴）尽杀周氏子弟，随后又进兵突袭会稽（治今浙江省绍兴市），攻杀周札。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [79]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 后来，王敦又杀害司马绍的心腹冉曾、公乘雄等人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [80]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ，并以“三番休二”的方式减少宿卫的当值兵力。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [81]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王敦病势愈来愈重，遂矫诏拜养子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>王应（王含之子）为武卫将军 [82]  ，作为自己的继承人。他认为王应年少难当大事，在与钱凤等谋划后事时提出了三套方案：上策为放弃兵权，复归朝廷；中策为退回武昌，拥兵自守；下策为举兵东下，颠覆朝廷。钱凤却认为下策才是最好的计谋，遂与沈充决定在王敦死后发动叛乱。 [83]  而与此同时，司马绍一面命侍中陈晷、散骑常侍虞騑去探问王敦病况，一面却微服到芜湖察看王敦大军的营垒预作讨伐的准备，还不断派遣大臣去询问王敦的起居。</t>
+    </r>
+  </si>
+  <si>
+    <t>身死军败</t>
+  </si>
+  <si>
+    <r>
+      <t>太宁二年（324年）六月，王敦以左司马温峤为丹阳尹，意图借此监视朝廷动静。但温峤却将王敦的谋划尽数禀报给司马绍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [85-86]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 司马绍当即决定讨伐王敦，亲自驻屯于台城宣阳门外的中堂，并作出一系列军事部署：</t>
+    </r>
+  </si>
+  <si>
+    <t>以王导为大都督，总领征讨诸军。</t>
+  </si>
+  <si>
+    <t>以郗鉴为卫将军，统领从驾诸军。</t>
+  </si>
+  <si>
+    <r>
+      <t>命徐州</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>王邃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、豫州</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>祖约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、兖州刘遐、临淮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>苏峻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、广陵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>陶瞻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>等边军镇将率部入卫建康。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [87]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>司马绍为了消除将士对王敦的畏惧之心，对外宣称王敦已死，只是以钱凤为讨伐对象。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [88]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 王导亦率宗族子弟为王敦发丧。晋军将士对王敦的“死讯”信以为真，登时士气大振。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [89]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 王敦大怒，遂以诛杀温峤等奸臣为名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [90]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ，再次举兵。他此时病势沉重不能领兵，便以王含为元帅，与钱凤、邓岳、周抚等率五万大军向建康进发，并暗示钱凤等在破城后杀死司马绍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [91]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 沈充亦于吴兴起兵，直趋建康。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [92]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>以温峤为中垒将军，与右将军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卞敦负责守卫石头城。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>以光禄勋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应詹为护军将军，负责守卫建康城南的朱雀桥（秦淮河上的浮桥）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、钱凤等军水陆并进，很快便攻至建康，屯于秦淮河南岸。温峤移驻北岸，因宿卫兵力薄弱而所征边军尚未抵达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [93]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，下令烧毁朱雀桥，与叛军隔河对峙。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [94]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王导期间曾试图劝降王含，但未能成功。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [95]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不久，司马绍出屯南皇堂，命将军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段秀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和中军司马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曹浑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等率数千甲卒，乘夜渡河袭击叛军，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（在今江苏省南京市）大败王含，斩杀其前锋将领何康。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [96]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王敦闻败震怒，欲强撑病体亲赴前线督战，最终因病重乏力而未能成行。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [97]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王敦在重病之中愤恨交加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [96]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当日便死在姑孰军府，终年五十九岁。他临终遗命，让王应先即位称帝再为自己操办丧事。但王应却秘不发丧，只用草席包裹王敦尸身，外涂白蜡后埋于军府厅堂之中，而后便和诸葛瑶等纵酒行乐。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [98]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与此同时，沈充亦进至建康城外，与王含等部会合。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [92]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而刘遐、苏峻等部边军随后也都相继赶到建康。沈充、钱凤等认为边军远来疲惫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未堪攻战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” [99]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，遂领兵渡过秦淮河，想趁虚击溃边军。他们虽一度攻至宣阳门外，但最终还是被边军打退。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [100] 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王敦的死讯此时也逐渐传开，叛军顿时军心涣散。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [101]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王含、沈充等自知大势已去，遂连夜烧营溃逃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [102]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>司马绍命庾亮、苏峻等追击沈充，又命温峤、刘遐等追击王含、钱凤。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [103-106]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王含、王应父子逃奔荆州，却被王舒溺杀于长江。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [107]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钱凤、沈充也相继被杀，首级传送京师。司马绍又命起出王敦的尸首，焚毁其所着衣冠，摆成长跪的姿势斩首戮尸，随后将王敦、沈充等人的首级一同悬挂在城南朱雀桥上示众。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [108]  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时为太宁二年（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>324</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年）七月，王敦之乱至此被彻底平定。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss隐现-王敦，苏峻也是王敦余党</t>
+  </si>
+  <si>
+    <t>父亲被杀之后刻苦攻读，隐姓埋名</t>
+  </si>
+  <si>
+    <t>石冰也是受王敦指使</t>
+  </si>
+  <si>
+    <t>王敦黑白通吃，势力庞大</t>
+  </si>
+  <si>
+    <t>见王导，出谋划策</t>
+  </si>
+  <si>
+    <t>稽含命葛洪送信给王导，请求去广州。</t>
+  </si>
+  <si>
+    <t>陶侃</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%99%B6%E4%BE%83/16525?fr=aladdin</t>
+  </si>
+  <si>
+    <t>父亲好友，贫穷
+其曾孙为著名田园诗人陶渊明</t>
+  </si>
+  <si>
+    <t>张昌</t>
+  </si>
+  <si>
+    <t>陈敏</t>
+  </si>
+  <si>
+    <t>陶瞻</t>
+  </si>
+  <si>
+    <t>陶瞻官至散骑常侍、封都亭侯。苏峻之乱中遇害，后追赠大鸿胪，谥愍悼世子。</t>
+  </si>
+  <si>
+    <t>好友</t>
+  </si>
+  <si>
+    <t>石崇（249年－300年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇（249年－300年），字季伦，小名齐奴，渤海南皮（今河北省南皮县）人。西晋时期大臣、文学家、富豪，“金谷二十四友”之一，大司马石苞第六子。
+石崇敏捷聪明，有勇有谋。凭借门荫入仕，起家修武县令，历任城阳太守、员外散骑侍郎、黄门郎。参谋灭亡吴国，获封安阳乡侯，累迁鹰扬将军、南中郎将、南蛮校尉、荆州刺史等职，劫掠往来富商，因而致富。历任徐州刺史、卫尉卿职。贾后专权时，依附于鲁公贾谧。
+永康元年（300年），赵王司马伦政变后，不肯将宠妾绿珠献给司马伦党羽孙秀，遭到诛杀，夷灭三族。晋惠帝复位后，以九卿之礼安葬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">石崇二十多岁就担任修武县令，以有才能著名。后入洛阳任散骑侍郎，又迁任城阳太守。太康元年（280年），石崇因参与伐吴有功，被封为安阳乡侯。他在郡任职时虽有职务，仍好学不倦，后因疾病自求解职。不久，又被拜为黄门郎。 [4] 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劫商致富
+不久，石崇被外调任南中郎将、荆州刺史，兼领南蛮校尉，加职鹰扬将军。石崇在南方得到一个鸩鸟雏，把它送给后军将军王恺。按当时制度规定，鸩鸟不能到长江以北，此事被司隶校尉傅祗所纠察荐举。惠帝下诏宽恕石崇，将鸩雏烧死于街市。 [7] 
+石崇聪明有才气，但任侠而行为不检点。任荆州刺史时竟抢劫远行商客，取得巨额财物，以此致富。后来被征召为大司农，因征召的诏书未到他就擅离职守而被免职。不久，被拜为太仆。元康六年（297年），出任征虏将军，假节、监徐州诸军事，镇守下邳。石崇有别馆建在河阳的金谷，又名梓泽。他前往徐州时，几乎倾城出动，在金谷为他设帐饯行。石崇到下邳后，与徐州刺史高诞争酒互相侮辱，军司上奏弹，被免职（《晋书·嵇绍传》说嵇绍任徐州刺史，当时石崇任都督，尽管性情傲慢粗暴，但嵇绍以道义相助，所以石崇很是亲敬他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹楼将坠
+绿珠
+绿珠 [10]
+石崇后来担任卫尉，与潘岳共同巴结奉承权臣贾谧，贾谧与他们很亲善，号称“二十四友”。贾谧的外祖母广城君郭槐每次出来，石崇遇到时总先下车站在路左，望尘而拜。他就是如此卑鄙奸佞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永康元年（300年），赵王司马伦发动政变，诛杀贾后等人，贾谧也被杀，石崇因是贾谧同党而被免官。石崇的外甥欧阳建之前因弹劾司马伦而与其有仇。石崇的爱妾绿珠，相貌美艳，善吹笛。司马伦的党羽孙秀派人去索要绿珠，石崇当时在金谷别馆，正登上凉台，面临清澈的河水，婢女在旁伺候。孙秀的使者将要人的事告诉石崇，石崇将自己的数十个婢妾都引出来让使者看，婢妾们都是满身兰麝的芳香，披戴绫罗细纱。石崇对使者们说：“从中挑选吧！”使者说：“君侯这些婢妾美丽倒是美丽，然而我本是受命来要绿珠，不知哪个是？”石崇勃然发怒说：“绿珠是我的爱妾，你们是得不到的。”使者说：“君侯博古通今，明察远近，希望三思。”石崇说：“不需要三思了。”使者出去后又转回来劝石崇，但他最终还是没有答应。孙秀恼怒之下，劝司马伦杀石崇和欧阳建。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇、欧阳建也暗地得知他们的计谋，便与黄门侍郎潘岳暗地劝淮南王司马允、齐王司马冏谋划诛杀司马伦与孙秀。孙秀觉察了这些事，就假称惠帝诏命逮捕石崇与潘岳、欧阳建等人。当时石崇正在楼上宴饮，甲士到了门前。石崇对绿珠说：“今天我为了你而惹祸。”绿珠哭着说：“我应该在你面前死去来报答你。”便自投于楼下而死。石崇说：“我不过是流放到交趾、广州罢了。”直到被装在囚车上拉到东市，这才叹息道：“这些奴才是想图我的家产啊！”押他的人答道：“知道是家财害了你，为何不早点把它散发掉！”石崇无法回答。他的母亲、兄长、妻妾、儿女不论老少共十五人都被杀害，石崇遇害时五十二岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金谷园
+西晋石崇的别墅也叫金谷园。石崇是有名的大富翁。他因与王恺争富，修筑了金谷别墅，即称“金谷园”。石崇因山形水势，筑园建馆，挖湖开塘，园内清溪萦回，水声潺潺。周围几十里内，楼榭亭阁，高下错落，金谷水萦绕穿流其间，鸟鸣幽村，鱼跃荷塘。石崇用绢绸茶叶、铜铁器等派人去南洋群岛换回珍珠、玛瑙、琥珀、犀角、象牙等贵重物品，把园内的屋宇装饰的金碧辉煌，宛如宫殿。
+金谷园的景色一直被人们传诵。每当阳春三月，风和日暖的时候，桃花灼灼，柳丝袅袅，楼阁亭树交辉掩映，蝴蝶翩跃飞舞于花间；小鸟啁啾，对语枝头。所以人们把“金谷春晴”誉为洛阳八大景之一。
+明代诗人张美谷诗曰：“金谷当年景，山青碧水长，楼台悬万状，珠翠列千行。”此诗描绘出了金谷园当年的华丽景象。关于金谷园的具体位置，历来说法不一：一说在洛阳火车站附近的金谷园村一带，一说在白马寺附近，一说在孟津县送庄乡凤凰台村附近，还有一说就是在孟津县白鹤镇北部的黄河岸边。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据《世说新语》等书载，石崇的厕所修建得华美绝伦，准备了各种的香水、香膏给客人洗手、抹脸。经常得有十多个女仆恭立侍候，一律穿着锦绣，打扮得艳丽夺目，列队侍候客人上厕所。客人上过了厕所，这些婢女要客人把身上原来穿的衣服脱下，侍候他们换上了新衣才让他们出去。凡上过厕所，衣服就不能再穿了，以致客人大多不好意思如厕。官员刘寔年轻时很贫穷，无论是骑马还是徒步外出，每到一处歇息，从不劳累主人，砍柴挑水都亲自动手。后来官当大了，仍是保持勤俭朴素的美德。有一次，他去石崇家拜访，上厕所时，见厕所里有绛色蚊帐、垫子、褥子等极讲究的陈设，还有婢女捧着香袋侍候，忙退出来，笑对石崇说：“我错进了你的内室。”石崇说：“那是厕所！”刘寔说：“我享受不了这个。”遂改进了别处的厕所。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇的财产山海之大不可比拟，宏丽室宇彼此相连，后房的几百个姬妾，都穿着刺绣精美无双的锦缎，身上装饰着璀璨夺目的珍珠美玉宝石。凡天下美妙的丝竹音乐都进了他的耳朵，凡水陆上的珍禽异兽都进了他的厨房。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据《耕桑偶记》载，外国进贡火浣布，晋武帝制成衣衫，穿着去了石崇那里。石崇故意穿着平常的衣服，却让从奴五十人都穿火浣衫迎接武帝。石崇的姬妾美艳者千余人，他选择数十人，妆饰打扮完全一样，乍然一看，甚至分辨不出来。石崇刻玉龙佩，又制作金凤凰钗，昼夜声色相接，称为“恒舞”。每次欲有所召幸，不呼姓名，只听佩声看钗色。佩声轻的居前，钗色艳的在后，次第而进。 [27] 
+侍女各含异香，笑语则口气从风而飏。石崇又洒沉香屑于象牙床，让所宠爱的姬妾踏在上面，没有留下脚印的赐真珠一百粒；若留下了脚印，就让她们节制饮食，以使体质轻弱。因此闺中相戏说：“你不是细骨轻躯，哪里能得到百粒珍珠呢？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石斗富</t>
+  </si>
+  <si>
+    <t>豆粥是较难煮熟的，可石崇想让客人喝豆粥时，只要吩咐一声，须臾间就热腾腾地端来了；每到了寒冷的冬季，石家却还能吃到绿莹莹的韭菜碎末儿，这在没有暖房生产的当时可是件怪事。石家的牛从形体、力气上看，似乎不如王恺家的，可说来也怪，石崇与王恺一块出游，抢着进洛阳城，石崇的牛总是疾行若飞，超过王恺的牛车。这三件事，让王恺恨恨不已，于是他以金钱贿赂石崇的下人，问其所以。下人回答说：“豆是非常难煮的，先预备下加工成的熟豆粉末，客人一到，先煮好白粥，再将豆末投放进去就成豆粥了。韭菜是将韭菜根捣碎后掺在麦苗里。牛车总是跑得快，是因为驾牛者的技术好，对牛不加控制，让它撒开欢儿跑。”于是，王恺仿效着做，遂与石崇势均力敌。石崇后来知道了这件事，便杀了告密者。</t>
+  </si>
+  <si>
+    <r>
+      <t>石崇曾与贵戚晋武帝的舅父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>王恺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>以奢靡相比。王恺饭后用糖水洗锅，石崇便用蜡烛当柴烧；王恺做了四十里的紫丝布步障，石崇便做五十里的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦步障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>；王恺用赤石脂涂墙壁，石崇便用花椒。晋武帝暗中帮助王恺，赐了他一棵二尺来高的珊瑚树，枝条繁茂，树干四处延伸，世上很少有与他相当的。王恺把这棵珊瑚树拿来给石崇看，石崇看后，用铁制的如意击打珊瑚树，随手敲下去，珊瑚树立刻碎了。王恺之后感到很惋惜，又认为石崇是嫉妒自己的宝物，石崇说：“这不值得发怒，我现在就赔给你。”于是命令手下的人把家里的珊瑚树全部拿出来，这些珊瑚树的高度有三尺四尺，树干枝条举世无双而且光耀夺目，像王恺那样的就更多了。王恺看了，露出失意的样子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [29]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张昌招得山都县小官吏丘沈，将他改名为刘尼，假托说是汉朝皇室的后代，尊奉为天子，说：“这就是圣人。”并设置百官，张昌自封为相国，他的哥哥张味为车骑将军，弟弟张放为广武将军，各自带兵。在山岩中建筑宫殿，又伪造凤凰、玉玺等祥瑞吉兆，立年号为神凤。郊祀礼仪、服装颜色装饰，全都按照汉代过去的程式。有不接受招募的人，就对他处以灭族的惩罚，士绅百姓没有谁敢不服从。又散布流言说：“长江、淮水以南地区都发生反叛，官军大规模进发，将要把他们全部诛杀。”百姓们互相煽动，人们的心情都很惶惑惊恐。长江、沔水地区都起兵响应张昌，一月之间聚众达三万，士卒都戴深红色的帽子，用马尾当作须髯。朝廷下诏书派监军华宏讨伐张昌，结果华宏在障山被张昌打败。 [7]  当时，江夏、义阳士庶大都追随，惟有江夏旧姓江安县令王伛、秀才吕蕤不肯随从。张昌以三公之位征召他们，王伛、吕蕤悄悄地带着家室北逃汝南，投奔豫州刺史刘乔。乡人期思县令李权、常安县令吴凤、孝廉吴畅纠合正义之士，得到五百多家，追随王伛等，不肯参与张昌谋逆之事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张昌+石冰 ？～304 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张昌年轻时在平氏县担任县吏，武力过人，喜欢议论攻战谋略，同伴们全都嘲笑他。 [张昌因此欺骗迷惑百姓，自己改换姓名为李辰，在距离江夏郡治所八十里的安陆县石岩山屯聚，招募百姓，各方流民和逃避戍守劳役的人大多前来投靠张昌。江夏太守弓钦派兵讨伐张昌，但多次战败没有成功。张昌的徒众日益增多，便进攻江夏治所。弓钦出战，被张昌打的大败，于是带着家人南逃沔口。镇南大将军、新野王司马歆派遣骑兵都督靳满在随郡以西讨伐张昌，两军大战，结果靳满战败逃走，张昌获得官军的器械，于是占据江夏郡，拥有府库。张昌制造煽动人心的谣言说：“该有圣人出现为百姓作主。” [5-6] 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太安二年（公元303年），张昌发动荆州汉、蛮等族发起叛乱，派石冰分兵东攻扬州，击败刺史陈徽，占领扬州诸郡，不久攻破江州，临淮（今江苏盱眙）人封云起兵响应，进攻徐州。永兴元年（公元304年），在建康（今江苏南京），为陈敏所败，被迫北依封云。后来，封云的司马张统弃恶从善，于是杀掉石冰、封云，率领叛军向晋朝投降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝（？―336年），字令升，汝南郡新蔡县（今河南省新蔡县）人，后迁居海宁盐官之灵泉乡（今属浙江）。东晋文学家、史学家。父为东吴丹阳丞干莹。
+干宝自幼博览群书，出仕后曾担任佐著作郎。东晋建立后，负责国史《晋纪》的撰写。后经王导提拔为司徒右长史，升任散骑常侍。咸康二年（336年）三月，干宝去世。
+干宝撰写的志怪小说《搜神记》在中国小说史上有着极其深远的影响，他因此被称作“中国志怪小说的鼻祖”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝从小勤奋好学，博览群书。 [3] 
+西晋元康末年至泰安间（299年-303年），干宝在江淮，时已成年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉元年（307年），干宝任盐官州（今浙江省海宁市盐官村）别驾（刺史的从吏官）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉四年（310年），干宝父亲去世，葬于澉浦青山之阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年）正月，杜弢据长沙造反； [4]  同年，干宝举家迁至海宁盐官灵泉乡（今浙江海宁黄湾五丰村与海盐澉浦六忠村的交界处），并开始为父守孝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约建兴元年（313年）至建兴三年（315年）间，干宝因才气被征召为著作佐郎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴三年（315年），参与平定杜弢之乱有功，朝廷赏赐给他关内侯的爵位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东晋建武元年（317年），西晋灭亡，东晋建立；十一月，因东晋初建，没有设置史官，中书监王导上书说：“大凡帝王的事迹，必定要记载下来，写成典籍，永远流传后世。宣皇帝平定四海，武皇帝顺应天命，接受曹魏的禅让，大功大德，足以同古代圣君贤王相比，但他们的传纪不见于朝廷府库，他们的恩德未被谱写成乐歌。陛下圣明，为一代中兴之君，应着手建立国史，撰写帝王本纪，上陈祖宗的伟绩，下记将相辅佐之功，务必照实记述，为后代树立准则，满足举国的愿望，使人神欢愉，这无疑是天下长治久安的根本。因此应设置史官，诏令佐著作郎干宝等逐步撰写集录。”晋元帝司马睿采纳此建议。于是，干宝开始负责国史《晋纪》的撰写。 [8]  《晋纪》写成后，进献朝廷。该书自晋宣帝至晋愍帝前后五十三年，共二十卷。该书简略明了，直书史实，又能做到语气委婉，人们都称赞干宝是位好史官。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴二年（319年），干宝著《驳招魂议》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁二年（324年），干宝因家庭贫困，请求担任了山阴（今浙江绍兴）县令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约太宁三年（325年），干宝迁升为始安（今广西桂林）太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约咸和二年（327年），王导请朝廷任命干宝担任其司徒右长史，干宝在司徒府期间曾撰立司徒府属僚官仪《司徒仪》一卷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和九年（334年），干宝迁升为散骑常侍，兼任著作郎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康二年（336年）三月，干宝去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳五行思想与天人合一的历史观。
+干宝认为，朝代废兴、政权鼎革的主要动因不在人事，不在政治人物自身的举动，而在天命、人心和时运，政治人物的举动只有应天、顺人、随时，才能获得成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③对史学研究、史书撰写的贡献
+干宝践行了“比较史学”的研究方法，其《晋纪总论》对西晋王朝兴亡原因的探讨，运用“比较”的方法，首先将西晋衰亡时期与兴起时期加以对比，又将晋朝与周朝对比，说明周朝为何国祚长久，西晋为何快速灭亡，说理颇为中肯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝撰写的《搜神记》，记述了从上古到汉晋时期的大量传说，内容极其丰富。其中有很多故事，应是干宝长期搜集而来，涉及的范围很广，包罗的面也甚宽；上至皇室贵族，下至黎民百姓，都在其注视的视野之中。他并不简单地抄录传说，而是在搜集的素材基础上进行了艺术加工，将生活中的真实和艺术的真实融为一体，使这些传说故事更为典型和耐读，终提升到文学作品的高度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实书中并不局限于“神道”之说，很多篇章都突破了神话故事和民间传说的藩篱，体现了追述历史和关注社会的取材与寓意。无论是从笔记的角度或是从志怪小说的角度来看，《搜神记》都显示出很高的价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝（286/276/280―336年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝著作颇丰，著有《晋纪》二十卷、《搜神记》三十卷。干宝于易学造诣极深，《晋书》明言注《周易》。《隋书·经籍志》载有：《周易》十卷，又《周易爻义》一卷，梁有《周易宗涂》四卷，皆干宝撰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝还撰有：《易音》《毛诗音》《周官礼注》《答周官驳难》《周官音》《后养议》《春秋左氏函传义》《春秋序论》《正音》《立言》等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝酷爱阴阳五行占卜星命，注意研究京房、夏侯胜等人的传记，为其撰写《晋纪》打下基础。 干宝的父亲生前有位宠妾，为干宝的母亲所妒忌，干宝的父亲去世时，其母将侍妾活埋在父亲的坟墓里。那时干宝兄弟年幼无知，不清楚长辈的事。过了十几年，干宝母亲病逝，打开父亲的坟墓准备合葬，却发现侍妾伏在棺材上，容貌与活人一样，用车载回家，过了一天，竟然苏醒过来。叙说干宝的父亲常给她饮食，恩情如故。有关家中十几年来所发生的一切，侍妾都能一一说出，而且准确无误，生活在坟墓里也不觉得难受。过不久，干宝兄弟将侍妾改嫁他人，侍妾还生了个儿子。 [15]  另外，干宝的兄长曾重病气绝，但许多天尸体不凉，后来又醒过来，说自己见到了天地间鬼神的许多事，如同做梦醒来一样，并不知道自己死过。干宝受此影响，撰写汇集古今神灵怪异人物变化，题名《搜神记》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导（276年～339年），字茂弘，小字赤龙 [1]  ，琅琊郡临沂县（今山东省临沂市）人。东晋开国元勋，政治家、书法家，镇军司马王裁的儿子。
+出身“琅琊王氏”，袭封即丘县子。凭借门荫入仕，起家司空（刘寔）东阁祭酒，迁东海王（司马越）参军。交好琅琊王司马睿，随其移镇建邺，联络南方士族，安抚南渡士族。东晋建立后，拜骠骑大将军、开府仪同三司，册封武冈县侯，进位侍中、司空公、录尚书事、中书监，形成“王与马，共天下”的格局。“王敦之乱”时，反对废除晋元帝，拥立晋明帝，进位太保、司徒，册封始兴郡公。晋明帝驾崩后，联合外戚庾亮等共同辅政，反对征召苏峻入京。“苏峻之乱”平定后，全力稳定局势，联合太尉郗鉴继续执政。咸康五年（339年9月7日），因病去世，享年六十四岁，谥号“文献”， [2]  葬礼规格按照霍光、司马孚故事，为东晋中兴名臣之最。
+王导善于书法，以行草最佳。学习钟繇、卫瓘之法，自成一格，颇有声望，草书作品《省示帖》、《改朔帖》传世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导（276年～339年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导出身于魏晋名门琅琊王氏，为西晋光禄大夫王览之孙；父亲王裁，官至镇军将军司马。
+王导年少时就风姿飘逸，见识器量，清越弘远。十四岁时，陈留高士张公在见到他后非常惊奇，对他的从兄王敦说：“这个孩子的容貌气度，是将相之材。” [4] 
+王导最初世袭祖父王览的爵位即丘子。后被司空刘寔任为东阁祭酒及迁任秘书郎、太子舍人、尚书郎，他都未到任。其后，受东海王司马越辟召，任其参军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄助琅玡
+琅玡王司马睿（即后来的晋元帝）与王导素来友善。王导知道天下已经开始动乱，于是全心全意辅佐司马睿，暗中立下了兴复朝纲的意愿。司马睿也非常信任器重他，两人情同挚友。司马睿还在洛阳时，王导总是劝说他要尽快回到藩国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永兴二年（305年），司马睿出镇下邳，不久迁安东将军，请王导担任安东将军司马，军事谋划，都听从其安排。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">永嘉元年（307年），司马睿听从王导的建议，出镇建业（后改建康，今江苏南京）。王导相随南渡。西晋灭吴以后，南方士族被排斥，仕进很困难，当然不满意。王导想要在原孙吴境内建立以北方士族为骨干的东晋，联络南方士族便成为极其重要的事务。王导就劝说司马睿道：“顾荣、贺循，都是此地最具名望的人，应当结交他们来收服人心，他们两人来了，就没有不来的人。”司马睿就派王导亲自去造访贺循、顾荣，二人都应召而至。由此吴地之人望风顺附，百姓归心。从此之后，他们相互依靠，君臣的名分就确立了下来 [8]  。 [9-10] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年），汉国大将刘曜、王弥攻破洛阳，俘晋怀帝，杀王公以下士民三万余人，北方陷入空前的战乱中。中原人士到江南避难的有十分之六、七，王导劝司马睿乘机收揽贤人君子，扩大力量以图大事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时荆、扬二州比较安定，人口众多，物产丰饶，王导的治理方针讲求清静，常劝司马睿克己垂范励精图治，辅佐君主安宁邦国。于是越发受司马睿的器重，两人之间的感情日益深厚，朝野之中都为之倾心，称王导为“仲父”。司马睿曾对王导说：“你就是我的萧何呀！”王导回答说：“过去秦朝无道，天下百姓厌弃乱世，而极为狡黠的人又欺凌践踏人民，人们感怀汉王刘邦的恩德，群起响应反秦，所以大功容易告成。自从曹魏立朝以来，直到晋太康时期，公卿士大夫及门阀世族，奢侈挥霍相互攀比，先贤政教逐步衰退，先朝治世法度，无人遵循，大小官吏，沉溺于享乐之中，才使得奸佞之人有机可乘，导致朝政大道亏伤。然而混乱后将会出现安定，这是天地间的规律。大王将要建立盖世之功勋，重新一统山河，管仲、乐毅这样的人才，这时就会出现，不是我们这样普普通通的臣子所能比拟的。希望大王能深谋远虑，广择贤能。顾荣、贺循、纪瞻、周玘，都是南方的名士，希望大王能对他们礼敬优待，则天下可安。”司马睿采纳了王导的建议，从而逐渐赢得了南北士族的共同拥戴。 [11]  南渡士人桓彝在初到江东时，看到司马睿势力单薄，很为担心，对名士周顗说：“我因为中原多故，想到江南寻个安身立命之地，不料朝廷如此微弱，怎么办才好呢？”当王导和他纵谈形势以后，他的态度有了变化：“我见到了江左‘管仲’，不再忧虑了。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉（307年－313年）末年，王导迁任丹阳太守，加辅国将军。王导上奏劝谏司马睿不要轻易赐予臣下鼓盖等礼崇之物，让尊卑雅俗有所区别。司马睿下令嘉奖王导，拜他为宁远将军，不久又加振威将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴元年（313年），晋愍帝司马邺即位，征王导为吏部郎，但他没有入朝就职。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建武元年（317年），司马睿即晋王位后，任命王导为丞相军谘祭酒。不久拜右将军、扬州刺史、监管江南诸军事，又迁骠骑将军，加散骑常侍、都督中外诸军、领中书监、录尚书事，假节、刺史如故。王导因为看到王敦统率六州，坚决辞掉都督中外诸军的职务。后又因他事牵连，被除去符节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿喜爱琅玡王司马裒，有以他取代长子司马绍的想法，去征求王导的意见。王导说：“立太子都是立长子，而且司马绍也很贤明，不应当随意改变。”司马睿还是犹豫不决。王导常常劝谏，司马绍的名分才得以确立。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时战争不断，各地学校废弃而未能得到兴建，王导上书认为“风化之本在于正人伦，人伦之正存乎设庠序”，通过建学校来教化礼仪道德、巩固君臣及父子的纲常伦理，并以此招揽贤才，改变浮躁的风气，最终达成司马睿的“中兴”之业。他建议择取朝中子弟入学，选拔博通礼学之士为师，成教化、定风俗。 [18]  司马睿览奏后，颇为听信此议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴元年（318年），司马睿即皇帝位，建立东晋。受百官朝贺时，司马睿再三请王导同坐御床受贺，王导再三辞让不敢当，说道：“如果太阳也和地下万物一样，那么老百姓该到哪里沐浴光辉呢？”司马睿这才作罢（此为《晋书》记载，此说更早的出处似为何法盛《晋中兴书》，但再往前溯，则《世说新语·宠礼》只称某次“元会”，未言登基之会），任命王导为骠骑大将军、仪同三司。又因华轶叛乱被平定而受封武冈侯，进位侍中、司空、假节、录尚书事，领中书监。
+大兴二年（319年），王导接替贺循担任太子太傅。当时，东晋处于草创之际，朝中未设史官，王导执政时才开始设置，从此典籍史录就较齐备。之前孝怀太子司马诠为刘曜所杀，于是奉其名讳，有司奏丧礼的规格，天子举三朝之哀，群臣一哭就可以了。王导则认为皇太子是皇位的继承者，普天下都有悲哀之情，应该也哀伤三朝而非仅仅是一哭，这一建议被采纳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿登帝位以后，不满琅玡王氏的骄横，想削弱王氏势力。他引用大臣刘隗、刁协作心腹，并且暗中作军事布置，释放扬州地区内沦为僮客的北方流民，把他们组成军队，任命东吴旧族戴渊为征西将军，都督兖、豫等六州军事；刘隗为镇北将军，都督青、徐等四州军事，各率万人，分驻合肥、淮阴，名义上是北讨石勒，实际上是对付王敦。王导因此被疏远，但他一任自然安其本分，淡泊自如。有识之士都称赞王导善于对待升沉兴废。 [23] 
+永昌元年（322年），王敦以反对刘隗、刁协，替王导诉冤为借口自武昌举兵，攻入建康，杀戴渊、刁协等，刘隗逃奔石勒，史称“王敦之乱”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦反叛时，刘隗劝司马睿尽诛王氏家族之人，人们议论纷纷，都为之担心。王导率族中兄弟子侄二十余人，每天天亮时到台阁处等待议罪领罚。司马睿因王导素来忠诚正直，特地还给他朝服，并召见了他。王导叩首答谢说：“叛臣贼子，哪个朝代没有呢，但想不到会出在我们王氏家族中。”司马睿赤着脚走下来拉着王导的手说：“茂弘，我正要托付一国之命与你，你怎么说这样的话呢。”于是下诏说：“王导以大义而灭亲，可以把我任安东将军时的符节授予他。” [24]  但王导在此役中并未真正假节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦得志后，任用王导为尚书令。王导认为佞臣扰乱朝纲，同意王敦来“清君侧”，但当这些人被杀逐以后，帝室势力退缩回去，王敦还想进一步篡夺政权，王导便表示坚决的反对，出面维护帝室。当初，长安陷没、四方劝进的时候，王敦想要把持国政，恐怕元帝年长难制，企图另立他人，王导不从。及至王敦攻入建康以后，对王导说：“那时不听我言，几乎全族被灭。”但王导始终不为所动。王敦无法实现他的野心，只好退回武昌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌二年（323年），司马睿忧愤而死，晋明帝司马绍继位，王导辅政，解任扬州刺史，改拜司徒，依照曹魏时陈群辅佐魏明帝的先例。王敦以为有机可乘，又加紧图谋篡夺，王导站在维护帝室立场坚决反击。后王敦领兵向京师逼进，当时王敦正患病，王导率族中子弟为王敦发丧，大家都以为王敦已死，于是胆气倍增斗志高昂。明帝讨伐王敦时，授王导假节、都督诸军，兼领扬州刺史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦之乱被讨平后，王导被晋封为始兴郡公，食邑三千户，赐绢九千匹，进位太保，司徒之职依然如前，特许他剑履上殿，入朝不趋，赞拜不名。但王导坚决推辞不接受。
+太宁三年（325年），司马绍病死，幼主司马衍（晋成帝）继位，王导受顾命，与西阳王司马羕、尚书令卞壸、车骑将军郗鉴、领军将军陆晔、护军将军外戚庾亮、丹阳尹温峤共同辅政，并加羽葆鼓吹仪仗、班剑二十人。 [29]  但庾亮很快借帝舅之重及太后之威而独大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和元年（326年），据称后赵石勒军侵犯阜陵，司马衍下诏加王导为大司马、假黄钺，出兵讨伐。晋军停驻江宁，司马衍亲自在郊外为之饯行。不久，后赵军退走，王导解除大司马之职。 [30] 
+庾亮准备下诏召历阳内史苏峻，和王导商议此事。王导说：“苏峻奸诈多疑，必定不肯奉诏前来。山川原野中，可以躲藏毒虫猛兽，苏峻在外，还不至于马上发难，应暂时包容不惊动他。”王导力争，卞壸、温峤等也纷纷力阻，庾亮一概不听，仍然请求征苏峻入朝，引发了“苏峻之乱”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和三年（328年），朝廷军战败后，庾亮携族人逃离京城，王导与大臣荀崧、陆晔等入宫侍卫司马衍。苏峻因王导德高望重，不敢加害，仍让他官居原职处于自己位置之上。苏峻想要逼迫成帝前往石头城，因王导竭力争执不起作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏峻成日在司马衍面前胡言乱语，王导担心会有不测之祸。当时，苏峻部下路永、匡术、贾宁都劝说苏峻，要他杀掉王导，尽诛朝中大臣，重新安置上自己的心腹。苏峻素来敬畏王导，不听他们的劝告，因此路永等人和苏峻产生了矛盾。王导派参军袁耽暗中诱劝路永等人，计划让成帝出逃至陶侃、温峤的义军除。由于苏峻防守看护甚严，事情未能成功。王导只好带着两个儿子随路永逃奔到白石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和四年（329年），苏峻之乱平息。
+陶温联军收复京师，平乱成功.
+王导又执政，东晋朝又算危而复安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战乱之后，建康的宫殿、宗庙都被焚为灰烬。温峤建议迁都到豫章，三吴之地的豪杰们请求定都于会稽，这两种意见争来争去，不知哪样为好。王导说：“建康，即古时的金陵，过去就是帝王之都，而孙仲谋、刘玄德都说这里是帝王之宅。古代帝王不必因简陋豪华而移都，如果能弘扬卫文公以大布之衣大帛之冠为君的风尚，则可无事不成。若不勤勉耽于安乐，即使找到一块乐土，也会变成废墟。况且北方敌寇像游魂一样，窥伺我们的空隙，我们一旦有胆怯的表现，跑到南越之地，再想得到威望和实力，恐怕是难以办到。现在应该特别镇静，这样民情便可自安了。”由此所有迁都的提议都不能实施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和六年（331年）冬，举行冬祭，司马衍下诏将祭品送给王导，并说“不必下拜。”王导连连推辞不敢承受。当初，司马衍年幼，每次见到王导，都要下拜。又曾在给王导的诏书上写着“惶恐地说”这样的话，中书省起草的诏书，则称“敬问”，这以后就成了定规。后来正月初一，王导入朝，司马衍还亲自起来迎接， [35]  并以家人礼拜见他的妻子曹淑。
+当时天下大旱，王导上疏请求退职。诏书说：“圣明的君主管理天下，行动都要合乎天道，举止不能偏离了规则，这才能使人伦肃整，万物生长顺利。我肩负祖宗基业的重任，受着王公的推举辅佐，但不能继承仰接古圣王的遗风，使宇宙万物平安，造成天旱日久，万民忧愁怨胥，国家的不幸，责任在我一人。您贤明通慧，精于道博于理，才志弘大深远，功盖四海，辅助朝政已有三代，国家之典则没有废亡，都是由于您像仲山甫那样辅佐的结果。而现在贬低自己的功绩，引咎自责。现在把元首的过失，移给宰辅大臣来承担，这更会增加我的过错。国家治理的万千事机，不可一日不理，您应该放下谦虚礼让的个人品节，而承担起治世经国的大任。门下省速遣侍中以传达我的诚意。”王导坚决地推让，朝廷数次下诏恳请，然后才继续执掌朝政。 [36] 
+王导平素俭朴寡欲，仓中没有积蓄的粮米，穿衣不同时穿两件帛衣。成帝知道后，送给他布万匹，以供他私人开支。王导体弱患病，出席不了朝会，成帝就亲自到他府中，置酒设乐，然后用舆车将他接到殿里，成帝就是这样敬重尊崇他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康五年（339年），王导病逝，终年六十四岁。成帝于朝举哀三日，遣大鸿胪持节监护丧事，仪式赠物的礼仪，比照汉代大司马霍光及安平献王司马孚之例。 [43] 
+下葬时，晋成帝赐九游辒辌车、黄屋左纛、前后羽葆鼓吹、武贲班剑百人，自东晋中兴以来，没有可以同他相比的臣子。成帝又派使持节、谒者仆射任瞻追谥“文献”，以太牢礼祭祀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导善于体察人情，故能忍让、调剂各方面矛盾，基本上做到和睦共处。其为政基本点就是收揽一批北方的士族作骨干，联络南方士族作辅助，自己作为南北士族的首领；在自己上面，安置一个皇帝。但是由于北方士族与南方士族之间、王氏与司马氏之间都存在着矛盾，不能调剂这些矛盾使之处于相对平衡的状态，就不可能建立东晋。王导一生的事业就是调剂这些矛盾，因而造成偏安江左的局面。这个局面也是王导和晋元帝所专注和希冀的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导主要的政治措施有三方面：
+“镇之以静”，稳定人心。
+强化凝聚力，不仅团结北来大族和南方当地大族，也团结中下层南北人士。
+兴办学校。他从巩固和有利于统治出发，认为只有通过学校教育，才能使“父子兄弟夫妇长幼之序顺，而君臣之义固矣”，以期使“文武之道坠而复兴，俎豆之仪幽而更彰”。《晋书》赞道：“观其开设学校，在乎沸鼎之中，爰立章程，在乎栉风之际，虽在世道多故，而规模弘远矣。” [47] 
+王导实行的“侨寄法”，成为安置了流亡士族、缓和南北士族矛盾的重要措施。同时，对于一些地广人稀、荒凉贫瘠的地区，也起了一定的开垦繁殖、发展经济的作用。
+据《世说新语》记载：王导晚年完全不理政务，只是签字画押。自己感叹道：“人们说我糊涂，但后人会怀念我这种糊涂的。”此举实为执行其安抚士族、缓和与长江上下游势力矛盾的举措。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规谏琅邪</t>
+  </si>
+  <si>
+    <t>楚囚相对</t>
+  </si>
+  <si>
+    <t>结好士族</t>
+  </si>
+  <si>
+    <t>阿龙自超</t>
+  </si>
+  <si>
+    <t>机悟名言</t>
+  </si>
+  <si>
+    <t>因事机变</t>
+  </si>
+  <si>
+    <t>父子情深</t>
+  </si>
+  <si>
+    <t>纡曲为优</t>
+  </si>
+  <si>
+    <t>蔡谟戏弄</t>
+  </si>
+  <si>
+    <t>王导惧妻</t>
+  </si>
+  <si>
+    <t>元规尘污人</t>
+  </si>
+  <si>
+    <t>伯仁因我而死</t>
+  </si>
+  <si>
+    <r>
+      <t>琅邪王司马睿（晋元帝）南渡之后，还喜欢喝酒，王导见到后，经常哭着劝阻。司马睿答应了他，下令畅饮一番，从此便开始戒酒。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [100] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>南渡士人，每到暇日，常至新亭饮宴。在一次聚会时，名士周顗叹气说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风景跟往昔一样，江山却换了主人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在座的名士听了都不禁伤心落泪。王导当场放下脸道：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应当共同合力效忠朝廷，最终光复祖国，怎么可以相对哭泣如同亡国奴一样！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>众人听罢，都收泪向他道歉。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [101] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王导曾向南方士族陆玩请求结为婚姻之家，陆玩拒绝说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小土坡上长不了松柏这样的大树，香草臭草不能放在一个篮子里，我陆玩虽然不才，道义上决不能开乱伦的例。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>后来，陆玩曾到王导那里吃奶酪，却因而得病。后陆玩与王导通信时则写：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我虽是南方的人，但差点成了北方的鬼。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” [102] </t>
+    </r>
+  </si>
+  <si>
+    <t>王导就任司空时，桓彝梳起两个发髻，穿着葛裙，拄着拐杖，在路边观察他。赞叹说：“人们说阿龙出众，阿龙确实出众！”不觉跟随到官府门口。 [103] </t>
+  </si>
+  <si>
+    <r>
+      <t>王敦带兵快打到大桁桥时，晋明帝亲自来到中堂。温峤时任丹阳尹，明帝命令他毁掉大桁桥，可温峤没有执行（《晋书》记载是温峤主动烧毁大桁桥），明帝瞪着双眼大发雷霆，左右的人都惶恐不安。明帝召令各位公卿前来，温峤到了以后也不谢罪，还索要酒肉。王导一会儿来了，他光着脚就下地请罪说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陛下圣怒，竟使温峤都不敢谢罪了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温峤立即跪下请罪，明帝这才息怒。大家都赞叹王导的机警智慧。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [104] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王导善于根据具体情况灵活办事，虽然每天开支用度没有宽余，可一年总还有些节余。当时朝廷财政枯竭库藏空虚，只有粗丝布几千端，出售到市上却无人购买，因而朝廷开支非常困难。王导很着急，就和朝中的一些名贤都用这种粗布做衣裳，于是人们纷纷仿效他们也穿这种衣服，这些布匹的价钱一下子就贵了起来。这才令主管者去卖，每端布卖到一两金。王导就是这样被人仰慕。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [105] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王导的长子王悦为人谨慎谦和，对双亲也很孝顺。王导每次见到王悦就很高兴，见到次子王恬就生气。王悦和父亲谈话，总是以缜密谨慎为本。王导回尚书台，每次要走的时候，王悦都跟随在父亲车后相送，他还经常和母亲曹氏一起整理箱子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [106] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王悦去世后，王导回尚书台，上车后一直哭到尚书台门口；曹氏在整理箱子时，望着箱子就想到了王悦，竟不忍打开。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [106] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大将桓温换防镇守南州时，街道修整得平坦笔直。有人对其幕僚王珣说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王丞相当初营建建康的时候，没有什么范例可以参考，所以道路迂回曲折，和南州相比就差多了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王珣说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这正是丞相的高明之处。江左地方狭小，不象中原。如果道路通畅，就一览无余，修得曲折迂回，就显得深不可测了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” [107] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当初，王导夫人曹氏性格嫉妒，王导非常畏惧她，于是暗中在别处置下馆舍，以安置其他的姬妾，曹氏知道后，要亲自去查看。王导深怕姬妾们会受到曹氏的凌辱，命人马上准备车驾赶去，还怕速度太慢，用手中拿的拂尘柄当鞭子来赶牛。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [108] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大臣蔡谟听说这事后，取笑王导说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朝廷恐怕要为公加九锡了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王导不予理会，只是谦恭地走开算了。蔡谟又说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我没听说过别的什么东西，只知道有短辕的牛车，长柄的拂尘。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王导这才大怒，对人说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我和各位贤能一起在洛阳游玩时，哪里听说过这个蔡克的儿子！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” [108] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王导有个爱妾姓雷，经常干预朝政，收受贿赂。蔡谟戏称她为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷尚书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [109] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当时庾亮因为名望高而所辖地盘狭窄，于是出镇外地。南蛮校尉陶称挑拨说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庾亮一定会举兵向内（朝廷）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劝王导暗中要提防。王导说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我和庾元规休戚与共，这些无根无据的议论，不应当出自智者之口。如果就像你说的那样，庾元规真的领兵打进来，我就头戴角巾穿上便服回家，有什么可担忧的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又给陶称写信，说因为庾亮是皇帝的大舅，应该尽心尽力侍奉。这样一来，挑拨的谣言就平息了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [110] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>庾亮虽镇守于外，但还执掌着朝政大权，又据于上流之形胜，手握强兵，一些顺风转舵的人都投奔他。王导在朝中心内不平，常常在刮起西风的时候，用扇子挡起风尘，慢吞吞地说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庾元规吹起的灰尘把人弄脏了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” [110] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王敦叛乱时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王导因为怕受牵连，每日都率宗族二十余人跪在宫阙外请罪。值好友周顗入宫，王导哀求说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伯仁（周顗字），我一家百口就托付给你了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周顗毫不睬理，入宫对明帝说王导忠诚，申救甚至，明帝听从他的意见。又留周顗饮酒，周顗酒醉出宫，王导还跪在宫门前，又求周顗，周顗不答，却喷着酒气说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我要诛杀那些乱臣贼子，换取金印，挂在手肘后！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王导自以为周顗不救他，甚为怨恨。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [111] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其后王敦入建康，征求王导意见，问周顗是给他高官还是杀掉，王导都默而不语。于是王敦就杀掉了周顗。后来王导料检中书故事，看到周顗救他的奏章，言辞感人，殷勤切至。王导执表流涕，悲不自胜，对诸儿说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我不杀伯仁，伯仁却因我而死。在幽冥之中，我愧对这样的良友。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>259-334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃259-334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263—306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽含263—306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳，一名邓岱，字伯山，陈郡阳夏（今河南太康）人 [1]  。东晋将领，东汉太傅邓禹后代。
+少有将帅才略，大将军王敦以为参军，迁西阳太守。参加王敦之乱，坐罪禁锢。王导用为从事中郎，再任西阳太守。参与平定苏峻之乱、郭默之乱，领兵攻打夜郎、成汉，屡立战功，拜平南将军，封宜城县开国伯。
+卒于任上，其子邓遐袭爵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓岳年少时就有将帅的才干，最初担任王敦的参军，后改任从事中郎、西阳太守。王含反叛时，邓岳率军跟随王敦进军京都建康（今江苏南京市）。王含覆败后，邓岳与周抚都投奔蛮王向蚕。后来遇到大赦，邓岳与周抚都出来请罪，并受诏被禁锢。久之，司徒王导任命邓岳为从事中郎，后来再度担任西阳太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和三年（328年），当时苏峻起兵反叛朝廷，平南将军温峤派遣邓岳与督护王愆期、鄱阳太守纪睦等率领水军赴难。苏峻之乱平定后，邓岳回到西阳郡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咸和五年（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>330</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘胤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，大司马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陶侃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>派邓岳率领西阳兵众征讨郭默。郭默平定后，升任督交、广二州军事，建武将军，兼任平越中郎将、广州刺史、假节，因前后功勋，赐封爵位为宜城县伯。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康三年（337年），邓岳派兵攻打夜郎，取得胜利，加任督宁州军事，进号征虏将军，升任平南将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康五年（339年）三月二月二十日，邓岳率军攻打成汉政权，收复了南中。 [6]  邓岳死后，其子邓遐继承宜城县伯的爵位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽含（262～306年），字君道，晋朝上虞人，是世界上第一个植物学家，稽含于二十七岁时投身军旅，在军旅中，听到别人讲述岭南的一些草木，就把它们随时记录下来，然后选择整理，编辑而成《南方草木状》一书。本书大约成书于西晋永兴四年（304年），距今已有近一千七百年的历史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《南方草木状》全书共分为上、中、下三卷，介绍的草木分为四类，计八十种。《南方草木状》除记载了药物外，还记载了一些食物，如雍菜、甘薯、荔枝等。这些草木，既可人药，也可食用，以后各朝的药物学专著，如唐《新修本草》、宋《经史证类备急本草》、李时珍《本草纲目》都有收录，可见本书对后世影响之巨大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说，“罗汉佛脂液”的首创者是稽含，她是我国两晋时期”竹林七贤“之一的嵇康的孙子，做过太守、将军和刺史。他一生大半时间是研究植物，著有《南方草本状》一书，这是世界最早的区系植物志，他成为世界公认的第一位大植物学家。他的祖父好“老庄”，入道门，他也与道教有缘，病对医药有所研究。他与道教“金丹仙翁”葛洪是好朋友。传说，稽含用五谷、五果、五菜、五花酿制来一种饮料。葛洪有加进了几味中药。这种药液喝上一口，一天不进食也能照常劳动。百年之后方剂落到了少林寺僧稠和尚之手。僧稠就让武僧们饮用“罗汉佛脂液”来增加营养强身健体。达摩入住少林寺以后“罗汉佛脂液”又成了治疗和尚们坐禅成疾的良药。后来，几经周折，方剂就传到来李氏家族。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋代"竹林七贤"中最为英俊挺拔、刚正不阿的乡贤桶中散，其子稽含即是记录花雕的原始圣手。稽含在《南方草木状》中详录："南人有女数岁，既大酿酒，侯冬陵地竭时，置酒罂中，密固其上，瘗陂中。至春潴水满，亦不复发矣。女将嫁，乃发陂取酒，以供宾客，谓之女酒，其味绝美。"意思是说：南方人生下女儿到岁时，便开始大量酿酒，等到冬天池塘中的水干枯时，将盛酒的坛子封好口，埋于池塘中。哪怕到春天的积水满池塘时，也不挖出来。只有当女儿出嫁时，才将埋在原池塘中的酒挖出来，用来招待双方的客人。这种酒称为女酒，它的回味是极好的。作为上虞人，稽含在这里记录的是最能代表绍兴风俗的"花雕嫁女"的史实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃（259年－334年7月30日），字士行（一作士衡）。本为鄱阳郡枭阳县（今江西省都昌县）人，后徙居庐江郡寻阳县（今江西省九江市） [1]  。东晋时期名将。
+陶侃出身贫寒，初任县吏，后逐渐出任郡守。永嘉五年（311年），任武昌太守。建兴元年（313年），任荆州刺史。官至侍中、太尉、荆江二州刺史、都督八州诸军事，封长沙郡公。咸和九年（334年），陶侃去世，年七十六。获赠大司马，谥号“桓”。有文集二卷，今已佚。《全晋文》录有其文。其曾孙为著名田园诗人陶渊明。
+陶侃平定陈敏、杜弢、张昌起义，又作为联军主帅平定了苏峻之乱，为稳定东晋政权立下赫赫战功。他精勤于吏职，不喜饮酒、赌博，为人所称道，史称他治下的荆州“路不拾遗”。在后将军郭默擅自杀害刘胤后，即率兵征讨，不费一兵一卒就擒获郭默父子，因而名震敌国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃原籍都昌，后迁居庐江郡寻阳县。陶侃先世并无显赫的记载，他年轻时又当过寻阳的鱼梁吏，说明他出身寒门。其父陶丹，在三国孙吴时曾任扬武将军，地位不高。陶侃年幼而孤贫，最初任县中小吏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物生平编辑 语音</t>
+  </si>
+  <si>
+    <t>仕途艰难</t>
+  </si>
+  <si>
+    <t>陶侃幼年勤奋学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陶侃原籍都昌，后迁居庐江郡寻阳县。陶侃先世并无显赫的记载，他年轻时又当过寻阳的鱼梁吏，说明他出身寒门。其父陶丹，在三国孙吴时曾任扬武将军，地位不高。陶侃年幼而孤贫，最初任县中小吏。 [1] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一次，鄱阳郡孝廉范逵途经陶侃家。时值冰雪积日，仓促间陶侃无以待客。他母亲于是剪下自己的长发卖给别人做假发，换得酒菜，客人畅饮极欢，连仆从也受到未曾想到的招待。范逵告别时，陶侃相送百余里。范逵问：“卿想到郡中去任职吗？”陶侃回答：“想去，可苦于无人引荐。”范逵拜见庐江太守张夔，极力赞美陶侃。张夔召陶侃为督邮，领枞阳县令。在任上以有才能而著名，又迁任主簿。值州部的从事到郡中，想找点岔子处罚他，陶侃关上门严格约束部下，对从事说：“若我们有错误，自当按宪令处治，不应这样相逼，若不按礼法办事，我也能对待。”从事只好离去。张夔之妻生病，需要到几百里之外去接医生，当时大雪天寒，主簿等僚属们都感到为难，独陶侃说：“侍君侍父是为臣为子之义，郡守夫人，就同我们的母亲一样，哪有父母有病而子女不尽心的。”于是主动要求前往。大家都佩服他的礼义。长沙太守万嗣来到庐江，见到陶侃，诚心敬悦，对他说：“你最终一定会有名的。”让自己的儿子与陶侃结为好友才离去。 [2] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张夔后来举荐陶侃为孝廉，陶侃到洛阳后，几次拜谒名扬天下的重臣张华。张华开始认为他是来自偏远之地的人，不大理睬他。但陶侃每次去，都神色安然。张华后来与他交谈，大为惊异。陶侃得以除任郎中。伏波将军孙秀是灭亡的孙吴宗室，名望不高，北方士族都耻于任他的掾属，孙秀因为陶侃出身寒族，于是召他为舍人。当时豫章国郎中令杨晫，是陶侃的同乡，被乡中舆论一致称扬。陶侃拜见他，他评价说：“《易经》上说：‘坚固贞正，足以干事。’陶士行就是这样的人。”杨晫和陶侃一同乘车去拜见江南名士中书郎顾荣，顾荣也很看重他。吏部郎温雅对杨晫说：“你怎么和小人同乘一辆车呢？”杨晫说：“他可不是普通的人。”当时的清谈领袖乐广要会见南方的名士，武库令黄庆推荐了陶侃。遭到了一些人的非议，黄庆说：“这人终会前途远大，有什么可疑的。”黄庆后来任吏部令史，就推举陶侃为武冈县令。陶侃到任后，与太守吕岳不和，于是弃官回家。后来又当过郡里的小中正。 [3] </t>
+  </si>
+  <si>
+    <t>崭露头角</t>
+  </si>
+  <si>
+    <t>八王之乱引起江南动荡不安的局势，为陶侃施展才干提供了机遇。西晋末年，秦、雍一带的人民因天灾和战乱，大量流徙到梁、益地区就食。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永初元年（420年），刘裕代晋称帝，建立刘宋，当时前朝东晋的封爵中只有王导、谢安、温峤、谢玄与陶侃的子孙爵位未被废除。其爵位长沙郡公被降封为醴陵县侯，食邑五百户。 [40] </t>
+  </si>
+  <si>
+    <t>主要影响编辑 语音</t>
+  </si>
+  <si>
+    <t>军政成就</t>
+  </si>
+  <si>
+    <t>陶侃平定陈敏、杜弢、张昌起义，又作为联军主帅平定了苏峻之乱，为稳定东晋政权立下赫赫战功。他精勤于吏职，不喜饮酒、赌博，为人所称道，史称他治下的荆州“路不拾遗”。在后将军郭默擅自杀害刘胤后，即率兵征讨，不费一兵一卒就擒获郭默父子，因而名震敌国。</t>
+  </si>
+  <si>
+    <t>后世地位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建中三年（782年），礼仪使颜真卿向唐德宗建议，追封古代名将六十四人，并为他们设庙享奠，当中就有“太尉长沙公陶侃”。 [41] </t>
+  </si>
+  <si>
+    <t>宣和五年（1123年），宋室依照唐代惯例，为古代名将设庙，七十二位名将中亦包括陶侃。在北宋年间成书的《十七史百将传》 [42]  及明代黄道周所著的《广名将传》中，陶侃均位列其中。</t>
+  </si>
+  <si>
+    <t>八王之乱引起江南动荡不安的局势，为陶侃施展才干提供了机遇。西晋末年，秦、雍一带的人民因天灾和战乱，大量流徙到梁、益地区就食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">太安二年（303年），义阳蛮张昌聚众在江夏起义，不愿远征的丁壮及江夏一带流民纷纷投奔张昌。张昌攻下江夏郡，旬月之间，众至三万。张昌势力的发展，引起朝廷的不安。朝廷即任命刘弘为南蛮校尉、荆州刺史率军前去镇压。刘弘上任，即辟陶侃为南蛮校尉长史，领大都护，命他为先锋开赴襄阳，讨伐张昌。此时，张昌用全部兵力包围宛城，打败前将军赵骧的军队，杀死羊伊，刘弘只好撤退至梁县。张昌围攻襄阳，但失败。张昌转攻襄阳不下，即沿汉水进入长江。一时间，荆、江、扬等州大部分地区为张昌所控制。刘弘派陶侃等人在竟陵进攻张昌。陶侃等人屡次与张昌交战，大败张昌，前后斩杀数万人，张昌逃窜到下山，他的部众全部投降，荆州平定。 [4-5] 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事后，刘弘感叹的对陶侃说：“我过去担任羊公（羊祜）的参军，羊公说我日后一定能到他的地位，今天看到你，一定能够继承老夫我。” [6]  后因军功被封为东乡侯，食邑一千户。 [7] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永兴二年（305年），扬州刺史陈敏见北方大乱，朝廷无力控制江东，于是起兵占据扬州，又遣其弟陈恢沿江西上进攻武昌，意图割据江南。 刘弘命陶侃为江夏太守、鹰扬将军，率军抵御陈恢。陶侃齐备仪仗，将母亲接到官舍，乡里都大觉荣耀。随郡内史扈怀在刘弘面前挑拨说：“陶侃与陈敏有同乡之谊，他如今在大郡任太守，统领强兵，倘若有异心，荆州就失去东大门了。”刘弘回答说：“陶侃忠直能干，我了解他很久了，他一定不会这样的。”陶侃听说后，派儿子陶洪和侄子陶臻到刘弘那里为质，来加强刘弘对他的信任，刘弘任他们为参军，给予赏赐，将他们送回江夏。说：“贤叔要征战出行，而祖母年事已高，你们应该回去。村野匹夫互相交往，尚且不负心，何况大丈夫呢！”再加陶侃为督护，让他和诸军并力抗击陈恢。陶侃以运输船作战舰使用，有人说不能这样作，陶侃说：“用官船来打官贼，有什么不行的？”陶侃与陈恢交战，多次击败陈恢。又和皮初、张光、苗光在长岐共同击败陈敏的部将钱端。陶侃治军严肃整齐，凡有缴获，全部分赏士卒，自己身无私财。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光熙元年（306年），陶侃的伯乐刘弘病故。不久，陶侃因母亲湛氏病故而离职服丧 [10]  。服丧期满后，陶侃担任任东海王司马越的参军。江州刺史华轶上表推荐陶侃任扬武将军，驻军夏口，又任命其侄陶臻为江州参军。华轶与琅邪王司马睿素来不和，陶臻担心将来有灾难，借口有病回到陶侃身边，告诉陶侃说：“华彦夏（华轶）有忧天下之大志，但没有多大才能，并且和琅邪王有矛盾，灾祸就快来临了。”陶侃大怒，把陶臻送归华轶处，陶臻则趁机东投司马睿，司马睿见到陶臻很高兴，任命他为参军，并加陶侃为奋威将军，赐赤幢曲盖轺车及鼓吹，陶侃于是和华轶断绝了来往。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年），司马睿命王敦统领甘卓、周访等沿江击败华轶。华轶兵败被杀后，陶侃升任龙骧将军、武昌太守。当时天下饥荒，山中蛮贼常拦截长江上船只抢劫。陶侃令部下诸将假扮商船引诱山贼，山贼果然前来，活捉了数人，结果审问，得知他们原来他们是西阳王司马羕的部下。陶侃派兵逼司马羕交出盗贼，自己带兵在钓台列阵以为后继。司马羕只好把帐下二十人绑送出来，陶侃将他们斩杀，从此水陆交通安全畅通。返家的逃亡者络绎不绝，陶侃竭尽财力资助他们安家定居，又在郡东设立与夷人交易的市场，大收其利。
+司马睿虽占据江州，但上游荆、湘两州的大部分地区为杜弢率领的流民起义军所占据。司马睿派陶侃击杜弢，命振威将军周访、广武将军赵诱受陶侃指挥。陶侃令二将为前锋，侄儿陶舆为左翼，向杜弢发起进攻并将其击败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴元年（313年），荆州刺史周顗被杜弢围困在浔水城。陶侃派部将朱伺前去救援，杜弢退守泠口。陶侃判断杜弢必由陆路偷袭武昌，因此迅速率军抄近路连续行军三昼夜，在武昌周围埋伏下来。杜弢果然来攻，陶侃令朱伺率伏兵迎头痛击，大破杜弢，缴获大批辎重，杀伤众多敌兵。杜弢败军退入长沙。 [14]  陶侃派遣参军王贡向王敦报捷，王敦说：“要不是有陶侯，就会失去荆州啊。伯仁（周顗）刚到任，就被贼兵击败，不知道他怎么能当刺史？”王贡说：“我们荆州正值多难之时，非陶龙骧（陶侃）治理不可。”王敦同意，即上表拜陶侃为使持节、宁远将军、南蛮校尉、荆州刺史，管领西阳、江夏、武昌等郡，镇守在沌口，又移镇沔江。派朱伺等人征讨江夏乱贼，消灭了他们。贼寇王冲自封荆州刺史，占据江陵。王贡回到竟陵，假借陶侃的命令，以杜曾为前锋大督护，进军杀了王冲，收降他的部下。陶侃召杜曾前往，杜曾未到，王贡害怕假传命令的事会获罪，就和杜曾一起反叛。王贡在沌阳向陶侃的参军郑攀发起攻击，将其击败，又在沔口打败朱伺。陶侃准备移师退守，又被部将张奕迷惑，于是按兵不动。不久，王贡军到达，陶侃被打得大败。叛军钩住了陶侃的乘船，幸亏他跳上一只小船，而朱伺奋力苦战，陶侃才得以脱险。张奕投奔叛军，陶侃也被免职。但王敦还是上表请陶侃以布衣身份领职。 [15] 
+陶侃再次率周访等进兵入湘，让都尉杨举为先锋，将杜弢击败，屯兵于城西。陶侃的部下致辞于王敦，为陶侃辩白，王敦于是上奏请恢复陶侃的官职。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜弢部将王贡率三千精兵，出武陵江，诱骗五溪蛮夷相助，以水师截断官军道路，直逼武昌。陶侃派郑攀及伏波将军陶延连夜进军巴陵，出奇兵大败王贡，斩首千余级，归降者达万人，王贡只好退回湘城。叛军内部产生了矛盾，杜弢因怀疑张奕而杀了他，叛军都不自安，降者日益增多。王贡又来挑战，陶侃在远处对他说：“杜弢是益州的小吏，盗用国库钱财，父亲死后竟不奔丧。你本是好人，为何要跟随他胡为？天下难道有善终的叛贼吗！”王贡开始将脚横架在马背上，一副傲然无礼的样子，陶侃说罢，王贡肃然放下脚来端坐，神色言辞显得很恭顺。陶侃知道他可以改变，再次予以说服，并截发起誓，王贡于是归顺陶侃。杜弢败走，陶侃率军攻克长沙，俘获了杜弢部将的毛宝、高宝、梁堪后回师，杜弢起义被平定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦非常忌妒陶侃的功劳，陶侃要返回江陵，准备向王敦告辞，皇甫方回和朱伺等人劝谏，认为不能前往。陶侃不听，王敦果然把他留住，降为广州刺史、平越中郎将，让自己的堂弟王廙任荆州刺史。陶侃在荆州的僚属请求王敦留下陶侃，王敦怒而不许。陶侃部将郑攀、苏温、马鯭等人不愿南下，就到西边迎接杜曾以抵抗王廙。王敦认为郑攀这样做是奉陶侃的旨意，于是穿上铠甲手持兵器，想要杀掉陶侃，但往复几次还是拿不定主意。陶侃严肃地说：“使君雄毅果断，能裁决天下事，今天怎么这样犹豫不决。”便起身入厕。王敦的谘议参军梅陶、长史陈颁对王敦说：“周访和陶侃为姻亲，如同一左一右两支手，哪有砍他左手而右手不来帮忙的。”王敦这才作罢，设宴为陶侃饯行。陶侃连夜出发，王敦又留陶瞻为参军。陶侃到达豫章后，见到周访，流着泪说：“如果不是有你作外援，我性命难保。”陶侃继续前进到达始兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃将入广州，逢杜弢余部杜弘与温劭等占据交州。闻陶侃将至，杜弘企图利用诈降偷袭。陶侃识破他的计谋，布兵设阵，一举将杜弘击溃。“诸将都请求乘胜进攻温劭，陶侃笑着说：“如今我已是威名显赫，何必再动刀兵，只需要一纸布告就可以解决。”于是下书告谕，温邵因害怕逃走，追兵在始兴将他抓获。陶侃因功被封为柴桑侯，食邑增至四千户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太兴元年（318年），陶侃进号平南将军。不久，又加都督交州军事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌元年（322年），王敦之乱爆发。三月，朝廷下诏陶侃以本职领江州刺史，又转任都督、湘州刺史。王敦攻入建康，把持朝政后，恢复了陶侃的本职，又加散骑常侍。当时交州刺史王谅为叛贼梁硕杀害，陶侃派部将高宝进击，将梁硕击败。朝廷于是下诏命陶侃领交州刺史。根据陶侃前后的功劳，封其次子陶夏为都亭侯，进号征南大将军、开府仪同三司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁三年（325年），王敦之乱平定后，晋明帝司马绍为避免重蹈覆辙，在一方面重用庾亮、郗鉴等制约王导的权力，同时拔擢江东士族，在侨、吴士族间搞平衡；另一方面改授荆、湘等四州职务，使方镇互相牵制。于是在同年五月任命陶侃为都督荆、湘、雍、梁四州军事、征西大将军、荆州刺史、领护南蛮校尉，其他职务如故。荆楚民众听到这个消息后都互相庆贺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃治荆州，很重视社会秩序的稳定和发展农业生产。王敦平后，荆州大饥，百姓多饿死。陶侃在秋熟收获之时常买米，等到饥荒时又减价卖出救济。使得官民欢悦，都依靠他救济得以生存。羊祜、刘弘在荆州劝课农耕使生产发展，颇得民心，这对陶侃影响不小。此外，基于自己巩固地盘和发展势力的需要，这也是必须采取的措施。因此他“务勤稼穑，虽戎阵武士，皆劝励之。有奉馈者，皆问其所由，若力役所致，欢喜慰赐；若他所得，则呵辱还之。是以军民勤于农稼，家给人足。”在他治理下，“自南陵迄于白帝数千里中，路不拾遗”。此说虽有夸大成份。但当时荆州社会较安定，生产有所发展，确是事实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁三年（325年），明帝病死，五岁的成帝即位。庾亮以外戚身份辅政。庾亮对据上游、握强兵的陶侃颇为顾忌，一方面加强建康石头城的防卫，另一方面派温峤出任江州刺史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咸和元年（326年），平南将军应詹去世，死前曾与陶侃书，望陶侃能“竭节本朝，报恩幼主”。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和三年（328年），苏峻之乱爆发，建康被叛军所占领，陶侃的儿子陶瞻也被叛军杀害。此时，平南将军温峤邀请陶侃出兵一同勤王。当初，明帝驾崩时，陶侃并不是辅政大臣之一，他对此深为遗憾，于是答复温峤说：“我是在外守边的将领，不敢超越自己的职分。”温峤坚决要求他出兵，并推举他为盟主。陶侃这才派督护龚登率兵来与温峤合合，随后又将龚登追回。温峤在书信中以苏峻杀害陶瞻的事来激怒他，陶侃的妻子龚氏也力劝他出兵，陶侃于是戎服登舟而行，昼夜兼程，连陶瞻的丧礼也未参加。五月，与温峤、庾亮等人齐会在石头城下。诸军就要展开决战，陶侃认为贼兵强盛，不可硬攻，当等待时机以智而破之。几次出战都未能取胜，诸将请求在查浦修筑营垒，而监军李根则建议在白石修营垒，陶侃不同意，他说：“如果筑垒不成，就追究你。”李根说：“查浦地势低下，又处在水南，只有白石地形险要坚固，可容纳数千人，不利于敌人进攻，是灭敌的好办法。”陶侃笑着说：“你真是一员良将。”于是采用李根的建议，连夜修造，天亮时就造成。叛军看到新建成的营垒，大为惊恐。叛军进攻大业营垒，陶侃准备救援，长史殷羡说：“陆战我们不如苏峻，如果派人去救大业，那大事难成。现在应该急攻石头城，苏峻必定会救援，这样大业就解围了。”陶侃听从了殷羡的建议，苏峻果然丢下大业来支援石头城。诸路义军和苏峻交战，陶侃的督护竟陵太守李阳的部将彭世在阵上斩杀苏峻，叛军大乱。苏峻之弟苏逸收聚残兵，陶侃与诸军在石头城击斩苏逸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在平定苏峻之乱的过程中，陶侃是勤王军的盟主。当时庾亮率军攻苏峻，反为其所败，于是把符节交给陶侃谢罪。陶侃却说：“古人曾有三败，君侯您才败两次。现在是紧急关头，不该计较这些。”陶侃对庾亮如此宽容，诸将都奋力作战。其次，陶侃能听从建议和意见，如招徐州刺史郗鉴自广陵渡江，扼守京口，对于东西夹击苏峻起了重要作用。诸军与苏峻军战，数战皆败。温峤军缺粮，想陶侃借粮，陶侃恼怒之下反而想撤回荆州。经部将毛宝劝解，陶侃才分五万石米给温峤，并打消撤军念头。苏峻之乱终于在众人合作下得以平定。东晋政局危而复安。自此后，江南保持了七十余年的安定局面，没有出现大的动乱。社会的安定对江南经济的发展起了重要作用。应该说，陶侃对于促进这一局面的出现还是起了不小的作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和四年（329年），苏峻之乱平定，陶侃回师江陵。三月初十，陶侃因功升任侍中、太尉，加授都督交州、广州、宁州等七州军事，加羽葆、鼓吹，封爵长沙郡公，食邑三千户，又赐绢八千匹。 [28-29]  陶侃因为江陵位置偏远，于是移镇巴陵。 [30]  当时割据辽东的慕容廆与陶侃通信，不仅称赞王导和庾亮，而且称陶侃是“海内之望中唯足为楚汉轻重者”，可见陶侃此时的地位威望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和四年十二月（330年），后将军郭默擅自杀害江州刺史刘胤，执政的丞相王导认为郭默骁勇难制，便任命他为江州刺史。陶侃闻知此事，一甩袖子站起来说：“这其中必定有诈。”随即要率兵征讨郭默。郭默派使者送陶侃妓妾和绢，并写密诏呈送给陶侃。陶侃的僚佐大多劝谏说：“郭默不受诏令，怎敢做这种事。如果要进军，应该等待诏书。”陶侃神色严厉的说：“天子年幼，诏令并非出于己意。刘胤被朝廷重用，虽然所任非才，但为何胡乱遭到极刑。郭默恃仗骁勇，行事贪婪横暴，因国家大难刚刚平定，朝廷法令纲纪宽松简略，想乘机肆行无忌罢了！”便派使者上表陈述郭默的罪状，并写信给王导说：“郭默杀死刺史就任用他为刺史，如果他害宰相是不是就要任他为宰相呢？”王导这才收起先前被示众的刘胤首级，给陶侃回信说：“郭默占据长江上游的有利地势，再加上有舰船为其所用，所以包涵忍耐，让他占据那地方，朝廷因此得以秘密戒备。等足下大军到达，风驰赴敌，这难道不是暂且顺从，等待时机再定大事的策略吗！”陶侃笑着说：“这的确是对此贼屈从的策略。”随即起兵抵江州，郭默想向南占据豫章，适逢陶侃的军队到达，郭默出战不利，进城固守，用米堆成垒堡，显示自己粮食有余。陶侃修筑土山与他对垒。同年三月，庾亮的军队到达湓口，各路军队会齐。五月，郭默的部将宋侯捆绑郭默父子出城投降。陶侃在军门前将郭默斩首，首级传至建康。郭默在中原时，多次与石勒交战，石勒的部下都害怕他，听说陶侃兵不血刃就擒拿郭默，更加敬畏陶侃。苏峻的部将冯铁杀了陶侃的儿子后投奔了石勒，石勒让他任边将。陶侃把事情真相告诉了石勒，石勒就杀了冯铁。朝廷下诏陶侃领江州刺史，都督江州军事，部下增设左右长史、司马、从事中郎四人，掾属十二人。陶侃领兵回到巴陵，再移镇武昌。 [32-33] 
+实际上，王导和陶侃对郭默的不同态度，反映了他们之间对江州的争夺。王导对郭默擅杀刘胤表示的容忍，在于要笼络郭默对抗陶侃。陶侃指责王导并迅速出兵，是要将江州控制在手。陶侃夺得江州，也就控制了长江的上游和中游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事后，陶侃任命张夔之子张隐为参军，范逵之子范珧为湘东太守，以刘弘的曾孙刘安为掾属，上表褒赞梅陶。凡是他微贱时受过别人的恩惠，哪怕是一餐饭他也必定报答。 [34] 
+此后，陶侃曾欲举兵废黜王导，但因庾亮调解以及王导的亲家郗鉴反对才作罢。 [35] 
+陶侃驻守在武昌时，不少人主张在江北的邾城驻兵镇守。陶侃每次都不回答，而众人一直说此事，陶侃于是在率将佐过江围猎时分析说：邾城隔在江北，内无所倚，外接敌寇。即便派兵驻守，也无益江南。长江才是御寇的天险。众将才恍然大悟。后荆州刺史庾亮派精兵万人驻守邾城，至咸康五年（339年），后赵派兵来攻，邾城孤立无援，终于兵败城陷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和七年（332年），陶侃派毌丘奥经营巴东，又派其子陶斌和南中郎将桓宣西伐樊城，派侄儿陶臻、竟陵太守李阳等共同攻下新野，收复了襄阳。襄阳为荆州北门。它起着阻止后赵沿汉水南下的作用，又是东晋经略北方的一个重要阵地。朝廷拜陶侃为大将军，赐予赞拜不名、剑履上殿的殊荣，被陶侃上表坚决辞让。 [37]  陶侃到晚年时深感物极必反的道理，因此不参与朝政，多次想告老还乡，但被佐吏们苦苦相留。
+陶侃晚年位极人臣，能“怀止足之分，不与朝权”，对他个人来说，不失为一种明智的选择。这样既可维持“家僮千余，珍奇宝货富于天府”的家业，又可保住子孙的前途。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咸和九年（334年）六月，陶侃在病中上表逊位，派左长史殷羡将官印节传等送还朝廷。他在离开荆州前，军资、器仗、牛马、舟船等，都有簿录统计，封存仓库，由陶侃亲自上锁。陶侃将后事托付给右司马王愆期，加职都护，命他统领文武官吏。十二日，陶侃乘车离开武昌，到渡口乘船，准备返回长沙，回头对王愆期说：“老夫现在蹒跚难行，正因你们阻拦。”次日（7月30日），陶侃于樊溪去世，享年七十六岁。根据他的遗嘱，众人把他葬在长沙南二十里的地方，他的旧部又在武昌城西为他刊石立碑、作画像。成帝下诏追赠陶侃为大司马，赐谥号“桓”，以太牢礼祭祀。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2603,7 +6451,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2611,7 +6459,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2632,7 +6480,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2686,7 +6534,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2701,10 +6549,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF136EC2"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2727,7 +6610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2765,12 +6648,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2822,17 +6725,77 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3121,18 +7084,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="45.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="39.75" customWidth="1"/>
+    <col min="12" max="12" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3164,11 +7127,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="330">
+    <row r="2" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -3184,11 +7147,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="195">
+    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="39"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3208,11 +7171,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="195">
+    <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="39"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -3223,11 +7186,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="345">
+    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="39"/>
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -3241,11 +7204,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -3258,11 +7221,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75">
+    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="40"/>
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -3279,11 +7242,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="225">
+    <row r="8" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="40"/>
       <c r="C8" t="s">
         <v>79</v>
       </c>
@@ -3300,11 +7263,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="188.25" customHeight="1">
+    <row r="9" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="40"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -3318,11 +7281,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="105">
+    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -3332,11 +7295,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="345">
+    <row r="11" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="39"/>
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -3350,11 +7313,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
@@ -3362,11 +7325,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="39"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -3374,11 +7337,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -3388,11 +7351,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="39"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -3403,94 +7366,94 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="39"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="39"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="165">
+    <row r="33" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>74</v>
       </c>
@@ -3498,7 +7461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="105">
+    <row r="34" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -3509,13 +7472,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>95</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="150">
+    <row r="38" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>98</v>
       </c>
@@ -3523,27 +7486,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -3561,6 +7524,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E001D033-9911-4304-9086-4A7015D03EF6}">
+  <dimension ref="B1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="65.75" style="44" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="B8" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="83.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="44" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="44" t="s">
+        <v>564</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="44" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="44" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="44" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="44" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B23" s="44" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="44" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="84" x14ac:dyDescent="0.2">
+      <c r="B26" s="44" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="84" x14ac:dyDescent="0.2">
+      <c r="B29" s="44" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="55.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="44" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDFBD47-8057-4711-BFDF-9413BA7676C6}">
   <dimension ref="A1:M31"/>
@@ -3569,21 +7753,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="2" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="44.375" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="37.625" customWidth="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -3624,7 +7808,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3641,147 +7825,147 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3794,28 +7978,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73611BBC-3244-45BF-A36A-C1AC67B1EDBA}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="58.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="28.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>139</v>
       </c>
@@ -3856,7 +8040,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3873,18 +8057,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="270">
+    <row r="3" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="J3" t="s">
         <v>159</v>
@@ -3893,7 +8077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="255">
+    <row r="4" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3910,7 +8094,7 @@
         <v>155</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>156</v>
@@ -3919,7 +8103,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3930,7 +8114,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="135">
+    <row r="6" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3938,19 +8122,19 @@
         <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="105">
+    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3958,36 +8142,36 @@
         <v>171</v>
       </c>
       <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
         <v>224</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" t="s">
-        <v>226</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="165">
+    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="60">
+    </row>
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4001,7 +8185,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="195">
+    <row r="10" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4009,41 +8193,41 @@
         <v>198</v>
       </c>
       <c r="F10" t="s">
+        <v>575</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="285">
+    </row>
+    <row r="11" spans="1:13" ht="228" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="375">
+    </row>
+    <row r="12" spans="1:13" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30">
+    </row>
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4063,7 +8247,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60">
+    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4077,7 +8261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="75">
+    <row r="15" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4091,7 +8275,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45">
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4105,7 +8289,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4116,7 +8300,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4127,7 +8311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4138,32 +8322,32 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="265.5" customHeight="1">
+    <row r="20" spans="1:12" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E20" t="s">
         <v>200</v>
       </c>
       <c r="F20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
         <v>202</v>
@@ -4175,95 +8359,142 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
+    <row r="22" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="240">
-      <c r="A23">
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>397</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F23" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="E25" t="s">
+        <v>468</v>
+      </c>
+      <c r="F25" t="s">
+        <v>573</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="E26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="E27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="E28" t="s">
+        <v>473</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H25" r:id="rId1" xr:uid="{EE664755-7671-4D88-8F05-B1F5237F76AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4275,15 +8506,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4300,7 +8531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4314,7 +8545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4328,7 +8559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4342,7 +8573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4359,7 +8590,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4367,7 +8598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4381,7 +8612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4389,7 +8620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4397,7 +8628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4411,72 +8642,72 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4495,14 +8726,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4516,7 +8747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4524,7 +8755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4532,7 +8763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4540,104 +8771,104 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4656,13 +8887,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="94.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.42578125" customWidth="1"/>
+    <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4673,7 +8904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4681,7 +8912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75">
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4689,7 +8920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4697,7 +8928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4705,7 +8936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4713,7 +8944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="120">
+    <row r="7" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4721,7 +8952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="180">
+    <row r="8" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4729,7 +8960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4737,7 +8968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4745,7 +8976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4753,7 +8984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60">
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4761,7 +8992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4769,7 +9000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5">
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4777,7 +9008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120">
+    <row r="15" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4785,7 +9016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="405">
+    <row r="16" spans="1:3" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4793,7 +9024,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="375">
+    <row r="17" spans="1:3" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4804,132 +9035,132 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4948,129 +9179,129 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+    <col min="2" max="2" width="124.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="315">
+    <row r="33" spans="2:2" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="409.5">
+    <row r="37" spans="2:2" ht="384.75" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="72" thickBot="1">
-      <c r="B38" s="11" t="s">
+    <row r="41" spans="2:2" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B39" s="12" t="s">
+    <row r="42" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="114">
-      <c r="B40" s="13" t="s">
+    <row r="43" spans="2:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="86.25" thickBot="1">
-      <c r="B41" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B42" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="85.5">
-      <c r="B43" s="13" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5085,551 +9316,567 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="114" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
+        <v>363</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>373</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>463</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>372</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5643,699 +9890,1457 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C8A5D9-1696-47E5-94E3-00A89F0F208E}">
-  <dimension ref="B1:F77"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="4" max="4" width="55.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="42.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>280</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>283</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>286</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>287</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>290</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>291</v>
+      </c>
+      <c r="C16">
+        <v>306</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>292</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="342" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>295</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>297</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="72">
-      <c r="E2" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="240">
-      <c r="E3" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30">
-      <c r="E4" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="200.25">
-      <c r="D5" s="9" t="s">
+    <row r="20" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>298</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>299</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>300</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>301</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>303</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>305</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="228" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>306</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>307</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>309</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>310</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>311</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>312</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>313</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>315</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>316</v>
+      </c>
+      <c r="C41">
+        <v>317</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>317</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>318</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>319</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>320</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>321</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>322</v>
+      </c>
+      <c r="C47">
+        <v>324</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>323</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>324</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>325</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>326</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>327</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>328</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>329</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="285" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>330</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>331</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="2:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>332</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>333</v>
+      </c>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="2:11" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>334</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>337</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="2:11" ht="171" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>339</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>345</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1">
+      <c r="J64" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>346</v>
+      </c>
+      <c r="C65">
+        <v>347</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>373</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>383</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="228" x14ac:dyDescent="0.2">
+      <c r="D69" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J70" s="37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J71" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J72" s="22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J73" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="J74" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="J76" s="36"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="75">
-      <c r="B11" s="1">
+      <c r="E77" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="L77" s="29"/>
+    </row>
+    <row r="78" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="L78" s="30"/>
+    </row>
+    <row r="79" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="42"/>
+      <c r="C79" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="L79" s="30"/>
+    </row>
+    <row r="80" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="42"/>
+      <c r="C80" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" s="27">
+        <v>290</v>
+      </c>
+      <c r="E80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="L80" s="30"/>
+    </row>
+    <row r="81" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="L82" s="30"/>
+    </row>
+    <row r="83" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="L87" s="31"/>
+    </row>
+    <row r="88" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="43"/>
+      <c r="C88" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C11">
+      <c r="J88" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L88" s="32"/>
+    </row>
+    <row r="89" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="43"/>
+      <c r="C89" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J89" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="L89" s="32"/>
+    </row>
+    <row r="90" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="L90" s="32"/>
+    </row>
+    <row r="91" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J91" s="16"/>
+      <c r="L91" s="31"/>
+    </row>
+    <row r="92" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="43"/>
+      <c r="C92" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="J92" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="L92" s="32"/>
+    </row>
+    <row r="93" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="60">
-      <c r="D12" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="45">
-      <c r="D13" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45">
-      <c r="D14" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30">
-      <c r="D15" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="60">
-      <c r="B16" s="1">
-        <v>303</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45">
-      <c r="D17" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="60">
-      <c r="D18" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="60">
-      <c r="D20" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="1">
-        <v>306</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="105">
-      <c r="B22" s="1">
+      <c r="E93" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J93" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="1">
+      <c r="L93" s="32"/>
+    </row>
+    <row r="94" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="C94" s="20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1">
+      <c r="D94" s="16" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="1">
+      <c r="E94" s="16" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="409.5">
-      <c r="B26" s="1">
+      <c r="J94" s="16"/>
+      <c r="L94" s="31"/>
+    </row>
+    <row r="95" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="43"/>
+      <c r="C95" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="30">
-      <c r="D27" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30">
-      <c r="D28" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="315">
-      <c r="B29" s="1">
+      <c r="J95" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="L95" s="31"/>
+    </row>
+    <row r="96" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C29">
+      <c r="E96" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J96" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="210">
-      <c r="B30" s="1">
-        <v>317</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="30">
-      <c r="D31" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="30">
-      <c r="D32" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="360">
-      <c r="B33" s="1">
+      <c r="L96" s="32"/>
+    </row>
+    <row r="97" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="43"/>
+      <c r="C97" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J97" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="L97" s="32"/>
+    </row>
+    <row r="98" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C33">
+      <c r="D98" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="1">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="180">
-      <c r="B35" s="1">
+      <c r="J98" s="16"/>
+      <c r="L98" s="31"/>
+    </row>
+    <row r="99" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="60">
-      <c r="D36" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="1">
+      <c r="D99" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J99" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="D38" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="30">
-      <c r="B39" s="1">
+      <c r="L99" s="32"/>
+    </row>
+    <row r="100" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="45">
-      <c r="D40" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="D41" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="30">
-      <c r="B42" s="1">
+      <c r="E100" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L100" s="31"/>
+    </row>
+    <row r="101" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="43"/>
+      <c r="C101" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="J101" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="29.25">
-      <c r="B43" s="1">
+      <c r="L101" s="32"/>
+    </row>
+    <row r="102" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J102" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="L102" s="32"/>
+    </row>
+    <row r="103" spans="2:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="43"/>
+      <c r="C103" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D103" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="96.75">
-      <c r="B44" s="1">
+      <c r="E103" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J103" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="L103" s="33"/>
+    </row>
+    <row r="104" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="43"/>
+      <c r="C104" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="L104" s="31"/>
+    </row>
+    <row r="105" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="43"/>
+      <c r="C105" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="152.25">
-      <c r="B45" s="1">
+      <c r="D105" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C45">
+      <c r="E105" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="90">
-      <c r="B46" s="1">
-        <v>373</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="90">
-      <c r="B47" s="1">
-        <v>383</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="30">
-      <c r="E48" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="285">
-      <c r="D49" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="56" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B56" s="16"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B57" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="E57" s="18" t="s">
+      <c r="J105" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L105" s="31"/>
+    </row>
+    <row r="106" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B58" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B59" s="23"/>
-      <c r="C59" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B60" s="23"/>
-      <c r="C60" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B61" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B62" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B63" s="23"/>
-      <c r="C63" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B64" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B65" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B66" s="23"/>
-      <c r="C66" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B67" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B68" s="23"/>
-      <c r="C68" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B69" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B70" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="36.75" thickBot="1">
-      <c r="B71" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B72" s="23"/>
-      <c r="C72" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B73" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="132.75" thickBot="1">
-      <c r="B74" s="23"/>
-      <c r="C74" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B75" s="23"/>
-      <c r="C75" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="36.75" thickBot="1">
-      <c r="B76" s="23"/>
-      <c r="C76" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B77" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F77" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="L106" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B71:B72"/>
+  <mergeCells count="7">
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B100:B101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{B2D03586-433D-4383-B5AB-DD0822FD0A63}"/>
-    <hyperlink ref="C59" r:id="rId2" display="https://baike.baidu.com/item/%E5%A4%A7%E5%85%B4" xr:uid="{A02453B6-C54D-42A0-9EC6-BCDB354607DC}"/>
-    <hyperlink ref="F59" r:id="rId3" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%B4" xr:uid="{E861EC80-B39F-4108-881C-5D0CC2AEDAFB}"/>
-    <hyperlink ref="C60" r:id="rId4" display="https://baike.baidu.com/item/%E6%B0%B8%E6%98%8C" xr:uid="{54666548-873B-43E2-9DE4-3DACF4C75F01}"/>
-    <hyperlink ref="F60" r:id="rId5" display="https://baike.baidu.com/item/%E6%99%8B%E6%98%8E%E5%B8%9D" xr:uid="{02B02092-6F16-4EC2-9975-1738F5AEDFA1}"/>
-    <hyperlink ref="C61" r:id="rId6" display="https://baike.baidu.com/item/%E5%A4%AA%E5%AE%81" xr:uid="{FBD6D5AD-8809-459A-A279-2A97A535104C}"/>
-    <hyperlink ref="F61" r:id="rId7" display="https://baike.baidu.com/item/%E6%99%8B%E6%88%90%E5%B8%9D" xr:uid="{884F8276-0631-47D9-9C66-5B34C1714CD3}"/>
-    <hyperlink ref="C62" r:id="rId8" display="https://baike.baidu.com/item/%E5%92%B8%E5%92%8C" xr:uid="{C6A1FCA0-D8FE-43DC-9219-4BB1E3F2FBC9}"/>
-    <hyperlink ref="C63" r:id="rId9" display="https://baike.baidu.com/item/%E5%92%B8%E5%BA%B7" xr:uid="{C444389B-D644-4BE7-BA3C-C726B1655482}"/>
-    <hyperlink ref="F63" r:id="rId10" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%B7%E5%B8%9D" xr:uid="{63912AC7-4B9F-4170-B416-C0012B6C3A7D}"/>
-    <hyperlink ref="F64" r:id="rId11" display="https://baike.baidu.com/item/%E6%99%8B%E7%A9%86%E5%B8%9D" xr:uid="{007ED7A9-F041-45CE-B903-D247E535C839}"/>
-    <hyperlink ref="C65" r:id="rId12" display="https://baike.baidu.com/item/%E6%B0%B8%E5%92%8C" xr:uid="{DFDEC4D7-AA39-4057-9FE4-4BD7484854A6}"/>
-    <hyperlink ref="C66" r:id="rId13" display="https://baike.baidu.com/item/%E5%8D%87%E5%B9%B3" xr:uid="{18B77761-1002-496D-BE3D-13D53E5871AA}"/>
-    <hyperlink ref="C67" r:id="rId14" display="https://baike.baidu.com/item/%E9%9A%86%E5%92%8C" xr:uid="{B0F42B78-C6AC-47B4-A126-CADCA9583C77}"/>
-    <hyperlink ref="F67" r:id="rId15" display="https://baike.baidu.com/item/%E5%B4%87%E5%92%8C" xr:uid="{DD62E43F-8745-42D8-96CC-9F32BA46796F}"/>
-    <hyperlink ref="C68" r:id="rId16" display="https://baike.baidu.com/item/%E5%85%B4%E5%AE%81" xr:uid="{0EFDD73C-DAF8-4852-86DD-D6CDF545E59F}"/>
-    <hyperlink ref="F68" r:id="rId17" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%9F%E5%B8%9D" xr:uid="{56A0115D-D09A-4B05-A826-A44EE67E40D7}"/>
-    <hyperlink ref="C69" r:id="rId18" display="https://baike.baidu.com/item/%E5%A4%AA%E5%92%8C" xr:uid="{43F455A4-B62B-42FB-97AE-BA767BA81F6B}"/>
-    <hyperlink ref="C70" r:id="rId19" display="https://baike.baidu.com/item/%E5%92%B8%E5%AE%89" xr:uid="{49D2E1E3-0822-412D-9F4D-494A0247D924}"/>
-    <hyperlink ref="F70" r:id="rId20" display="https://baike.baidu.com/item/%E6%99%8B%E5%AD%9D%E6%AD%A6%E5%B8%9D" xr:uid="{D2CBBE8E-7F47-415D-ABB1-DD98D9579A22}"/>
-    <hyperlink ref="C71" r:id="rId21" display="https://baike.baidu.com/item/%E5%AE%81%E5%BA%B7" xr:uid="{702DC475-06AF-41B0-8193-E82240415980}"/>
-    <hyperlink ref="C72" r:id="rId22" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%83" xr:uid="{2F3E2A7E-A92B-444D-9E0B-372E28B000E2}"/>
-    <hyperlink ref="F72" r:id="rId23" display="https://baike.baidu.com/item/%E6%99%8B%E5%AE%89%E5%B8%9D" xr:uid="{41878EDA-7230-4539-9749-A2C7F8AA34FB}"/>
-    <hyperlink ref="C73" r:id="rId24" display="https://baike.baidu.com/item/%E9%9A%86%E5%AE%89" xr:uid="{8BAD6162-F93B-46A1-BAFE-D6C30F3DB05A}"/>
-    <hyperlink ref="F73" r:id="rId25" display="https://baike.baidu.com/item/%E5%B4%87%E5%AE%89" xr:uid="{B5A9C611-B82C-4B6C-B331-E547E6F07D9E}"/>
-    <hyperlink ref="C74" r:id="rId26" display="https://baike.baidu.com/item/%E5%85%83%E5%85%B4" xr:uid="{EFF0D945-B9A0-48B8-BA1C-14FD903AECF9}"/>
-    <hyperlink ref="C75" r:id="rId27" display="https://baike.baidu.com/item/%E5%A4%A7%E4%BA%A8" xr:uid="{86269E2E-CFF1-4335-8057-CE06667D17E7}"/>
-    <hyperlink ref="C76" r:id="rId28" display="https://baike.baidu.com/item/%E4%B9%89%E7%86%99" xr:uid="{2A508A96-7FD1-410C-A505-C28072AAFA29}"/>
-    <hyperlink ref="C77" r:id="rId29" display="https://baike.baidu.com/item/%E5%85%83%E7%86%99" xr:uid="{105E62D6-432F-4B62-ADB8-65593F5216F5}"/>
+    <hyperlink ref="C88" r:id="rId2" display="https://baike.baidu.com/item/%E5%A4%A7%E5%85%B4" xr:uid="{A02453B6-C54D-42A0-9EC6-BCDB354607DC}"/>
+    <hyperlink ref="J88" r:id="rId3" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%B4" xr:uid="{E861EC80-B39F-4108-881C-5D0CC2AEDAFB}"/>
+    <hyperlink ref="C89" r:id="rId4" display="https://baike.baidu.com/item/%E6%B0%B8%E6%98%8C" xr:uid="{54666548-873B-43E2-9DE4-3DACF4C75F01}"/>
+    <hyperlink ref="J89" r:id="rId5" display="https://baike.baidu.com/item/%E6%99%8B%E6%98%8E%E5%B8%9D" xr:uid="{02B02092-6F16-4EC2-9975-1738F5AEDFA1}"/>
+    <hyperlink ref="C90" r:id="rId6" display="https://baike.baidu.com/item/%E5%A4%AA%E5%AE%81" xr:uid="{FBD6D5AD-8809-459A-A279-2A97A535104C}"/>
+    <hyperlink ref="J90" r:id="rId7" display="https://baike.baidu.com/item/%E6%99%8B%E6%88%90%E5%B8%9D" xr:uid="{884F8276-0631-47D9-9C66-5B34C1714CD3}"/>
+    <hyperlink ref="C91" r:id="rId8" display="https://baike.baidu.com/item/%E5%92%B8%E5%92%8C" xr:uid="{C6A1FCA0-D8FE-43DC-9219-4BB1E3F2FBC9}"/>
+    <hyperlink ref="C92" r:id="rId9" display="https://baike.baidu.com/item/%E5%92%B8%E5%BA%B7" xr:uid="{C444389B-D644-4BE7-BA3C-C726B1655482}"/>
+    <hyperlink ref="J92" r:id="rId10" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%B7%E5%B8%9D" xr:uid="{63912AC7-4B9F-4170-B416-C0012B6C3A7D}"/>
+    <hyperlink ref="J93" r:id="rId11" display="https://baike.baidu.com/item/%E6%99%8B%E7%A9%86%E5%B8%9D" xr:uid="{007ED7A9-F041-45CE-B903-D247E535C839}"/>
+    <hyperlink ref="C94" r:id="rId12" display="https://baike.baidu.com/item/%E6%B0%B8%E5%92%8C" xr:uid="{DFDEC4D7-AA39-4057-9FE4-4BD7484854A6}"/>
+    <hyperlink ref="C95" r:id="rId13" display="https://baike.baidu.com/item/%E5%8D%87%E5%B9%B3" xr:uid="{18B77761-1002-496D-BE3D-13D53E5871AA}"/>
+    <hyperlink ref="C96" r:id="rId14" display="https://baike.baidu.com/item/%E9%9A%86%E5%92%8C" xr:uid="{B0F42B78-C6AC-47B4-A126-CADCA9583C77}"/>
+    <hyperlink ref="J96" r:id="rId15" display="https://baike.baidu.com/item/%E5%B4%87%E5%92%8C" xr:uid="{DD62E43F-8745-42D8-96CC-9F32BA46796F}"/>
+    <hyperlink ref="C97" r:id="rId16" display="https://baike.baidu.com/item/%E5%85%B4%E5%AE%81" xr:uid="{0EFDD73C-DAF8-4852-86DD-D6CDF545E59F}"/>
+    <hyperlink ref="J97" r:id="rId17" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%9F%E5%B8%9D" xr:uid="{56A0115D-D09A-4B05-A826-A44EE67E40D7}"/>
+    <hyperlink ref="C98" r:id="rId18" display="https://baike.baidu.com/item/%E5%A4%AA%E5%92%8C" xr:uid="{43F455A4-B62B-42FB-97AE-BA767BA81F6B}"/>
+    <hyperlink ref="C99" r:id="rId19" display="https://baike.baidu.com/item/%E5%92%B8%E5%AE%89" xr:uid="{49D2E1E3-0822-412D-9F4D-494A0247D924}"/>
+    <hyperlink ref="J99" r:id="rId20" display="https://baike.baidu.com/item/%E6%99%8B%E5%AD%9D%E6%AD%A6%E5%B8%9D" xr:uid="{D2CBBE8E-7F47-415D-ABB1-DD98D9579A22}"/>
+    <hyperlink ref="C100" r:id="rId21" display="https://baike.baidu.com/item/%E5%AE%81%E5%BA%B7" xr:uid="{702DC475-06AF-41B0-8193-E82240415980}"/>
+    <hyperlink ref="C101" r:id="rId22" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%83" xr:uid="{2F3E2A7E-A92B-444D-9E0B-372E28B000E2}"/>
+    <hyperlink ref="J101" r:id="rId23" display="https://baike.baidu.com/item/%E6%99%8B%E5%AE%89%E5%B8%9D" xr:uid="{41878EDA-7230-4539-9749-A2C7F8AA34FB}"/>
+    <hyperlink ref="C102" r:id="rId24" display="https://baike.baidu.com/item/%E9%9A%86%E5%AE%89" xr:uid="{8BAD6162-F93B-46A1-BAFE-D6C30F3DB05A}"/>
+    <hyperlink ref="J102" r:id="rId25" display="https://baike.baidu.com/item/%E5%B4%87%E5%AE%89" xr:uid="{B5A9C611-B82C-4B6C-B331-E547E6F07D9E}"/>
+    <hyperlink ref="C103" r:id="rId26" display="https://baike.baidu.com/item/%E5%85%83%E5%85%B4" xr:uid="{EFF0D945-B9A0-48B8-BA1C-14FD903AECF9}"/>
+    <hyperlink ref="C104" r:id="rId27" display="https://baike.baidu.com/item/%E5%A4%A7%E4%BA%A8" xr:uid="{86269E2E-CFF1-4335-8057-CE06667D17E7}"/>
+    <hyperlink ref="C105" r:id="rId28" display="https://baike.baidu.com/item/%E4%B9%89%E7%86%99" xr:uid="{2A508A96-7FD1-410C-A505-C28072AAFA29}"/>
+    <hyperlink ref="C106" r:id="rId29" display="https://baike.baidu.com/item/%E5%85%83%E7%86%99" xr:uid="{105E62D6-432F-4B62-ADB8-65593F5216F5}"/>
+    <hyperlink ref="E18" r:id="rId30" xr:uid="{E20658C4-002D-4146-AB51-0A1ACD363D7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId31"/>
 </worksheet>
 </file>
--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySelf\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22DAFE-178A-4327-BCF3-B08F79189868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA08925-8B48-4192-84FB-CE1D41EC0431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="621">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +858,6 @@
     <t>灵宝派</t>
   </si>
   <si>
-    <t xml:space="preserve">葛 洪 的 父亲 葛 悌(？ ～ 295 年)， 仕 吴， 曾为 中 书 郎、 廷尉 平、 中 护 军、 五 郡 赴 警， 这些 官职 都是 一些 重要 部门 副职， 有 提拔 之意， 可见 葛 悌 深得 吴 国君 主 信任， 这 也是 受 其父 的 荫 泽。 但 吴 灭 后， 西晋 政权 初 以 故 官 任 郎中， 稍 迁至 大 中 大夫， 历 位 大 中正、 肥乡 令、 邵 陵 太守。 而这 些 官职 都是 一些 闲职 或 小官， 可见 葛 悌 后半生 并不 怎么 得意。 最后 葛 悌 死 在 邵 陵 太守 任 上， 葛 洪 时 年 13 岁， 家道 从此 中落。
-李强. 儒本道宗,学贯百家:葛洪传 (Kindle 位置 234-237). Kindle 版本. </t>
-  </si>
-  <si>
     <t>葛 悌</t>
   </si>
   <si>
@@ -1001,15 +997,6 @@
     <t>283年(西晋武帝太康四年)葛洪出生。</t>
   </si>
   <si>
-    <t>297年(元康七年)葛洪开始著述，后来也没有保存下来，一些思想可能融入他后面的著作中。此后到二十岁时，他不断审阅早期的写作，采取了严苛的批判态度。</t>
-  </si>
-  <si>
-    <t>298年(元康八年)葛洪开始系统阅读儒家经典，而且十分广泛，于诸史和百家之言都有涉猎。此后到二十岁，葛洪跟随郑隐学习，开始接受道家思想。</t>
-  </si>
-  <si>
-    <t>302年(太安元年)葛洪在马迹山受郑隐金丹之经，开始草创《抱朴子》。其师郑隐因江南战乱而东投霍山。</t>
-  </si>
-  <si>
     <t>303年(太安二年)葛洪居扬州。十一月，因石冰作乱，攻打扬州，葛洪受义军首领顾秘之邀，募集数百人，加入讨伐石冰的队伍，因功受封伏波将军。</t>
   </si>
   <si>
@@ -1017,18 +1004,6 @@
   </si>
   <si>
     <t>306年(元熙元年)嵇含被任命为广州刺史，邀葛洪担任参军。葛洪先行广州，而嵇含却未及成行就被仇敌刺杀，葛洪停留南土多年(二十四到岁三十二岁)，隐居罗浮山。</t>
-  </si>
-  <si>
-    <t>313年(建兴元年)琅琊王司马睿被任命为左丞相。葛洪因“平贼有功”被辟为掾。</t>
-  </si>
-  <si>
-    <t>314年(建兴二年)葛洪返回家乡。317年(东晋元帝建武元年)《抱朴子》成书。</t>
-  </si>
-  <si>
-    <t>318年(大兴元年)司马睿即皇帝位，葛洪因军功赐关内侯，领句容之邑两百户。</t>
-  </si>
-  <si>
-    <t>319年(大兴二年)此后，葛洪隐居，常入山选址炼丹，仍然坚持写作。</t>
   </si>
   <si>
     <t>326年(东晋成帝咸和元年)司徒王导征讨王敦，葛洪补州主簿，后转司徒掾，又迁为咨议参军。大约此年或稍后，干宝推荐葛洪作散骑常侍，领大著作，葛洪固辞不就。</t>
@@ -1744,23 +1719,6 @@
     <t>323年三月—326年正月</t>
   </si>
   <si>
-    <r>
-      <t>三年闰八月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晋成帝即位沿用</t>
-    </r>
-  </si>
-  <si>
     <t>咸和</t>
   </si>
   <si>
@@ -1779,46 +1737,12 @@
     <t>8年</t>
   </si>
   <si>
-    <r>
-      <t>八年六月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晋康帝即位沿用</t>
-    </r>
-  </si>
-  <si>
     <t>建元</t>
   </si>
   <si>
     <t>343年—344年</t>
   </si>
   <si>
-    <r>
-      <t>二年九月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晋穆帝即位沿用</t>
-    </r>
-  </si>
-  <si>
     <t>永和</t>
   </si>
   <si>
@@ -1837,70 +1761,12 @@
     <t>5年</t>
   </si>
   <si>
-    <r>
-      <t>五年五月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>晋哀帝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>即位沿用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>前凉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>沿用该年号</t>
-    </r>
-  </si>
-  <si>
     <t>隆和</t>
   </si>
   <si>
     <t>362年—363年二月</t>
   </si>
   <si>
-    <r>
-      <t>或作</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>崇和</t>
-    </r>
-  </si>
-  <si>
     <t>兴宁</t>
   </si>
   <si>
@@ -1910,23 +1776,6 @@
     <t>3年</t>
   </si>
   <si>
-    <r>
-      <t>三年二月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晋废帝即位沿用</t>
-    </r>
-  </si>
-  <si>
     <t>太和</t>
   </si>
   <si>
@@ -1942,61 +1791,12 @@
     <t>371年十一月—372年</t>
   </si>
   <si>
-    <r>
-      <t>二年七月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晋孝武帝即位沿用</t>
-    </r>
-  </si>
-  <si>
     <t>宁康</t>
   </si>
   <si>
     <t>373年—375年</t>
   </si>
   <si>
-    <r>
-      <t>《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>魏书</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>》错写作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>康宁</t>
-    </r>
-  </si>
-  <si>
     <t>太元</t>
   </si>
   <si>
@@ -2006,138 +1806,18 @@
     <t>21年</t>
   </si>
   <si>
-    <r>
-      <t>二十一年九月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晋安帝即位沿用</t>
-    </r>
-  </si>
-  <si>
     <t>隆安</t>
   </si>
   <si>
     <t>397年—401年</t>
   </si>
   <si>
-    <r>
-      <t>或作</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>崇安</t>
-    </r>
-  </si>
-  <si>
     <t>元兴</t>
   </si>
   <si>
     <t>402年—404年</t>
   </si>
   <si>
-    <r>
-      <t>胡三省</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>注《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>资治通鉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>》：元年三月，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>元显</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>败，复隆安年号。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>桓玄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>寻改曰大亨。玄篡，又改曰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF136EC2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>永始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
     <t>大亨</t>
   </si>
   <si>
@@ -2147,9 +1827,6 @@
     <t>1年</t>
   </si>
   <si>
-    <t>同上</t>
-  </si>
-  <si>
     <t>义熙</t>
   </si>
   <si>
@@ -2157,9 +1834,6 @@
   </si>
   <si>
     <t>14年</t>
-  </si>
-  <si>
-    <t>403年—404年桓玄篡位</t>
   </si>
   <si>
     <t>元熙</t>
@@ -4141,9 +3815,6 @@
     </r>
   </si>
   <si>
-    <t>以王导为大都督，总领征讨诸军。</t>
-  </si>
-  <si>
     <t>以郗鉴为卫将军，统领从驾诸军。</t>
   </si>
   <si>
@@ -4998,9 +4669,6 @@
   </si>
   <si>
     <t>王石斗富</t>
-  </si>
-  <si>
-    <t>豆粥是较难煮熟的，可石崇想让客人喝豆粥时，只要吩咐一声，须臾间就热腾腾地端来了；每到了寒冷的冬季，石家却还能吃到绿莹莹的韭菜碎末儿，这在没有暖房生产的当时可是件怪事。石家的牛从形体、力气上看，似乎不如王恺家的，可说来也怪，石崇与王恺一块出游，抢着进洛阳城，石崇的牛总是疾行若飞，超过王恺的牛车。这三件事，让王恺恨恨不已，于是他以金钱贿赂石崇的下人，问其所以。下人回答说：“豆是非常难煮的，先预备下加工成的熟豆粉末，客人一到，先煮好白粥，再将豆末投放进去就成豆粥了。韭菜是将韭菜根捣碎后掺在麦苗里。牛车总是跑得快，是因为驾牛者的技术好，对牛不加控制，让它撒开欢儿跑。”于是，王恺仿效着做，遂与石崇势均力敌。石崇后来知道了这件事，便杀了告密者。</t>
   </si>
   <si>
     <r>
@@ -6419,6 +6087,121 @@
   </si>
   <si>
     <t xml:space="preserve">咸和九年（334年）六月，陶侃在病中上表逊位，派左长史殷羡将官印节传等送还朝廷。他在离开荆州前，军资、器仗、牛马、舟船等，都有簿录统计，封存仓库，由陶侃亲自上锁。陶侃将后事托付给右司马王愆期，加职都护，命他统领文武官吏。十二日，陶侃乘车离开武昌，到渡口乘船，准备返回长沙，回头对王愆期说：“老夫现在蹒跚难行，正因你们阻拦。”次日（7月30日），陶侃于樊溪去世，享年七十六岁。根据他的遗嘱，众人把他葬在长沙南二十里的地方，他的旧部又在武昌城西为他刊石立碑、作画像。成帝下诏追赠陶侃为大司马，赐谥号“桓”，以太牢礼祭祀。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇斗富，驸马王敦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇斗富，王敦出场，主要描写当时的风气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">葛 洪 的 父亲 葛 悌(？ ～ 295 年)， 仕 吴， 曾为 中 书 郎、 廷尉 平、 中 护 军、 五 郡 赴 警， 这些 官职 都是 一些 重要 部门 副职， 有 提拔 之意， 可见 葛 悌 深得 吴 国君 主 信任， 这 也是 受 其父 的 荫 泽。 但 吴 灭 后， 西晋 政权 初 以 故 官 任 郎中， 稍 迁至 大 中 大夫， 历 位 大 中正、 肥乡 令、 邵 陵 太守。 而这 些 官职 都是 一些 闲职 或 小官， 可见 葛 悌 后半生 并不 怎么 得意。 最后 葛 悌 死 在 邵 陵 太守 任 上， 葛 洪 时 年 13 岁， 家道 从此 中落。
+李强. 儒本道宗,学贯百家:葛洪传 (Kindle 位置 234-237). Kindle 版本. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297年(元康七年)葛洪开始著述，后来也没有保存下来，一些思想可能融入他后面的著作中。此后到二十岁时，他不断审阅早期的写作，采取了严苛的批判态度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298年(元康八年)葛洪开始系统阅读儒家经典，而且十分广泛，于诸史和百家之言都有涉猎。此后到二十岁，葛洪跟随郑隐学习，开始接受道家思想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302年(太安元年)葛洪在马迹山受郑隐金丹之经，开始草创《抱朴子》。其师郑隐因江南战乱而东投霍山。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303年(太安二年)葛洪居扬州。十一月，因石冰作乱，攻打扬州，葛洪受义军首领顾秘之邀，募集数百人，加入讨伐石冰的队伍，因功受封伏波将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豆粥是较难煮熟的，可石崇想让客人喝豆粥时，只要吩咐一声，须臾间就热腾腾地端来了；每到了寒冷的冬季，石家却还能吃到绿莹莹的韭菜碎末儿，这在没有暖房生产的当时可是件怪事。石家的牛从形体、力气上看，似乎不如王恺家的，可说来也怪，石崇与王恺一块出游，抢着进洛阳城，石崇的牛总是疾行若飞，超过王恺的牛车。这三件事，让王恺恨恨不已，于是他以金钱贿赂石崇的下人，问其所以。下人回答说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豆是非常难煮的，先预备下加工成的熟豆粉末，客人一到，先煮好白粥，再将豆末投放进去就成豆粥了。韭菜是将韭菜根捣碎后掺在麦苗里。牛车总是跑得快，是因为驾牛者的技术好，对牛不加控制，让它撒开欢儿跑。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>于是，王恺仿效着做，遂与石崇势均力敌。石崇后来知道了这件事，便杀了告密者。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖逖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266年～321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字士稚，范阳郡遒县（今河北省保定市涞水县）人。东晋时期杰出的军事家、民族英雄。 [1] 
+祖逖出身于范阳祖氏，曾任司州主簿、大司马掾、骠骑祭酒、太子中舍人等职。永嘉之乱后，率领亲党避乱于江淮，担任奋威将军、豫州刺史。他在建武元年（317年）率部北伐，得到各地人民的响应。数年间，收复黄河以南大片领土，使得石勒不敢南侵，进号镇西将军。后因功勋巨大，受到东晋朝廷的忌惮。
+太兴四年（321年），朝廷命戴渊出镇合肥，以牵制祖逖的北伐。祖逖目睹朝内明争暗斗，国事日非，最终忧愤而死，朝廷追赠车骑将军，部众被弟弟祖约接掌，祖逖的北伐大业也因此而功败垂成。
+https://baike.baidu.com/item/%E7%A5%96%E9%80%96/486877?fr=aladdin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313年(建兴元年)琅琊王司马睿被任命为左丞相。葛洪因“平贼有功”被辟为掾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314年(建兴二年)葛洪返回家乡。317年(东晋元帝建武元年)《抱朴子》成书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318年(大兴元年)司马睿即皇帝位，葛洪因军功赐关内侯，领句容之邑两百户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319年(大兴二年)此后，葛洪隐居，常入山选址炼丹，仍然坚持写作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以王导为大都督，总领征讨诸军。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6673,7 +6456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6779,6 +6562,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6794,8 +6580,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7131,7 +6920,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -7151,7 +6940,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7175,7 +6964,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -7190,7 +6979,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -7208,7 +6997,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -7225,7 +7014,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -7246,7 +7035,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" t="s">
         <v>79</v>
       </c>
@@ -7267,7 +7056,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -7285,7 +7074,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -7299,7 +7088,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -7317,7 +7106,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
@@ -7329,7 +7118,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -7341,7 +7130,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -7355,7 +7144,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -7370,13 +7159,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -7528,215 +7317,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E001D033-9911-4304-9086-4A7015D03EF6}">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.75" style="44" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="65.75" style="39" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>385</v>
+      <c r="C1" s="39" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="B8" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="83.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="39" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B23" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="44" t="s">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="84" x14ac:dyDescent="0.2">
+      <c r="B26" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
-        <v>559</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+    </row>
+    <row r="27" spans="2:3" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="39" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="84" x14ac:dyDescent="0.2">
+      <c r="B29" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="83.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
-        <v>561</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+    </row>
+    <row r="30" spans="2:3" ht="55.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="39" t="s">
         <v>549</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
-        <v>562</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="44" t="s">
-        <v>563</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="44" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="44" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="44" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="B23" s="44" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="44" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="B26" s="44" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="44" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="44" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="B29" s="44" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="55.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="44" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -7981,8 +7770,8 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8159,16 +7948,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -8193,7 +7982,7 @@
         <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>207</v>
@@ -8218,13 +8007,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" t="s">
         <v>229</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -8361,13 +8150,13 @@
     </row>
     <row r="22" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -8378,10 +8167,10 @@
         <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
@@ -8395,7 +8184,7 @@
         <v>213</v>
       </c>
       <c r="F24" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>214</v>
@@ -8406,16 +8195,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="F25" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -8423,7 +8212,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -8431,7 +8220,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -8439,18 +8228,27 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="171" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F29" t="s">
+        <v>614</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -8883,7 +8681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D274ED-35F8-47C9-953B-FD8E30408D2D}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -9271,37 +9069,37 @@
     </row>
     <row r="37" spans="2:2" ht="384.75" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -9316,11 +9114,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9332,13 +9130,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -9346,538 +9144,546 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>462</v>
+        <v>346</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>351</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>466</v>
+        <v>361</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>467</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>90</v>
       </c>
     </row>
@@ -9892,13 +9698,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C8A5D9-1696-47E5-94E3-00A89F0F208E}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="4" max="4" width="46.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" style="1" customWidth="1"/>
@@ -9915,177 +9722,177 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
       <c r="H7" s="1" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
       <c r="H8" s="1" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="370.5" x14ac:dyDescent="0.2">
@@ -10093,16 +9900,16 @@
         <v>280</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.2">
@@ -10110,10 +9917,10 @@
         <v>283</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
@@ -10121,10 +9928,10 @@
         <v>286</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="171" x14ac:dyDescent="0.2">
@@ -10132,7 +9939,7 @@
         <v>287</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
@@ -10140,10 +9947,10 @@
         <v>290</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>291</v>
       </c>
@@ -10151,10 +9958,10 @@
         <v>306</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
@@ -10162,7 +9969,7 @@
         <v>292</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="342" x14ac:dyDescent="0.2">
@@ -10170,13 +9977,13 @@
         <v>295</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -10184,7 +9991,7 @@
         <v>297</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>239</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -10192,7 +9999,7 @@
         <v>298</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>240</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
@@ -10200,13 +10007,13 @@
         <v>299</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
@@ -10214,10 +10021,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="327.75" x14ac:dyDescent="0.2">
@@ -10225,15 +10032,15 @@
         <v>301</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="270.75" x14ac:dyDescent="0.2">
@@ -10241,23 +10048,23 @@
         <v>303</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="114" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
-        <v>242</v>
+        <v>611</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="370.5" x14ac:dyDescent="0.2">
@@ -10265,18 +10072,18 @@
         <v>305</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="228" x14ac:dyDescent="0.2">
@@ -10284,10 +10091,10 @@
         <v>306</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="256.5" x14ac:dyDescent="0.2">
@@ -10295,16 +10102,16 @@
         <v>307</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -10317,13 +10124,13 @@
         <v>309</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10331,13 +10138,13 @@
         <v>310</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="L34" s="12"/>
     </row>
@@ -10346,30 +10153,30 @@
         <v>311</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="384.75" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="366" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>312</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>488</v>
+        <v>410</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
@@ -10377,35 +10184,35 @@
         <v>313</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="270.75" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>245</v>
+        <v>616</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="313.5" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>246</v>
+        <v>617</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
@@ -10413,13 +10220,13 @@
         <v>315</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="370.5" x14ac:dyDescent="0.2">
@@ -10430,10 +10237,10 @@
         <v>317</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="171" x14ac:dyDescent="0.2">
@@ -10441,13 +10248,13 @@
         <v>317</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="171" x14ac:dyDescent="0.2">
@@ -10455,16 +10262,16 @@
         <v>318</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>247</v>
+        <v>618</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="384.75" x14ac:dyDescent="0.2">
@@ -10472,13 +10279,13 @@
         <v>319</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>248</v>
+        <v>619</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="171" x14ac:dyDescent="0.2">
@@ -10486,10 +10293,10 @@
         <v>320</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="171" x14ac:dyDescent="0.2">
@@ -10497,7 +10304,7 @@
         <v>321</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="299.25" x14ac:dyDescent="0.2">
@@ -10508,16 +10315,16 @@
         <v>324</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="185.25" x14ac:dyDescent="0.2">
@@ -10525,7 +10332,7 @@
         <v>323</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="256.5" x14ac:dyDescent="0.2">
@@ -10533,16 +10340,16 @@
         <v>324</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="228" x14ac:dyDescent="0.2">
@@ -10550,33 +10357,33 @@
         <v>325</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="213.75" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="228" x14ac:dyDescent="0.2">
@@ -10584,10 +10391,10 @@
         <v>326</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="409.5" x14ac:dyDescent="0.2">
@@ -10595,16 +10402,16 @@
         <v>327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="185.25" x14ac:dyDescent="0.2">
@@ -10612,16 +10419,16 @@
         <v>328</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="270.75" x14ac:dyDescent="0.2">
@@ -10629,16 +10436,16 @@
         <v>329</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="285" x14ac:dyDescent="0.2">
@@ -10646,33 +10453,33 @@
         <v>330</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="409.5" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="256.5" x14ac:dyDescent="0.2">
@@ -10680,7 +10487,7 @@
         <v>331</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="J58" s="9"/>
     </row>
@@ -10689,7 +10496,7 @@
         <v>332</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="J59" s="9"/>
     </row>
@@ -10704,16 +10511,16 @@
         <v>334</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="57" x14ac:dyDescent="0.2">
@@ -10721,7 +10528,7 @@
         <v>337</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="J62" s="35"/>
     </row>
@@ -10730,19 +10537,19 @@
         <v>339</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="185.25" x14ac:dyDescent="0.2">
@@ -10750,10 +10557,10 @@
         <v>345</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="2:12" ht="185.25" x14ac:dyDescent="0.2">
@@ -10764,10 +10571,10 @@
         <v>347</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="171" x14ac:dyDescent="0.2">
@@ -10775,10 +10582,10 @@
         <v>373</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -10786,59 +10593,59 @@
         <v>383</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="228" x14ac:dyDescent="0.2">
       <c r="D69" s="9" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>454</v>
+        <v>272</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J70" s="37" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="J71" s="22" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="J72" s="22" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="J73" s="37" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J75" s="38" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10851,52 +10658,52 @@
     </row>
     <row r="77" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="17" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L77" s="29"/>
     </row>
     <row r="78" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="41" t="s">
-        <v>405</v>
+      <c r="B78" s="42" t="s">
+        <v>384</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E78" s="27"/>
       <c r="J78" s="27"/>
       <c r="L78" s="30"/>
     </row>
     <row r="79" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="25" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="E79" s="27"/>
       <c r="J79" s="27"/>
       <c r="L79" s="30"/>
     </row>
     <row r="80" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="42"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="25" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D80" s="27">
         <v>290</v>
@@ -10907,11 +10714,11 @@
     </row>
     <row r="81" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="28" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="27" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E81" s="27"/>
       <c r="J81" s="27"/>
@@ -10919,11 +10726,11 @@
     </row>
     <row r="82" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="28" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="27" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E82" s="27"/>
       <c r="J82" s="27"/>
@@ -10931,11 +10738,11 @@
     </row>
     <row r="83" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="27" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="E83" s="27"/>
       <c r="J83" s="27"/>
@@ -10966,333 +10773,307 @@
       <c r="L86" s="30"/>
     </row>
     <row r="87" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="43" t="s">
-        <v>412</v>
+      <c r="B87" s="44" t="s">
+        <v>391</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J87" s="16"/>
       <c r="L87" s="31"/>
     </row>
     <row r="88" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="43"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="20" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="43"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="20" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E90" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="J90" s="20"/>
+      <c r="L90" s="32"/>
+    </row>
+    <row r="91" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="J90" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="L90" s="32"/>
-    </row>
-    <row r="91" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>300</v>
       </c>
       <c r="J91" s="16"/>
       <c r="L91" s="31"/>
     </row>
     <row r="92" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="43"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="J92" s="20" t="s">
-        <v>304</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J92" s="20"/>
       <c r="L92" s="32"/>
     </row>
     <row r="93" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J93" s="20" t="s">
-        <v>307</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J93" s="20"/>
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="43" t="s">
-        <v>355</v>
+      <c r="B94" s="44" t="s">
+        <v>334</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J94" s="16"/>
       <c r="L94" s="31"/>
     </row>
     <row r="95" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="43"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="20" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>314</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="J95" s="16"/>
       <c r="L95" s="31"/>
     </row>
     <row r="96" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="43" t="s">
-        <v>356</v>
+      <c r="B96" s="44" t="s">
+        <v>335</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J96" s="20" t="s">
-        <v>317</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J96" s="20"/>
       <c r="L96" s="32"/>
     </row>
     <row r="97" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="43"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="20" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="J97" s="20" t="s">
-        <v>321</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="J97" s="20"/>
       <c r="L97" s="32"/>
     </row>
     <row r="98" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J98" s="16"/>
       <c r="L98" s="31"/>
     </row>
     <row r="99" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C99" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="J99" s="20"/>
+      <c r="L99" s="32"/>
+    </row>
+    <row r="100" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J100" s="16"/>
+      <c r="L100" s="31"/>
+    </row>
+    <row r="101" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="44"/>
+      <c r="C101" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="J101" s="20"/>
+      <c r="L101" s="32"/>
+    </row>
+    <row r="102" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J102" s="20"/>
+      <c r="L102" s="32"/>
+    </row>
+    <row r="103" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J103" s="19"/>
+      <c r="L103" s="33"/>
+    </row>
+    <row r="104" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="44"/>
+      <c r="C104" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="J104" s="16"/>
+      <c r="L104" s="31"/>
+    </row>
+    <row r="105" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="44"/>
+      <c r="C105" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D105" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J99" s="20" t="s">
+      <c r="E105" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="L99" s="32"/>
-    </row>
-    <row r="100" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="L100" s="31"/>
-    </row>
-    <row r="101" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="43"/>
-      <c r="C101" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="J101" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="L101" s="32"/>
-    </row>
-    <row r="102" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="J102" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="L102" s="32"/>
-    </row>
-    <row r="103" spans="2:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="43"/>
-      <c r="C103" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="J103" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="L103" s="33"/>
-    </row>
-    <row r="104" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="43"/>
-      <c r="C104" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="L104" s="31"/>
-    </row>
-    <row r="105" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="43"/>
-      <c r="C105" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>348</v>
-      </c>
+      <c r="J105" s="16"/>
       <c r="L105" s="31"/>
     </row>
     <row r="106" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J106" s="16"/>
       <c r="L106" s="31"/>
@@ -11315,32 +11096,24 @@
     <hyperlink ref="C89" r:id="rId4" display="https://baike.baidu.com/item/%E6%B0%B8%E6%98%8C" xr:uid="{54666548-873B-43E2-9DE4-3DACF4C75F01}"/>
     <hyperlink ref="J89" r:id="rId5" display="https://baike.baidu.com/item/%E6%99%8B%E6%98%8E%E5%B8%9D" xr:uid="{02B02092-6F16-4EC2-9975-1738F5AEDFA1}"/>
     <hyperlink ref="C90" r:id="rId6" display="https://baike.baidu.com/item/%E5%A4%AA%E5%AE%81" xr:uid="{FBD6D5AD-8809-459A-A279-2A97A535104C}"/>
-    <hyperlink ref="J90" r:id="rId7" display="https://baike.baidu.com/item/%E6%99%8B%E6%88%90%E5%B8%9D" xr:uid="{884F8276-0631-47D9-9C66-5B34C1714CD3}"/>
-    <hyperlink ref="C91" r:id="rId8" display="https://baike.baidu.com/item/%E5%92%B8%E5%92%8C" xr:uid="{C6A1FCA0-D8FE-43DC-9219-4BB1E3F2FBC9}"/>
-    <hyperlink ref="C92" r:id="rId9" display="https://baike.baidu.com/item/%E5%92%B8%E5%BA%B7" xr:uid="{C444389B-D644-4BE7-BA3C-C726B1655482}"/>
-    <hyperlink ref="J92" r:id="rId10" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%B7%E5%B8%9D" xr:uid="{63912AC7-4B9F-4170-B416-C0012B6C3A7D}"/>
-    <hyperlink ref="J93" r:id="rId11" display="https://baike.baidu.com/item/%E6%99%8B%E7%A9%86%E5%B8%9D" xr:uid="{007ED7A9-F041-45CE-B903-D247E535C839}"/>
-    <hyperlink ref="C94" r:id="rId12" display="https://baike.baidu.com/item/%E6%B0%B8%E5%92%8C" xr:uid="{DFDEC4D7-AA39-4057-9FE4-4BD7484854A6}"/>
-    <hyperlink ref="C95" r:id="rId13" display="https://baike.baidu.com/item/%E5%8D%87%E5%B9%B3" xr:uid="{18B77761-1002-496D-BE3D-13D53E5871AA}"/>
-    <hyperlink ref="C96" r:id="rId14" display="https://baike.baidu.com/item/%E9%9A%86%E5%92%8C" xr:uid="{B0F42B78-C6AC-47B4-A126-CADCA9583C77}"/>
-    <hyperlink ref="J96" r:id="rId15" display="https://baike.baidu.com/item/%E5%B4%87%E5%92%8C" xr:uid="{DD62E43F-8745-42D8-96CC-9F32BA46796F}"/>
-    <hyperlink ref="C97" r:id="rId16" display="https://baike.baidu.com/item/%E5%85%B4%E5%AE%81" xr:uid="{0EFDD73C-DAF8-4852-86DD-D6CDF545E59F}"/>
-    <hyperlink ref="J97" r:id="rId17" display="https://baike.baidu.com/item/%E6%99%8B%E5%BA%9F%E5%B8%9D" xr:uid="{56A0115D-D09A-4B05-A826-A44EE67E40D7}"/>
-    <hyperlink ref="C98" r:id="rId18" display="https://baike.baidu.com/item/%E5%A4%AA%E5%92%8C" xr:uid="{43F455A4-B62B-42FB-97AE-BA767BA81F6B}"/>
-    <hyperlink ref="C99" r:id="rId19" display="https://baike.baidu.com/item/%E5%92%B8%E5%AE%89" xr:uid="{49D2E1E3-0822-412D-9F4D-494A0247D924}"/>
-    <hyperlink ref="J99" r:id="rId20" display="https://baike.baidu.com/item/%E6%99%8B%E5%AD%9D%E6%AD%A6%E5%B8%9D" xr:uid="{D2CBBE8E-7F47-415D-ABB1-DD98D9579A22}"/>
-    <hyperlink ref="C100" r:id="rId21" display="https://baike.baidu.com/item/%E5%AE%81%E5%BA%B7" xr:uid="{702DC475-06AF-41B0-8193-E82240415980}"/>
-    <hyperlink ref="C101" r:id="rId22" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%83" xr:uid="{2F3E2A7E-A92B-444D-9E0B-372E28B000E2}"/>
-    <hyperlink ref="J101" r:id="rId23" display="https://baike.baidu.com/item/%E6%99%8B%E5%AE%89%E5%B8%9D" xr:uid="{41878EDA-7230-4539-9749-A2C7F8AA34FB}"/>
-    <hyperlink ref="C102" r:id="rId24" display="https://baike.baidu.com/item/%E9%9A%86%E5%AE%89" xr:uid="{8BAD6162-F93B-46A1-BAFE-D6C30F3DB05A}"/>
-    <hyperlink ref="J102" r:id="rId25" display="https://baike.baidu.com/item/%E5%B4%87%E5%AE%89" xr:uid="{B5A9C611-B82C-4B6C-B331-E547E6F07D9E}"/>
-    <hyperlink ref="C103" r:id="rId26" display="https://baike.baidu.com/item/%E5%85%83%E5%85%B4" xr:uid="{EFF0D945-B9A0-48B8-BA1C-14FD903AECF9}"/>
-    <hyperlink ref="C104" r:id="rId27" display="https://baike.baidu.com/item/%E5%A4%A7%E4%BA%A8" xr:uid="{86269E2E-CFF1-4335-8057-CE06667D17E7}"/>
-    <hyperlink ref="C105" r:id="rId28" display="https://baike.baidu.com/item/%E4%B9%89%E7%86%99" xr:uid="{2A508A96-7FD1-410C-A505-C28072AAFA29}"/>
-    <hyperlink ref="C106" r:id="rId29" display="https://baike.baidu.com/item/%E5%85%83%E7%86%99" xr:uid="{105E62D6-432F-4B62-ADB8-65593F5216F5}"/>
-    <hyperlink ref="E18" r:id="rId30" xr:uid="{E20658C4-002D-4146-AB51-0A1ACD363D7A}"/>
+    <hyperlink ref="C91" r:id="rId7" display="https://baike.baidu.com/item/%E5%92%B8%E5%92%8C" xr:uid="{C6A1FCA0-D8FE-43DC-9219-4BB1E3F2FBC9}"/>
+    <hyperlink ref="C92" r:id="rId8" display="https://baike.baidu.com/item/%E5%92%B8%E5%BA%B7" xr:uid="{C444389B-D644-4BE7-BA3C-C726B1655482}"/>
+    <hyperlink ref="C94" r:id="rId9" display="https://baike.baidu.com/item/%E6%B0%B8%E5%92%8C" xr:uid="{DFDEC4D7-AA39-4057-9FE4-4BD7484854A6}"/>
+    <hyperlink ref="C95" r:id="rId10" display="https://baike.baidu.com/item/%E5%8D%87%E5%B9%B3" xr:uid="{18B77761-1002-496D-BE3D-13D53E5871AA}"/>
+    <hyperlink ref="C96" r:id="rId11" display="https://baike.baidu.com/item/%E9%9A%86%E5%92%8C" xr:uid="{B0F42B78-C6AC-47B4-A126-CADCA9583C77}"/>
+    <hyperlink ref="C97" r:id="rId12" display="https://baike.baidu.com/item/%E5%85%B4%E5%AE%81" xr:uid="{0EFDD73C-DAF8-4852-86DD-D6CDF545E59F}"/>
+    <hyperlink ref="C98" r:id="rId13" display="https://baike.baidu.com/item/%E5%A4%AA%E5%92%8C" xr:uid="{43F455A4-B62B-42FB-97AE-BA767BA81F6B}"/>
+    <hyperlink ref="C99" r:id="rId14" display="https://baike.baidu.com/item/%E5%92%B8%E5%AE%89" xr:uid="{49D2E1E3-0822-412D-9F4D-494A0247D924}"/>
+    <hyperlink ref="C100" r:id="rId15" display="https://baike.baidu.com/item/%E5%AE%81%E5%BA%B7" xr:uid="{702DC475-06AF-41B0-8193-E82240415980}"/>
+    <hyperlink ref="C101" r:id="rId16" display="https://baike.baidu.com/item/%E5%A4%AA%E5%85%83" xr:uid="{2F3E2A7E-A92B-444D-9E0B-372E28B000E2}"/>
+    <hyperlink ref="C102" r:id="rId17" display="https://baike.baidu.com/item/%E9%9A%86%E5%AE%89" xr:uid="{8BAD6162-F93B-46A1-BAFE-D6C30F3DB05A}"/>
+    <hyperlink ref="C103" r:id="rId18" display="https://baike.baidu.com/item/%E5%85%83%E5%85%B4" xr:uid="{EFF0D945-B9A0-48B8-BA1C-14FD903AECF9}"/>
+    <hyperlink ref="C104" r:id="rId19" display="https://baike.baidu.com/item/%E5%A4%A7%E4%BA%A8" xr:uid="{86269E2E-CFF1-4335-8057-CE06667D17E7}"/>
+    <hyperlink ref="C105" r:id="rId20" display="https://baike.baidu.com/item/%E4%B9%89%E7%86%99" xr:uid="{2A508A96-7FD1-410C-A505-C28072AAFA29}"/>
+    <hyperlink ref="C106" r:id="rId21" display="https://baike.baidu.com/item/%E5%85%83%E7%86%99" xr:uid="{105E62D6-432F-4B62-ADB8-65593F5216F5}"/>
+    <hyperlink ref="E18" r:id="rId22" xr:uid="{E20658C4-002D-4146-AB51-0A1ACD363D7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId23"/>
 </worksheet>
 </file>
--- a/写作/系统设定.xlsx
+++ b/写作/系统设定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySelf\xmind\写作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA08925-8B48-4192-84FB-CE1D41EC0431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B40BE-6D9D-4925-9091-A509E27CC0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级系统" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="797">
   <si>
     <t>Line No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,14 +877,6 @@
 </t>
   </si>
   <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>东晋（317年～420年），是由</t>
     </r>
@@ -1684,7 +1676,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1704,7 +1696,7 @@
         <u/>
         <sz val="11"/>
         <color theme="10"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1884,7 +1876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1900,7 +1892,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1916,7 +1908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1932,7 +1924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1948,7 +1940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1964,7 +1956,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1980,7 +1972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1996,7 +1988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2012,7 +2004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2028,7 +2020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2198,22 +2190,10 @@
     <t>拜师郑隐，修习道术</t>
   </si>
   <si>
-    <t>298年</t>
-  </si>
-  <si>
     <t>道术初成，郑隐隐遁</t>
   </si>
   <si>
-    <t>302年</t>
-  </si>
-  <si>
     <t>著《抱朴子》</t>
-  </si>
-  <si>
-    <t>江南石冰作乱</t>
-  </si>
-  <si>
-    <t>303年</t>
   </si>
   <si>
     <t>讨伐石冰</t>
@@ -2356,7 +2336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2480,7 +2460,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2491,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3771,7 +3751,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4051,7 +4031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4067,7 +4047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4570,9 +4550,6 @@
   </si>
   <si>
     <t>Boss隐现-王敦，苏峻也是王敦余党</t>
-  </si>
-  <si>
-    <t>父亲被杀之后刻苦攻读，隐姓埋名</t>
   </si>
   <si>
     <t>石冰也是受王敦指使</t>
@@ -6090,14 +6067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石崇斗富，驸马王敦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石崇斗富，王敦出场，主要描写当时的风气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">葛 洪 的 父亲 葛 悌(？ ～ 295 年)， 仕 吴， 曾为 中 书 郎、 廷尉 平、 中 护 军、 五 郡 赴 警， 这些 官职 都是 一些 重要 部门 副职， 有 提拔 之意， 可见 葛 悌 深得 吴 国君 主 信任， 这 也是 受 其父 的 荫 泽。 但 吴 灭 后， 西晋 政权 初 以 故 官 任 郎中， 稍 迁至 大 中 大夫， 历 位 大 中正、 肥乡 令、 邵 陵 太守。 而这 些 官职 都是 一些 闲职 或 小官， 可见 葛 悌 后半生 并不 怎么 得意。 最后 葛 悌 死 在 邵 陵 太守 任 上， 葛 洪 时 年 13 岁， 家道 从此 中落。
 李强. 儒本道宗,学贯百家:葛洪传 (Kindle 位置 234-237). Kindle 版本. </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6203,23 +6172,1055 @@
   <si>
     <t>以王导为大都督，总领征讨诸军。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东吴灭亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太康元年（280年），晋十万大军直逼建业，东吴末帝孙皓自知大势已去，便在石头城上宣布投降，孙皓一家被送往晋都洛阳。至此，东吴灭亡，三国归西晋。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>283年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇斗富，驸马王敦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇斗富，王敦出场，主要描写当时的风气。石崇的金谷园。各种事件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童年趣事。结交干宝，志同道合。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王之乱引起江南动荡不安的局势，为陶侃施展才干提供了机遇。西晋末年，秦、雍一带的人民因天灾和战乱，大量流徙到梁、益地区就食。
+王敦、王导密谋去江南发展，结交司马睿。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲死之后刻苦攻读。稽含、陶侃照顾。295年(西晋惠帝元康五年)葛洪13岁，其父亲葛悌于邵陵太守任上去世。其父去世后，葛洪一家生活困难，不得已回到故乡，从前深受父母宠爱的葛洪不得不参加农业生产。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>297年(元康七年)葛洪开始著述，后来也没有保存下来，一些思想可能融入他后面的著作中。此后到二十岁时，他不断审阅早期的写作，采取了严苛的批判态度。298年(元康八年)葛洪开始系统阅读儒家经典，而且十分广泛，于诸史和百家之言都有涉猎。此后到二十岁，葛洪跟随郑隐学习，开始接受道家思想。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>298年郑隐找到葛洪，引导葛洪修炼。干宝从小勤奋好学，博览群书。 [3] 
+西晋元康末年至泰安间（299年-303年），干宝在江淮，时已成年。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦违令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元康九年（299年），皇后贾南风废黜太子司马遹，将其送往许昌幽禁，并严禁东宫官属送行。王敦却违反禁令，与同僚江统、潘滔、杜蕤、鲁瑶等人在路侧送行，望着司马遹痛哭拜送，受到时论的称赞。 [4]  他们因此被司隶校尉满奋收捕入狱，但在河南尹乐广、都官从事孙琰的营救下，最终都得以释放。 [5]  后来，王敦又改任给事黄门侍郎。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导襄助琅玡，司马睿下江南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300年，琅玡王司马睿（即后来的晋元帝）与王导素来友善。王导知道天下已经开始动乱，于是全心全意辅佐司马睿，暗中立下了兴复朝纲的意愿。司马睿也非常信任器重他，两人情同挚友。司马睿还在洛阳时，王导总是劝说他要尽快回到藩国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石崇被杀，王敦劝兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永宁元年（301年），赵王司马伦篡位称帝。当时，王敦的叔父王彦正任兖州刺史。司马伦遂命王敦到兖州慰劳王彦，加以笼络。不久，齐王司马冏传檄天下，起兵讨伐司马伦。王彦虽收到檄命，但因畏惧司马伦兵力强盛，不敢应命，后因王敦力劝方才举兵。是年四月，司马伦兵败被杀，晋惠帝复位。王敦因功升任散骑常侍、左卫将军、大鸿胪、侍中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>302年302年(太安元年)葛洪在马迹山受郑隐金丹之经，开始草创《抱朴子》。其师郑隐因江南战乱而东投霍山。预言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南石冰作乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>303年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三定江南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太安二年（303年）、永兴二年（305年）及永嘉四年（310年）间江南发生三次叛乱，皆由义兴周氏的周玘所平定，使江南得以稳定，史称三定江南。</t>
+  </si>
+  <si>
+    <t>陶侃大败张昌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">太安二年（303年），义阳蛮张昌聚众在江夏起义，不愿远征的丁壮及江夏一带流民纷纷投奔张昌。张昌攻下江夏郡，旬月之间，众至三万。张昌势力的发展，引起朝廷的不安。朝廷即任命刘弘为南蛮校尉、荆州刺史率军前去镇压。刘弘上任，即辟陶侃为南蛮校尉长史，领大都护，命他为先锋开赴襄阳，讨伐张昌。此时，张昌用全部兵力包围宛城，打败前将军赵骧的军队，杀死羊伊，刘弘只好撤退至梁县。张昌围攻襄阳，但失败。张昌转攻襄阳不下，即沿汉水进入长江。一时间，荆、江、扬等州大部分地区为张昌所控制。刘弘派陶侃等人在竟陵进攻张昌。陶侃等人屡次与张昌交战，大败张昌，前后斩杀数万人，张昌逃窜到下山，他的部众全部投降，荆州平定。 [4-5] 
+事后，刘弘感叹的对陶侃说：“我过去担任羊公（羊祜）的参军，羊公说我日后一定能到他的地位，今天看到你，一定能够继承老夫我。” [6]  后因军功被封为东乡侯，食邑一千户。 [7] 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈敏割据，随陶侃破之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永兴二年（305年），扬州刺史陈敏见北方大乱，朝廷无力控制江东，于是起兵占据扬州，又遣其弟陈恢沿江西上进攻武昌，意图割据江南。 刘弘命陶侃为江夏太守、鹰扬将军，率军抵御陈恢。陶侃齐备仪仗，将母亲接到官舍，乡里都大觉荣耀。随郡内史扈怀在刘弘面前挑拨说：“陶侃与陈敏有同乡之谊，他如今在大郡任太守，统领强兵，倘若有异心，荆州就失去东大门了。”刘弘回答说：“陶侃忠直能干，我了解他很久了，他一定不会这样的。”陶侃听说后，派儿子陶洪和侄子陶臻到刘弘那里为质，来加强刘弘对他的信任，刘弘任他们为参军，给予赏赐，将他们送回江夏。说：“贤叔要征战出行，而祖母年事已高，你们应该回去。村野匹夫互相交往，尚且不负心，何况大丈夫呢！”再加陶侃为督护，让他和诸军并力抗击陈恢。陶侃以运输船作战舰使用，有人说不能这样作，陶侃说：“用官船来打官贼，有什么不行的？”陶侃与陈恢交战，多次击败陈恢。又和皮初、张光、苗光在长岐共同击败陈敏的部将钱端。陶侃治军严肃整齐，凡有缴获，全部分赏士卒，自己身无私财。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿经营江南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永兴二年（305年），司马睿出镇下邳，不久迁安东将军，请王导担任安东将军司马，军事谋划，都听从其安排。陈敏败后，权力真空。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王之乱结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光熙元年（306年），陶侃的伯乐刘弘病故。不久，陶侃因母亲湛氏病故而离职服丧 [10]  。服丧期满后，陶侃担任任东海王司马越的参军。江州刺史华轶上表推荐陶侃任扬武将军，驻军夏口，又任命其侄陶臻为江州参军。华轶与琅邪王司马睿素来不和，陶臻担心将来有灾难，借口有病回到陶侃身边，告诉陶侃说：“华彦夏（华轶）有忧天下之大志，但没有多大才能，并且和琅邪王有矛盾，灾祸就快来临了。”陶侃大怒，把陶臻送归华轶处，陶臻则趁机东投司马睿，司马睿见到陶臻很高兴，任命他为参军，并加陶侃为奋威将军，赐赤幢曲盖轺车及鼓吹，陶侃于是和华轶断绝了来往。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣冠南渡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉元年（307年）八王之乱后，司马睿听从王导建议迁镇到建康。南迁后王导以“镇之以静，群情自安” [3]  政策稳定政权，他藉由当地名士顾荣、贺偱为引，进而获得吴姓世族的拥护。而后大量北方世族及皇族衣冠南渡，在王导号召下共同支持司马睿，使得江南诸州次第归附，东晋得以偏安。王导就劝说司马睿道：“顾荣、贺循，都是此地最具名望的人，应当结交他们来收服人心，他们两人来了，就没有不来的人。”司马睿就派王导亲自去造访贺循、顾荣，二人都应召而至。由此吴地之人望风顺附，百姓归心。从此之后，他们相互依靠，君臣的名分就确立了下来 。
+永嘉元年（307年），王敦在族兄王衍的安排下 [7]  ，外任广武将军、青州刺史，后又被征拜为中书监。当时天下大乱，王敦将襄城公主的陪嫁侍婢百余人全部许配给军中将士，散尽府中库财，独自返回洛阳。
+王敦曾沉迷于女色，家中养有婢妾数十人，有人为此规劝。王敦便打开后门，将家中婢妾全部放出，任凭她们离去。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝辞别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉元年（307年），干宝任盐官州（今浙江省海宁市盐官村）别驾（刺史的从吏官）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王与马，共天下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉三年（309年），东海王司马越自荥阳入朝，不顾幕僚潘滔的反对，任命王敦为扬州刺史。 [9]  当时，琅琊王司马睿正以安东将军之职镇守建业（扬州州治，今江苏省南京市）。而王敦的从弟王导则在司马睿幕府担任安东司马，深受司马睿信任。王敦遂与王导一同帮助司马睿在江东树立威望，使得司马睿逐渐获取江东士族的拥戴。
+永嘉（307年－313年）末年，王导迁任丹阳太守，加辅国将军。王导上奏劝谏司马睿不要轻易赐予臣下鼓盖等礼崇之物，让尊卑雅俗有所区别。司马睿下令嘉奖王导，拜他为宁远将军，不久又加振威将军。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝父亲死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉四年（310年），干宝父亲去世，葬于澉浦青山之阳。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦留扬州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉四年（310年），王敦被征拜为尚书，与建武将军钱璯一同北返洛阳。但钱璯行至广陵（治今江苏省扬州市），却举兵叛乱，转而攻打王敦。王敦逃回建业，向司马睿告变。 [11]  司马睿授王敦为安东军谘祭酒。王敦遂留在扬州，未再回朝。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难，江左管仲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年），汉国大将刘曜、王弥攻破洛阳，俘晋怀帝，杀王公以下士民三万余人，北方陷入空前的战乱中。中原人士到江南避难的有十分之六、七，王导劝司马睿乘机收揽贤人君子，扩大力量以图大事。
+当时荆、扬二州比较安定，人口众多，物产丰饶，王导的治理方针讲求清静，常劝司马睿克己垂范励精图治，辅佐君主安宁邦国。于是越发受司马睿的器重，两人之间的感情日益深厚，朝野之中都为之倾心，称王导为“仲父”。司马睿曾对王导说：“你就是我的萧何呀！”王导回答说：“过去秦朝无道，天下百姓厌弃乱世，而极为狡黠的人又欺凌践踏人民，人们感怀汉王刘邦的恩德，群起响应反秦，所以大功容易告成。自从曹魏立朝以来，直到晋太康时期，公卿士大夫及门阀世族，奢侈挥霍相互攀比，先贤政教逐步衰退，先朝治世法度，无人遵循，大小官吏，沉溺于享乐之中，才使得奸佞之人有机可乘，导致朝政大道亏伤。然而混乱后将会出现安定，这是天地间的规律。大王将要建立盖世之功勋，重新一统山河，管仲、乐毅这样的人才，这时就会出现，不是我们这样普普通通的臣子所能比拟的。希望大王能深谋远虑，广择贤能。顾荣、贺循、纪瞻、周玘，都是南方的名士，希望大王能对他们礼敬优待，则天下可安。”司马睿采纳了王导的建议，从而逐渐赢得了南北士族的共同拥戴。 [11]  南渡士人桓彝在初到江东时，看到司马睿势力单薄，很为担心，对名士周顗说：“我因为中原多故，想到江南寻个安身立命之地，不料朝廷如此微弱，怎么办才好呢？”当王导和他纵谈形势以后，他的态度有了变化：“我见到了江左‘管仲’，不再忧虑了。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华轶兵乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年），司马睿命王敦统领甘卓、周访等沿江击败华轶。华轶兵败被杀后，陶侃升任龙骧将军、武昌太守。当时天下饥荒，山中蛮贼常拦截长江上船只抢劫。陶侃令部下诸将假扮商船引诱山贼，山贼果然前来，活捉了数人，结果审问，得知他们原来他们是西阳王司马羕的部下。陶侃派兵逼司马羕交出盗贼，自己带兵在钓台列阵以为后继。司马羕只好把帐下二十人绑送出来，陶侃将他们斩杀，从此水陆交通安全畅通。返家的逃亡者络绎不绝，陶侃竭尽财力资助他们安家定居，又在郡东设立与夷人交易的市场，大收其利。
+司马睿虽占据江州，但上游荆、湘两州的大部分地区为杜弢率领的流民起义军所占据。司马睿派陶侃击杜弢，命振威将军周访、广武将军赵诱受陶侃指挥。陶侃令二将为前锋，侄儿陶舆为左翼，向杜弢发起进攻并将其击败。
+永嘉五年（311年），扬州刺史刘陶病逝。王敦被再次任命为扬州刺史，并加广武将军，不久又进拜左将军、假节、都督征讨诸军事。 [13]  同年，匈奴汉国攻破洛阳，俘获晋怀帝，史称永嘉之乱。皇室、士族纷纷南下江东。当时，司马睿被推为盟主，承制任命官吏。江州刺史华轶却不肯从命。司马睿遂命王敦与历阳内史甘卓、扬烈将军周访共讨华轶。华轶兵败被杀。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝搬迁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉五年（311年）正月，杜弢据长沙造反； [4]  同年，干宝举家迁至海宁盐官灵泉乡（今浙江海宁黄湾五丰村与海盐澉浦六忠村的交界处），并开始为父守孝。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜弢作乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉六年（312年），巴蜀流民在湘州（治今湖南省长沙市）作乱，推杜弢为首领。乱军北上席卷荆州、江州，甚至威胁到扬州的安全。 [15]  王敦进屯豫章（治今江西省南昌市），命武昌太守陶侃、豫章太守周访共讨杜弢。 [16]  当时，荆州刺史王澄因平乱失利而遭免职，调赴建康（即建业）。他途经豫章，前去拜访王敦。王敦与王澄不睦，竟以勾结杜弢为罪名，将王澄杀死。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖逖南下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">元帝只想做个偏安的皇帝，王导也只想建立一个王氏当权的小朝廷，他们的目光专注在江东内部的权利分配上，从来不作北伐的准备，而且还反对有人主张北伐。晋元帝将要称帝，周嵩上书劝他整军讲武，收复失地，那时候称皇帝不算迟。周嵩说忠直话，几乎被杀死。熊远要求朝廷改正过失，说不能遣军北伐是一失，朝官们忘记国耻，以游戏酒食为正务是二失。熊远说忠直话，掉了京官出去做地方官。谁主张北伐，谁就被排斥，至于实行北伐的祖逖，当然要遭到冷酷的对待。祖逖是当时最识大体最有才能的杰出人物。中原大乱，祖逖率亲友数百家来投晋元帝，要求率兵北伐。 [9-10] 
+永嘉五年（311年），洛阳陷落，祖逖率亲族乡党数百家南下，避乱于淮泗。他躬自步行，把车马让给老弱病人，又把粮食、衣物和药品分给别人。逃亡途中多遇盗贼险阻，祖逖应付自如，被同行诸人推为“行主”。到达泗口（治今江苏徐州）后，祖逖被琅琊王司马睿任命为徐州刺史，不久又被征为军谘祭酒，率部屯驻京口（治今江苏镇江）。
+建兴元年（313年），晋愍帝即位，以司马睿为侍中、左丞相、大都督陕东诸军事，命其率兵赴洛阳勤王。 [8]  当时，司马睿正开拓江南，根本无意北伐。祖逖进言道：“晋室之乱，并不是皇帝无道，百姓造反，而是藩王争权，自相残杀，给了夷狄可乘之机。如今北地百姓备受蹂躏，都有奋起反击之志。大王如能命将出师，让祖逖等人为统领，江北豪杰必定会望风响应，沦亡人士也会欢欣鼓舞。如此，也许可以申雪国耻。”司马睿虽不愿北伐，却也不便公开反对，于是任命祖逖为奋威将军、豫州刺史，但却只拨予千人粮饷、三千匹布帛，让他自募战士，自造兵器。
+313年，晋元帝给他豫州刺史名义，又给一千人的食粮和三千匹布，叫他自己去募兵、造兵器。祖逖率部曲百余家渡江北上，在淮阴铸造兵器，募兵得二千余人。祖逖军纪律严明，得广大民众的爱护，屡次击败石勒军，收复黄河以南全部土地。晋元帝给祖逖镇西将军的称号。321年，祖逖准备渡黄河击石勒，收复河北。晋元帝却派仅有虚名的戴渊做征西将军，都督司、兖、豫、并、雍、冀六州诸军事、司州刺史。真正出征的祖逖官职是镇守；根本不出征的戴渊官职是出征，而且祖逖已收复的和未收复的州，都归戴渊统辖，这显然是不信任祖逖的表示。当时王敦和晋元帝对抗，东晋内乱势必爆发，祖逖感到前途无望，忧愤成病，就在这一年死去了。晋元帝深怕臣下在北伐中立功，建立起崇高的威望，对自己的帝位不利，却不想想专和臣下在内部计较权利，自己原来就很有限的一些威望将愈益缩小，对帝位的保持更加不利。格言说得好，“人无远虑，必有近忧”，晋元帝正是这样的一个庸人。
+</t>
+  </si>
+  <si>
+    <t>祖逖_百度百科 (baidu.com)</t>
+  </si>
+  <si>
+    <t>陶侃破杜弢1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴元年（313年），荆州刺史周顗被杜弢围困在浔水城。陶侃派部将朱伺前去救援，杜弢退守泠口。陶侃判断杜弢必由陆路偷袭武昌，因此迅速率军抄近路连续行军三昼夜，在武昌周围埋伏下来。杜弢果然来攻，陶侃令朱伺率伏兵迎头痛击，大破杜弢，缴获大批辎重，杀伤众多敌兵。杜弢败军退入长沙。 [14]  陶侃派遣参军王贡向王敦报捷，王敦说：“要不是有陶侯，就会失去荆州啊。伯仁（周顗）刚到任，就被贼兵击败，不知道他怎么能当刺史？”王贡说：“我们荆州正值多难之时，非陶龙骧（陶侃）治理不可。”王敦同意，即上表拜陶侃为使持节、宁远将军、南蛮校尉、荆州刺史，管领西阳、江夏、武昌等郡，镇守在沌口，又移镇沔江。派朱伺等人征讨江夏乱贼，消灭了他们。贼寇王冲自封荆州刺史，占据江陵。王贡回到竟陵，假借陶侃的命令，以杜曾为前锋大督护，进军杀了王冲，收降他的部下。陶侃召杜曾前往，杜曾未到，王贡害怕假传命令的事会获罪，就和杜曾一起反叛。王贡在沌阳向陶侃的参军郑攀发起攻击，将其击败，又在沔口打败朱伺。陶侃准备移师退守，又被部将张奕迷惑，于是按兵不动。不久，王贡军到达，陶侃被打得大败。叛军钩住了陶侃的乘船，幸亏他跳上一只小船，而朱伺奋力苦战，陶侃才得以脱险。张奕投奔叛军，陶侃也被免职。但王敦还是上表请陶侃以布衣身份领职。 [15] 
+陶侃再次率周访等进兵入湘，让都尉杨举为先锋，将杜弢击败，屯兵于城西。陶侃的部下致辞于王敦，为陶侃辩白，王敦于是上奏请恢复陶侃的官职。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝升职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约建兴元年（313年）至建兴三年（315年）间，干宝因才气被征召为著作佐郎。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以退为进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴元年（313年），陶侃大破杜弢，被王敦表荐为荆州刺史。但他随即就因竟陵太守杜曾叛乱，大败而回。王敦以“处分失所”为由，请求自贬为广武将军。但司马睿没有同意。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导升职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴元年（313年），晋愍帝司马邺即位，征王导为吏部郎，但他没有入朝就职。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛洪升职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>313年(建兴元年)琅琊王司马睿被任命为左丞相。葛洪因“平贼有功”被辟为掾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃破杜弢2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜弢部将王贡率三千精兵，出武陵江，诱骗五溪蛮夷相助，以水师截断官军道路，直逼武昌。陶侃派郑攀及伏波将军陶延连夜进军巴陵，出奇兵大败王贡，斩首千余级，归降者达万人，王贡只好退回湘城。叛军内部产生了矛盾，杜弢因怀疑张奕而杀了他，叛军都不自安，降者日益增多。王贡又来挑战，陶侃在远处对他说：“杜弢是益州的小吏，盗用国库钱财，父亲死后竟不奔丧。你本是好人，为何要跟随他胡为？天下难道有善终的叛贼吗！”王贡开始将脚横架在马背上，一副傲然无礼的样子，陶侃说罢，王贡肃然放下脚来端坐，神色言辞显得很恭顺。陶侃知道他可以改变，再次予以说服，并截发起誓，王贡于是归顺陶侃。杜弢败走，陶侃率军攻克长沙，俘获了杜弢部将的毛宝、高宝、梁堪后回师，杜弢起义被平定。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃破杜弢3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">王敦非常忌妒陶侃的功劳，陶侃要返回江陵，准备向王敦告辞，皇甫方回和朱伺等人劝谏，认为不能前往。陶侃不听，王敦果然把他留住，降为广州刺史、平越中郎将，让自己的堂弟王廙任荆州刺史。陶侃在荆州的僚属请求王敦留下陶侃，王敦怒而不许。陶侃部将郑攀、苏温、马鯭等人不愿南下，就到西边迎接杜曾以抵抗王廙。王敦认为郑攀这样做是奉陶侃的旨意，于是穿上铠甲手持兵器，想要杀掉陶侃，但往复几次还是拿不定主意。陶侃严肃地说：“使君雄毅果断，能裁决天下事，今天怎么这样犹豫不决。”便起身入厕。王敦的谘议参军梅陶、长史陈颁对王敦说：“周访和陶侃为姻亲，如同一左一右两支手，哪有砍他左手而右手不来帮忙的。”王敦这才作罢，设宴为陶侃饯行。陶侃连夜出发，王敦又留陶瞻为参军。陶侃到达豫章后，见到周访，流着泪说：“如果不是有你作外援，我性命难保。”陶侃继续前进到达始兴。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱朴子成书，葛洪返乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>314年(建兴二年)葛洪返回家乡。317年(东晋元帝建武元年)《抱朴子》成书。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦加害陶侃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴三年（315年），陶侃讨平杜弢之乱。王敦作为统军元帅，进拜镇东大将军、开府仪同三司、都督江扬荆湘交广六州诸军事、江州刺史，封汉安侯，可自行选置刺史以下官吏。 [19]  不久，陶侃欲回镇荆州，前来向王敦辞行。王敦忌于陶侃的军功，竟趁机将其扣留，调任为广州刺史，以堂弟王廙接掌荆州。他甚至想杀死陶侃，但因忌惮其亲家周访，最终没有动手。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝封侯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建兴三年（315年），参与平定杜弢之乱有功，朝廷赏赐给他关内侯的爵位。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃入广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃将入广州，逢杜弢余部杜弘与温劭等占据交州。闻陶侃将至，杜弘企图利用诈降偷袭。陶侃识破他的计谋，布兵设阵，一举将杜弘击溃。“诸将都请求乘胜进攻温劭，陶侃笑着说：“如今我已是威名显赫，何必再动刀兵，只需要一纸布告就可以解决。”于是下书告谕，温邵因害怕逃走，追兵在始兴将他抓获。陶侃因功被封为柴桑侯，食邑增至四千户。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东晋建立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西晋灭亡，东晋建立。当时东海王就留下琅邪王司马睿以安东将军都督扬州诸军事，镇守下邳。后来琅邪王就移镇建邺，在江左发展，奠下了东晋的基础。晋愍帝死后，琅邪王司马睿即位，是为晋元帝。建兴五年（317年）西晋灭亡后，司马睿在建康重建晋廷，为晋元帝，史称东晋。但晋廷稳定后大量引用侨姓世族（原北方世族），压抑吴姓世族。使周玘等吴姓世族不满，有意叛变，但事洩未果，周玘忧郁而死。其子周勰继之，意图叛变，其叔周札洩密而未果。而后晋室分化周沈二氏，使其先后崩溃，并将亲晋的朱张顾陆四氏递升。然而，由于侨姓世族持续侵犯江南经济并打压南方世族入仕朝廷，使得侨吴世族在政治及经济上的冲突仍在。加上世族对寒族歧视、与朝廷分庭抗礼；中央与方镇对立及野心家的崛起，使得东晋一朝始终动荡不安。 [4] 
+因为北方外患威胁仍在，东晋朝廷赖世族及方镇的支持以稳定局势，这使得不少实力派世族意图叛变，夺取政权。当时晋元帝倚重王氏，任王导丞相、王敦专政军事，时称“王与马，共天下” [5]  。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝当史官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东晋建武元年（317年），西晋灭亡，东晋建立；十一月，因东晋初建，没有设置史官，中书监王导上书说：“大凡帝王的事迹，必定要记载下来，写成典籍，永远流传后世。宣皇帝平定四海，武皇帝顺应天命，接受曹魏的禅让，大功大德，足以同古代圣君贤王相比，但他们的传纪不见于朝廷府库，他们的恩德未被谱写成乐歌。陛下圣明，为一代中兴之君，应着手建立国史，撰写帝王本纪，上陈祖宗的伟绩，下记将相辅佐之功，务必照实记述，为后代树立准则，满足举国的愿望，使人神欢愉，这无疑是天下长治久安的根本。因此应设置史官，诏令佐著作郎干宝等逐步撰写集录。”晋元帝司马睿采纳此建议。于是，干宝开始负责国史《晋纪》的撰写。 [8]  《晋纪》写成后，进献朝廷。该书自晋宣帝至晋愍帝前后五十三年，共二十卷。该书简略明了，直书史实，又能做到语气委婉，人们都称赞干宝是位好史官。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖逖北伐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东晋初期，朝廷采取以攻为守态度抵御北方。317年祖逖意图北伐，晋元帝只有给予少量军队，命他相机进取。他招募流民建立军队，并与当地坞堡合作，最后成功收复黄河以南领土，与石勒隔河相持。但由于东晋发生内乱，朝廷又担心他威望太高，于321年派戴渊为总督节制，以致收复河北的计划无疾而终，祖逖忧愤而死，失地得而复失。王敦因为祖逖去世而不必顾虑，之后遂叛变。祖逖军由其弟祖约率之，最后也随苏峻叛变。晋成帝时则由庾亮、庾翼兄弟主持北伐，他们以荆州为中心，意图发动北伐。但是因为朝廷抵制，所以没有实现。庾氏兄弟相继去世后，荆州刺史由桓温担任。他向往刘琨、陶侃事迹，以北伐为务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦握兵权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建武元年（317年），司马睿称晋王，建立东晋，并于次年正式称帝，史称晋元帝。王敦此时已升任征南大将军，又进拜大将军，加侍中、江州牧。当时，杜曾仍在荆州一带作乱。王敦遣部将朱轨、赵诱征讨杜曾，但均被杜曾击败。他上表自请贬职，被免去侍中，后又请辞江州牧。司马睿又任命王敦为荆州牧。但王敦仍力辞州牧一职，最终被授为荆州刺史。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导握官权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建武元年（317年），司马睿即晋王位后，任命王导为丞相军谘祭酒。不久拜右将军、扬州刺史、监管江南诸军事，又迁骠骑将军，加散骑常侍、都督中外诸军、领中书监、录尚书事，假节、刺史如故。王导因为看到王敦统率六州，坚决辞掉都督中外诸军的职务。后又因他事牵连，被除去符节。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛洪封侯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>318年(大兴元年)司马睿即皇帝位，葛洪因军功赐关内侯，领句容之邑两百户。
+太兴元年（318年），陶侃进号平南将军。不久，又加都督交州军事。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王马嫌隙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿能立国于江南，是因得到了南北门阀大族的支持。琅琊王氏在其中更是起到决定性作用，故而在东晋建立后权势极盛。王导内掌朝政，王敦外握兵权，王氏子弟皆位居要职，以致有“王与马，共天下”的说法，但也因此引起了司马睿的忌惮。而在同时，王敦亦渐见专擅，如私自擢用降将杜弘，自行加任割据险处的何钦为将军等。司马睿更是厌恶。他为了减弱琅琊王氏的影响力，重用丹阳尹刘隗、尚书令刁协等亲信，并逐渐疏远王导。王敦对此也是极为不满。君臣之间逐渐产生嫌隙。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立储风波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿喜爱琅玡王司马裒，有以他取代长子司马绍的想法，去征求王导的意见。王导说：“立太子都是立长子，而且司马绍也很贤明，不应当随意改变。”司马睿还是犹豫不决。王导常常劝谏，司马绍的名分才得以确立。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选址炼丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>319年(大兴二年)此后，葛洪隐居，常入山选址炼丹，仍然坚持写作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝著书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴二年（319年），干宝著《驳招魂议》。</t>
+  </si>
+  <si>
+    <t>设置史官，干宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴元年（318年），司马睿即皇帝位，建立东晋。受百官朝贺时，司马睿再三请王导同坐御床受贺，王导再三辞让不敢当，说道：“如果太阳也和地下万物一样，那么老百姓该到哪里沐浴光辉呢？”司马睿这才作罢（此为《晋书》记载，此说更早的出处似为何法盛《晋中兴书》，但再往前溯，则《世说新语·宠礼》只称某次“元会”，未言登基之会），任命王导为骠骑大将军、仪同三司。又因华轶叛乱被平定而受封武冈侯，进位侍中、司空、假节、录尚书事，领中书监。
+大兴二年（319年），王导接替贺循担任太子太傅。当时，东晋处于草创之际，朝中未设史官，王导执政时才开始设置，从此典籍史录就较齐备。之前孝怀太子司马诠为刘曜所杀，于是奉其名讳，有司奏丧礼的规格，天子举三朝之哀，群臣一哭就可以了。王导则认为皇太子是皇位的继承者，普天下都有悲哀之情，应该也哀伤三朝而非仅仅是一哭，这一建议被采纳。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周访病逝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太兴三年（320年），梁州刺史周访病逝。 [23]  湘州刺史甘卓调镇梁州。王敦趁机请求以亲信陈颁接任湘州刺史。 [24]  湘州所处位置十分紧要，素有牵制荆州的作用，司马睿不愿让湘州被王敦所控制。刘隗也建议司马睿派遣心腹重臣出镇湘州，以防备王敦。司马睿遂以宗室司马承为湘州刺史。 [25]  王敦又上表陈说古今忠臣如何被皇帝猜疑、如何被小人离间，想以此感动司马睿。司马睿却对王敦更为忌惮，但在明面上是还是给王敦增加属官、赏赐羽葆鼓吹等仪仗，提高他的待遇。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导建校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时战争不断，各地学校废弃而未能得到兴建，王导上书认为“风化之本在于正人伦，人伦之正存乎设庠序”，通过建学校来教化礼仪道德、巩固君臣及父子的纲常伦理，并以此招揽贤才，改变浮躁的风气，最终达成司马睿的“中兴”之业。他建议择取朝中子弟入学，选拔博通礼学之士为师，成教化、定风俗。 [18]  司马睿览奏后，颇为听信此议。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖逖病故，王敦叛乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太兴四年（321年），司马睿在刁协的建议下 [27]  ，将扬州诸郡的僮客恢复良民身份，以备征役，随后又以戴渊、刘隗出镇合肥、淮阴。 [28]  他还将所征发的兵卒全部分配给戴渊、刘隗，名义上是抵御北方的后赵政权，但其实是在防备王敦。 [29]  王敦致信刘隗，表示要和他修好，同心戮力共辅王室，却被刘隗所拒绝。他不禁更为恼怒。 [30]  而就在当年九月，豫州刺史祖逖病逝。 [31]  王敦最为忌惮的周访和祖逖，至此全都去世。王敦认为再无人可以在军事上威胁自己，因此决意举兵入京。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱。
+王敦素来桀傲，有意控制朝廷，晋元帝为了抑制王氏权势，以刘隗、刁协、戴渊等人牵制，并防御京师。王敦万份怨恨，于322年发兵，攻陷建康。刁协等人被杀，史称王敦之乱。晋元帝备受恐惧，忧愤而死，太子绍继位，是为晋明帝。当时王敦欲篡位，移镇姑孰（今安徽当涂县），但于324年病危。晋明帝下令讨伐，平乱成功，由于王导未附逆，所以王氏仍受晋室重用。
+晋元帝登帝位后，不满意王氏的骄横，想削弱王氏势力。他引用善于奉迎的刘隗、酗酒放肆的刁协作心腹，暗中作军事布置。王导被疏远，仍能保持常态，士族一般都同情他，刘隗、刁协反陷于孤立。王敦本来是个野心家，乘机以反对刘隗、刁协，替王导诉冤为借口，阴谋篡夺。祖逖死后，王敦更无忌惮。322年，王敦在武昌起兵反晋，刘隗等人战败，王敦攻入建康。王导和朝官们消极抵抗，王敦无法实现他的篡夺野心，只好退回武昌。323年，晋元帝忧愤病死，晋明帝继位，王导辅政。王敦老迈已无野心，然部署皆以为有机可乘，加紧谋夺帝位。324年，晋明帝乘王敦病重，发兵谋讨王敦，王敦部署战败，王敦不服，带病领兵来攻建康，被晋军击败。王敦病死，谋夺帝位的战争告一结束。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马睿登帝位以后，不满琅玡王氏的骄横，想削弱王氏势力。他引用大臣刘隗、刁协作心腹，并且暗中作军事布置，释放扬州地区内沦为僮客的北方流民，把他们组成军队，任命东吴旧族戴渊为征西将军，都督兖、豫等六州军事；刘隗为镇北将军，都督青、徐等四州军事，各率万人，分驻合肥、淮阴，名义上是北讨石勒，实际上是对付王敦。王导因此被疏远，但他一任自然安其本分，淡泊自如。有识之士都称赞王导善于对待升沉兴废。 [23] 
+永昌元年（322年），王敦以反对刘隗、刁协，替王导诉冤为借口自武昌举兵，攻入建康，杀戴渊、刁协等，刘隗逃奔石勒，史称“王敦之乱”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱。永昌元年（322年）正月，王敦在武昌（江州州治，在今湖北鄂州）起兵，以讨伐奸臣刘隗的名义东攻建康。他上疏列举刘隗十大罪状，表示只要刘隗授首便撤军退回。党羽沈充在吴兴（治今浙江省湖州市）举兵响应。不久，王敦兵至芜湖，又奏列刁协罪状。司马睿大怒，下诏定王敦为“大逆”，表示要亲率六军与其决战，并急调刘隗、戴渊入卫建康。 [34]  但当时门阀士族对王敦起兵大多态度暧昧。温峤便曾表示王敦所为必有原因，不算过分。 [35]  王敦的兄长王含时为光禄勋，亦闻讯叛投王敦。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱4</t>
+  </si>
+  <si>
+    <t>王敦起兵之初，曾遣使前往梁州、湘州，约甘卓、司马承一同东下。甘卓虽允诺，但却一直未曾出兵，在朝廷和王敦之间持观望态度。而司马承则囚禁来使，在长沙（湘州州治，即今湖南省长沙市）举兵声讨王敦，并攻杀王敦的姐夫湘东太守郑澹。 [37-38] 
+王敦一面命南蛮校尉魏乂、将军李恒等率两万兵马攻打长沙 [39]  ，一面命参军乐道融去游说甘卓出兵支持自己。乐道融本就不满王敦叛乱之举，趁机背叛了王敦，反劝甘卓袭击武昌。 [40]  当时，司马承亦命主簿邓骞到梁州劝说甘卓，促请其起兵勤王。甘卓经过多番犹豫，最终还是决定支持朝廷，遂传檄声讨王敦。 [41]  武昌震动。王敦忙遣使向甘卓求和，请他罢兵退回梁州。甘卓再次犹豫，刚刚行至猪口（在今湖北省仙桃市）便停军不进。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱5</t>
+  </si>
+  <si>
+    <t>王敦反叛时，刘隗劝司马睿尽诛王氏家族之人，人们议论纷纷，都为之担心。王导率族中兄弟子侄二十余人，每天天亮时到台阁处等待议罪领罚。司马睿因王导素来忠诚正直，特地还给他朝服，并召见了他。王导叩首答谢说：“叛臣贼子，哪个朝代没有呢，但想不到会出在我们王氏家族中。”司马睿赤着脚走下来拉着王导的手说：“茂弘，我正要托付一国之命与你，你怎么说这样的话呢。”于是下诏说：“王导以大义而灭亲，可以把我任安东将军时的符节授予他。” [24]  但王导在此役中并未真正假节。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱6</t>
+  </si>
+  <si>
+    <t>刘隗很快便与戴渊相继赶回建康，并与刁协一同入宫，请求司马睿诛杀留在京中的琅邪王氏族人，却被司马睿所拒绝。 [43]  当时，王导率宗族子弟二十多人，每日至台城待罪，最终都得司马睿宽恕。 [44]  司马睿又命王廙去劝止王敦。但王廙非但不能谏阻王敦，反而被王敦留下，协助王敦的行动。 [45]  就在当年三月，王敦大军逼近建康。司马睿以右将军周札守卫石头城（建康军事要塞，在今清凉山一带），并亲自披甲出镇城郊，准备迎战。而刘隗则戍守金城（在今江苏省句容市），作为外援。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱7</t>
+  </si>
+  <si>
+    <t>王敦得志后，任用王导为尚书令。王导认为佞臣扰乱朝纲，同意王敦来“清君侧”，但当这些人被杀逐以后，帝室势力退缩回去，王敦还想进一步篡夺政权，王导便表示坚决的反对，出面维护帝室。当初，长安陷没、四方劝进的时候，王敦想要把持国政，恐怕元帝年长难制，企图另立他人，王导不从。及至王敦攻入建康以后，对王导说：“那时不听我言，几乎全族被灭。”但王导始终不为所动。王敦无法实现他的野心，只好退回武昌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱8</t>
+  </si>
+  <si>
+    <t>王敦欲先攻金城，打击刘隗。杜弘却认为周札刻薄少恩不得军心，建议先取石头城。王敦遂进攻石头城。周札开城投降。司马睿忙命刘隗、戴渊等率部反攻石头城，但皆大败而回。 [47]  太子司马绍闻听诸军皆败，欲亲率将士出城决战，被温峤谏止。 [48]  刘隗、刁协率败兵回到台城。司马睿给二人配备人马，让他们逃离建康，自寻生路。刁协刚刚逃至江乘（治今江苏句容北），便被随从斩杀，首级送呈王敦。 [49]  而刘隗则逃回淮阴，但却遭到刘遐的袭击，只得率妻小亲信投奔后赵。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦叛乱9</t>
+  </si>
+  <si>
+    <t>王敦叛乱10</t>
+  </si>
+  <si>
+    <t>王敦叛乱11</t>
+  </si>
+  <si>
+    <t>王敦叛乱12</t>
+  </si>
+  <si>
+    <t>王敦叛乱13</t>
+  </si>
+  <si>
+    <t>王敦叛乱14</t>
+  </si>
+  <si>
+    <t>王敦叛乱15</t>
+  </si>
+  <si>
+    <t>王敦叛乱16</t>
+  </si>
+  <si>
+    <t>王敦叛乱17</t>
+  </si>
+  <si>
+    <t>王敦叛乱18</t>
+  </si>
+  <si>
+    <t>王敦叛乱19</t>
+  </si>
+  <si>
+    <t>王敦叛乱20</t>
+  </si>
+  <si>
+    <t>王敦叛乱21</t>
+  </si>
+  <si>
+    <t>陶侃平乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌元年（322年），王敦之乱爆发。三月，朝廷下诏陶侃以本职领江州刺史，又转任都督、湘州刺史。王敦攻入建康，把持朝政后，恢复了陶侃的本职，又加散骑常侍。当时交州刺史王谅为叛贼梁硕杀害，陶侃派部将高宝进击，将梁硕击败。朝廷于是下诏命陶侃领交州刺史。根据陶侃前后的功劳，封其次子陶夏为都亭侯，进号征南大将军、开府仪同三司。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导坚定立场，决裂王敦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌二年（323年），司马睿忧愤而死，晋明帝司马绍继位，王导辅政，解任扬州刺史，改拜司徒，依照曹魏时陈群辅佐魏明帝的先例。王敦以为有机可乘，又加紧图谋篡夺，王导站在维护帝室立场坚决反击。后王敦领兵向京师逼进，当时王敦正患病，王导率族中子弟为王敦发丧，大家都以为王敦已死，于是胆气倍增斗志高昂。明帝讨伐王敦时，授王导假节、都督诸军，兼领扬州刺史。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁二年（324年），干宝因家庭贫困，请求担任了山阴（今浙江绍兴）县令。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马绍反王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太宁二年（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>324</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年）六月，王敦以左司马温峤为丹阳尹，意图借此监视朝廷动静。但温峤却将王敦的谋划尽数禀报给司马绍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> [85-86]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>司马绍当即决定讨伐王敦，亲自驻屯于台城宣阳门外的中堂，并作出一系列军事部署：
+以王导为大都督，总领征讨诸军。
+以郗鉴为卫将军，统领从驾诸军。
+以温峤为中垒将军，与右将军卞敦负责守卫石头城。
+以光禄勋应詹为护军将军，负责守卫建康城南的朱雀桥（秦淮河上的浮桥）。
+命徐州王邃、豫州祖约、兖州刘遐、临淮苏峻、广陵陶瞻等边军镇将率部入卫建康。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[87]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 
+司马绍为了消除将士对王敦的畏惧之心，对外宣称王敦已死，只是以钱凤为讨伐对象。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[88]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  王导亦率宗族子弟为王敦发丧。晋军将士对王敦的“死讯”信以为真，登时士气大振。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[89]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  王敦大怒，遂以诛杀温峤等奸臣为名 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[90]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  ，再次举兵。他此时病势沉重不能领兵，便以王含为元帅，与钱凤、邓岳、周抚等率五万大军向建康进发，并暗示钱凤等在破城后杀死司马绍。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[91]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  沈充亦于吴兴起兵，直趋建康。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[92]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>反攻王敦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"王含、钱凤等军水陆并进，很快便攻至建康，屯于秦淮河南岸。温峤移驻北岸，因宿卫兵力薄弱而所征边军尚未抵达 [93]  ，下令烧毁朱雀桥，与叛军隔河对峙。 [94]  王导期间曾试图劝降王含，但未能成功。 [95]  不久，司马绍出屯南皇堂，命将军段秀和中军司马曹浑等率数千甲卒，乘夜渡河袭击叛军，在越城（在今江苏省南京市）大败王含，斩杀其前锋将领何康。 [96]  王敦闻败震怒，欲强撑病体亲赴前线督战，最终因病重乏力而未能成行。 [97] 
+王敦在重病之中愤恨交加 [96]  ，当日便死在姑孰军府，终年五十九岁。他临终遗命，让王应先即位称帝再为自己操办丧事。但王应却秘不发丧，只用草席包裹王敦尸身，外涂白蜡后埋于军府厅堂之中，而后便和诸葛瑶等纵酒行乐。 [98]  与此同时，沈充亦进至建康城外，与王含等部会合。 [92]  而刘遐、苏峻等部边军随后也都相继赶到建康。沈充、钱凤等认为边军远来疲惫“未堪攻战” [99]  ，遂领兵渡过秦淮河，想趁虚击溃边军。他们虽一度攻至宣阳门外，但最终还是被边军打退。 [100] 
+王敦的死讯此时也逐渐传开，叛军顿时军心涣散。 [101]  王含、沈充等自知大势已去，遂连夜烧营溃逃。 [102]  司马绍命庾亮、苏峻等追击沈充，又命温峤、刘遐等追击王含、钱凤。 [103-106]  王含、王应父子逃奔荆州，却被王舒溺杀于长江。 [107]  钱凤、沈充也相继被杀，首级传送京师。司马绍又命起出王敦的尸首，焚毁其所着衣冠，摆成长跪的姿势斩首戮尸，随后将王敦、沈充等人的首级一同悬挂在城南朱雀桥上示众。 [108]  时为太宁二年（324年）七月，王敦之乱至此被彻底平定。"
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦兵败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁三年（325年），王敦之乱平定后，晋明帝司马绍为避免重蹈覆辙，在一方面重用庾亮、郗鉴等制约王导的权力，同时拔擢江东士族，在侨、吴士族间搞平衡；另一方面改授荆、湘等四州职务，使方镇互相牵制。于是在同年五月任命陶侃为都督荆、湘、雍、梁四州军事、征西大将军、荆州刺史、领护南蛮校尉，其他职务如故。荆楚民众听到这个消息后都互相庆贺。
+王敦之乱被讨平后，王导被晋封为始兴郡公，食邑三千户，赐绢九千匹，进位太保，司徒之职依然如前，特许他剑履上殿，入朝不趋，赞拜不名。但王导坚决推辞不接受。
+太宁三年（325年），司马绍病死，幼主司马衍（晋成帝）继位，王导受顾命，与西阳王司马羕、尚书令卞壸、车骑将军郗鉴、领军将军陆晔、护军将军外戚庾亮、丹阳尹温峤共同辅政，并加羽葆鼓吹仪仗、班剑二十人。 [29]  但庾亮很快借帝舅之重及太后之威而独大。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力真空
+暗流涌动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁三年（325年）晋明帝去世，太子衍继立，是为晋成帝。由王导及外戚庾亮辅政。当时军事重镇分由陶侃镇守荆襄地区及由苏峻及祖约等镇守淮南地区。陶侃怀疑因为庾亮的干预，使得未能辅政而感到不满。庾亮为了提防陶侃，任温峤镇守武昌。由于苏峻及祖约对庾亮巩固中央的政策感到不满，于327年反叛。次年苏祖联军攻陷京师，胁持晋成帝，庾亮逃至寻阳（今江西九江市），史称苏峻之乱。此时陶侃观望，经温峤力劝之下决定讨伐苏峻。苏峻迎战阵亡，329年陶温联军收复京师，平乱成功。事后庾亮请罪，外调镇芜湖，朝廷由王导执政。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃治荆州
+葛洪去湖北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃治荆州，很重视社会秩序的稳定和发展农业生产。王敦平后，荆州大饥，百姓多饿死。陶侃在秋熟收获之时常买米，等到饥荒时又减价卖出救济。使得官民欢悦，都依靠他救济得以生存。羊祜、刘弘在荆州劝课农耕使生产发展，颇得民心，这对陶侃影响不小。此外，基于自己巩固地盘和发展势力的需要，这也是必须采取的措施。因此他“务勤稼穑，虽戎阵武士，皆劝励之。有奉馈者，皆问其所由，若力役所致，欢喜慰赐；若他所得，则呵辱还之。是以军民勤于农稼，家给人足。”在他治理下，“自南陵迄于白帝数千里中，路不拾遗”。此说虽有夸大成份。但当时荆州社会较安定，生产有所发展，确是事实。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约太宁三年（325年），干宝迁升为始安（今广西桂林）太守。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导顾命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宁三年（325年），明帝病死，五岁的成帝即位。庾亮以外戚身份辅政。庾亮对据上游、握强兵的陶侃颇为顾忌，一方面加强建康石头城的防卫，另一方面派温峤出任江州刺史。
+太宁三年（325年），司马绍病死，幼主司马衍（晋成帝）继位，王导受顾命，与西阳王司马羕、尚书令卞壸、车骑将军郗鉴、领军将军陆晔、护军将军外戚庾亮、丹阳尹温峤共同辅政，并加羽葆鼓吹仪仗、班剑二十人。 [29]  但庾亮很快借帝舅之重及太后之威而独大。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏峻之乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和三年（328年），苏峻之乱爆发，建康被叛军所占领，陶侃的儿子陶瞻也被叛军杀害。此时，平南将军温峤邀请陶侃出兵一同勤王。当初，明帝驾崩时，陶侃并不是辅政大臣之一，他对此深为遗憾，于是答复温峤说：“我是在外守边的将领，不敢超越自己的职分。”温峤坚决要求他出兵，并推举他为盟主。陶侃这才派督护龚登率兵来与温峤合合，随后又将龚登追回。温峤在书信中以苏峻杀害陶瞻的事来激怒他，陶侃的妻子龚氏也力劝他出兵，陶侃于是戎服登舟而行，昼夜兼程，连陶瞻的丧礼也未参加。五月，与温峤、庾亮等人齐会在石头城下。诸军就要展开决战，陶侃认为贼兵强盛，不可硬攻，当等待时机以智而破之。几次出战都未能取胜，诸将请求在查浦修筑营垒，而监军李根则建议在白石修营垒，陶侃不同意，他说：“如果筑垒不成，就追究你。”李根说：“查浦地势低下，又处在水南，只有白石地形险要坚固，可容纳数千人，不利于敌人进攻，是灭敌的好办法。”陶侃笑着说：“你真是一员良将。”于是采用李根的建议，连夜修造，天亮时就造成。叛军看到新建成的营垒，大为惊恐。叛军进攻大业营垒，陶侃准备救援，长史殷羡说：“陆战我们不如苏峻，如果派人去救大业，那大事难成。现在应该急攻石头城，苏峻必定会救援，这样大业就解围了。”陶侃听从了殷羡的建议，苏峻果然丢下大业来支援石头城。诸路义军和苏峻交战，陶侃的督护竟陵太守李阳的部将彭世在阵上斩杀苏峻，叛军大乱。苏峻之弟苏逸收聚残兵，陶侃与诸军在石头城击斩苏逸。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约咸和二年（327年），王导请朝廷任命干宝担任其司徒右长史，干宝在司徒府期间曾撰立司徒府属僚官仪《司徒仪》一卷。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>328年(咸和三年)葛洪转任咨议参军。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和三年（328年），当时苏峻起兵反叛朝廷，平南将军温峤派遣邓岳与督护王愆期、鄱阳太守纪睦等率领水军赴难。苏峻之乱平定后，邓岳回到西阳郡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导逃脱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和三年（328年），朝廷军战败后，庾亮携族人逃离京城，王导与大臣荀崧、陆晔等入宫侍卫司马衍。苏峻因王导德高望重，不敢加害，仍让他官居原职处于自己位置之上。苏峻想要逼迫成帝前往石头城，因王导竭力争执不起作用。
+苏峻成日在司马衍面前胡言乱语，王导担心会有不测之祸。当时，苏峻部下路永、匡术、贾宁都劝说苏峻，要他杀掉王导，尽诛朝中大臣，重新安置上自己的心腹。苏峻素来敬畏王导，不听他们的劝告，因此路永等人和苏峻产生了矛盾。王导派参军袁耽暗中诱劝路永等人，计划让成帝出逃至陶侃、温峤的义军除。由于苏峻防守看护甚严，事情未能成功。王导只好带着两个儿子随路永逃奔到白石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃勤王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在平定苏峻之乱的过程中，陶侃是勤王军的盟主。当时庾亮率军攻苏峻，反为其所败，于是把符节交给陶侃谢罪。陶侃却说：“古人曾有三败，君侯您才败两次。现在是紧急关头，不该计较这些。”陶侃对庾亮如此宽容，诸将都奋力作战。其次，陶侃能听从建议和意见，如招徐州刺史郗鉴自广陵渡江，扼守京口，对于东西夹击苏峻起了重要作用。诸军与苏峻军战，数战皆败。温峤军缺粮，想陶侃借粮，陶侃恼怒之下反而想撤回荆州。经部将毛宝劝解，陶侃才分五万石米给温峤，并打消撤军念头。苏峻之乱终于在众人合作下得以平定。东晋政局危而复安。自此后，江南保持了七十余年的安定局面，没有出现大的动乱。社会的安定对江南经济的发展起了重要作用。应该说，陶侃对于促进这一局面的出现还是起了不小的作用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平乱成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和四年（329年），苏峻之乱平息。
+陶温联军收复京师，平乱成功.
+王导又执政，东晋朝又算危而复安。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和四年（329年），苏峻之乱平定，陶侃回师江陵。三月初十，陶侃因功升任侍中、太尉，加授都督交州、广州、宁州等七州军事，加羽葆、鼓吹，封爵长沙郡公，食邑三千户，又赐绢八千匹。 [28-29]  陶侃因为江陵位置偏远，于是移镇巴陵。 [30]  当时割据辽东的慕容廆与陶侃通信，不仅称赞王导和庾亮，而且称陶侃是“海内之望中唯足为楚汉轻重者”，可见陶侃此时的地位威望。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓岳下广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咸和五年（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>330</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘胤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，大司马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陶侃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>派邓岳率领西阳兵众征讨郭默。郭默平定后，升任督交、广二州军事，建武将军，兼任平越中郎将、广州刺史、假节，因前后功勋，赐封爵位为宜城县伯。</t>
+    </r>
+  </si>
+  <si>
+    <t>王导重新执政</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战乱之后，建康的宫殿、宗庙都被焚为灰烬。温峤建议迁都到豫章，三吴之地的豪杰们请求定都于会稽，这两种意见争来争去，不知哪样为好。王导说：“建康，即古时的金陵，过去就是帝王之都，而孙仲谋、刘玄德都说这里是帝王之宅。古代帝王不必因简陋豪华而移都，如果能弘扬卫文公以大布之衣大帛之冠为君的风尚，则可无事不成。若不勤勉耽于安乐，即使找到一块乐土，也会变成废墟。况且北方敌寇像游魂一样，窥伺我们的空隙，我们一旦有胆怯的表现，跑到南越之地，再想得到威望和实力，恐怕是难以办到。现在应该特别镇静，这样民情便可自安了。”由此所有迁都的提议都不能实施。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导执政2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和六年（331年）冬，举行冬祭，司马衍下诏将祭品送给王导，并说“不必下拜。”王导连连推辞不敢承受。当初，司马衍年幼，每次见到王导，都要下拜。又曾在给王导的诏书上写着“惶恐地说”这样的话，中书省起草的诏书，则称“敬问”，这以后就成了定规。后来正月初一，王导入朝，司马衍还亲自起来迎接， [35]  并以家人礼拜见他的妻子曹淑。
+当时天下大旱，王导上疏请求退职。诏书说：“圣明的君主管理天下，行动都要合乎天道，举止不能偏离了规则，这才能使人伦肃整，万物生长顺利。我肩负祖宗基业的重任，受着王公的推举辅佐，但不能继承仰接古圣王的遗风，使宇宙万物平安，造成天旱日久，万民忧愁怨胥，国家的不幸，责任在我一人。您贤明通慧，精于道博于理，才志弘大深远，功盖四海，辅助朝政已有三代，国家之典则没有废亡，都是由于您像仲山甫那样辅佐的结果。而现在贬低自己的功绩，引咎自责。现在把元首的过失，移给宰辅大臣来承担，这更会增加我的过错。国家治理的万千事机，不可一日不理，您应该放下谦虚礼让的个人品节，而承担起治世经国的大任。门下省速遣侍中以传达我的诚意。”王导坚决地推让，朝廷数次下诏恳请，然后才继续执掌朝政。 [36] 
+王导平素俭朴寡欲，仓中没有积蓄的粮米，穿衣不同时穿两件帛衣。成帝知道后，送给他布万匹，以供他私人开支。王导体弱患病，出席不了朝会，成帝就亲自到他府中，置酒设乐，然后用舆车将他接到殿里，成帝就是这样敬重尊崇他。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和四年十二月（330年），后将军郭默擅自杀害江州刺史刘胤，执政的丞相王导认为郭默骁勇难制，便任命他为江州刺史。陶侃闻知此事，一甩袖子站起来说：“这其中必定有诈。”随即要率兵征讨郭默。郭默派使者送陶侃妓妾和绢，并写密诏呈送给陶侃。陶侃的僚佐大多劝谏说：“郭默不受诏令，怎敢做这种事。如果要进军，应该等待诏书。”陶侃神色严厉的说：“天子年幼，诏令并非出于己意。刘胤被朝廷重用，虽然所任非才，但为何胡乱遭到极刑。郭默恃仗骁勇，行事贪婪横暴，因国家大难刚刚平定，朝廷法令纲纪宽松简略，想乘机肆行无忌罢了！”便派使者上表陈述郭默的罪状，并写信给王导说：“郭默杀死刺史就任用他为刺史，如果他害宰相是不是就要任他为宰相呢？”王导这才收起先前被示众的刘胤首级，给陶侃回信说：“郭默占据长江上游的有利地势，再加上有舰船为其所用，所以包涵忍耐，让他占据那地方，朝廷因此得以秘密戒备。等足下大军到达，风驰赴敌，这难道不是暂且顺从，等待时机再定大事的策略吗！”陶侃笑着说：“这的确是对此贼屈从的策略。”随即起兵抵江州，郭默想向南占据豫章，适逢陶侃的军队到达，郭默出战不利，进城固守，用米堆成垒堡，显示自己粮食有余。陶侃修筑土山与他对垒。同年三月，庾亮的军队到达湓口，各路军队会齐。五月，郭默的部将宋侯捆绑郭默父子出城投降。陶侃在军门前将郭默斩首，首级传至建康。郭默在中原时，多次与石勒交战，石勒的部下都害怕他，听说陶侃兵不血刃就擒拿郭默，更加敬畏陶侃。苏峻的部将冯铁杀了陶侃的儿子后投奔了石勒，石勒让他任边将。陶侃把事情真相告诉了石勒，石勒就杀了冯铁。朝廷下诏陶侃领江州刺史，都督江州军事，部下增设左右长史、司马、从事中郎四人，掾属十二人。陶侃领兵回到巴陵，再移镇武昌。 [32-33] 
+实际上，王导和陶侃对郭默的不同态度，反映了他们之间对江州的争夺。王导对郭默擅杀刘胤表示的容忍，在于要笼络郭默对抗陶侃。陶侃指责王导并迅速出兵，是要将江州控制在手。陶侃夺得江州，也就控制了长江的上游和中游。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事后，陶侃任命张夔之子张隐为参军，范逵之子范珧为湘东太守，以刘弘的曾孙刘安为掾属，上表褒赞梅陶。凡是他微贱时受过别人的恩惠，哪怕是一餐饭他也必定报答。 [34] 
+此后，陶侃曾欲举兵废黜王导，但因庾亮调解以及王导的亲家郗鉴反对才作罢。 [35] 
+陶侃驻守在武昌时，不少人主张在江北的邾城驻兵镇守。陶侃每次都不回答，而众人一直说此事，陶侃于是在率将佐过江围猎时分析说：邾城隔在江北，内无所倚，外接敌寇。即便派兵驻守，也无益江南。长江才是御寇的天险。众将才恍然大悟。后荆州刺史庾亮派精兵万人驻守邾城，至咸康五年（339年），后赵派兵来攻，邾城孤立无援，终于兵败城陷。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛洪点陶侃悟道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和七年（332年），陶侃派毌丘奥经营巴东，又派其子陶斌和南中郎将桓宣西伐樊城，派侄儿陶臻、竟陵太守李阳等共同攻下新野，收复了襄阳。襄阳为荆州北门。它起着阻止后赵沿汉水南下的作用，又是东晋经略北方的一个重要阵地。朝廷拜陶侃为大将军，赐予赞拜不名、剑履上殿的殊荣，被陶侃上表坚决辞让。 [37]  陶侃到晚年时深感物极必反的道理，因此不参与朝政，多次想告老还乡，但被佐吏们苦苦相留。
+陶侃晚年位极人臣，能“怀止足之分，不与朝权”，对他个人来说，不失为一种明智的选择。这样既可维持“家僮千余，珍奇宝货富于天府”的家业，又可保住子孙的前途。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃去世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和九年（334年）陶侃去世，庾亮代之，仍遥控朝廷，与王导交恶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咸和九年（334年）六月，陶侃在病中上表逊位，派左长史殷羡将官印节传等送还朝廷。他在离开荆州前，军资、器仗、牛马、舟船等，都有簿录统计，封存仓库，由陶侃亲自上锁。陶侃将后事托付给右司马王愆期，加职都护，命他统领文武官吏。十二日，陶侃乘车离开武昌，到渡口乘船，准备返回长沙，回头对王愆期说：“老夫现在蹒跚难行，正因你们阻拦。”次日（7月30日），陶侃于樊溪去世，享年七十六岁。根据他的遗嘱，众人把他葬在长沙南二十里的地方，他的旧部又在武昌城西为他刊石立碑、作画像。成帝下诏追赠陶侃为大司马，赐谥号“桓”，以太牢礼祭祀。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸和九年（334年），干宝迁升为散骑常侍，兼任著作郎。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛洪下广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康三年（337年），邓岳派兵攻打夜郎，取得胜利，加任督宁州军事，进号征虏将军，升任平南将军。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康五年（339年）三月二月二十日，邓岳率军攻打成汉政权，收复了南中。 [6]  邓岳死后，其子邓遐继承宜城县伯的爵位。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸康二年（336年）三月，干宝去世。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">义 兴 周 氏 宗族 强盛， 忠勇 的 周 处 虽然 战死 于 北方， 但 这些年来， 周 处 之子 周 玘 却是 江东 的 风云人物。 到 永嘉 四年（ 310） 的 时候， 周 玘 已经 有“ 三 定 江南” 的 美誉。( 2) 司马 睿 对之 十分 忌惮， 因此 在 人事 任命 中， 对 周 玘 明显 刻意 压制。 而 司马 睿 的 亲信 刁 协， 又对 周 玘 加以 轻侮。 但这 只是 事件 的 导火索， 背后 还有 更深 的 社会 根源。 在 当时， 江东 士 族 大抵 可以 分为 两类。 如上 文 已经 多次 提及 的 顾 荣、 贺 循、 陆 玩 等人， 都可以 划归 为 文化 士 族。 他们 有 较高 的 文化 修养， 尽管 未必 熟悉 时尚 的 玄学， 但 秉承 东汉 以来 的 传统， 对 儒家 经典 的 理解， 却 称得上 家学渊源。 义 兴 周 氏 则是 另 一类 士 族 的 代表， 它是 首屈一指 的 武 力强 宗。
+ 流亡 过 江 的 北方 人也 大概 可以 分为 三等： 上层 阶级 即是 晋 的 皇室， 以及 当年 洛阳 的 公 卿士 大夫 们， 他们 得 意于 自己的 门第， 也得 意于 自己的 文化 品味； 中层 阶级 是 北方 的 一般 士 族， 他们 不以 学术 见长， 然而 往往 以 勇猛 善战 著称， 后来 的 历次 南北战争， 正是 他们 构成 了 南方 军队 的 骨干； 下层 即是 士 族 的 底层 以及 一般 庶 族， 此时 他们的 势力 分散 而 薄弱， 只能 随遇而安， 接受 南方 人的 风俗， 融入 南方 人的 社会。 他们 风光 的 日子 要 拖到 一百 多年 以后， 直到 南朝 历史 的 中 后期， 他们 中 才有 人物 抛头露面， 呼风唤雨。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">另一方面， 王 敦 取 得了 吴 兴 郡 大族 沈 氏、 钱 氏 的 支持。 吴 兴 沈 氏 是与 义 兴 周 氏 齐名 的 武 力强 宗， 所谓“ 江东 之 豪， 莫 强 周 沈”。 和 周 氏 一样， 沈 家 在 东晋 建立 的 过程中， 也 处于 被 排挤 打 压 的 地位。 司马 睿 逼死 周 玘， 周 玘 任 太守 的 吴 兴 郡 连 带着 也 受到了 诸多 不公正 对待， 现在， 吴 兴 人有 理由 为 自己 寻找 另外 的 同盟者， 来 改善 自己的 处境。
+刘勃. 两晋：风流总被雨打风吹去 (读史馆) (Kindle 位置 2887-2890). 浙江文艺出版社. Kindle 版本. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6234,7 +7235,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6242,7 +7243,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6263,7 +7264,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6317,7 +7318,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6332,7 +7333,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6348,7 +7349,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6456,7 +7457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6565,6 +7566,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6580,12 +7587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6873,18 +7875,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="45.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="39.75" customWidth="1"/>
-    <col min="12" max="12" width="45.125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6916,11 +7918,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="330">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -6936,11 +7938,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="195">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="42"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6960,11 +7962,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="195">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="42"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -6975,11 +7977,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="345">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -6993,11 +7995,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -7010,11 +8012,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="75">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="43"/>
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -7031,11 +8033,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="225">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
       <c r="C8" t="s">
         <v>79</v>
       </c>
@@ -7052,11 +8054,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="188.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="43"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -7070,11 +8072,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="105">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -7084,11 +8086,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="345">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -7102,11 +8104,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
@@ -7114,11 +8116,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -7126,11 +8128,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -7140,11 +8142,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="42"/>
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -7155,94 +8157,94 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="40"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="42"/>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="165">
       <c r="C33" t="s">
         <v>74</v>
       </c>
@@ -7250,7 +8252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="105">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -7261,13 +8263,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>95</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="150">
       <c r="B38" t="s">
         <v>98</v>
       </c>
@@ -7275,27 +8277,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -7317,215 +8319,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E001D033-9911-4304-9086-4A7015D03EF6}">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="65.75" style="39" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3">
       <c r="B1" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="42">
+      <c r="B3" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="70.5">
+      <c r="B5" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="40.5">
+      <c r="B6" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="162">
+      <c r="B7" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="162">
+      <c r="B8" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="40.5">
+      <c r="B10" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="40.5">
+      <c r="B11" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="96.75">
+      <c r="B12" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="81.75">
+      <c r="B14" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="54.75">
+      <c r="B16" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="40.5">
+      <c r="B17" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
-        <v>533</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="69.75">
+      <c r="B19" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
-        <v>535</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="54.75">
+      <c r="B22" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="39" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="270">
+      <c r="B23" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="120">
+      <c r="B24" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
-        <v>537</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="97.5">
+      <c r="B26" s="39" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="55.5">
+      <c r="B27" s="39" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="83.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
-        <v>538</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
-        <v>526</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
-        <v>540</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
+    </row>
+    <row r="29" spans="2:3" ht="98.25">
+      <c r="B29" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
+    </row>
+    <row r="30" spans="2:3" ht="69">
+      <c r="B30" s="39" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="54.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="39" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="B26" s="39" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="39" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="39" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="B29" s="39" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="55.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="39" t="s">
-        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -7542,21 +8550,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="44.375" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="28.25" customWidth="1"/>
-    <col min="12" max="12" width="37.625" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -7597,7 +8605,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7614,147 +8622,147 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7774,21 +8782,21 @@
       <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="58.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="28.25" customWidth="1"/>
-    <col min="12" max="12" width="28.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>139</v>
       </c>
@@ -7829,7 +8837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7846,7 +8854,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="270">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7866,7 +8874,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="255">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7892,7 +8900,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7903,7 +8911,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="135">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7923,7 +8931,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="105">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7943,7 +8951,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="165">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7954,13 +8962,13 @@
         <v>226</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="60">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7974,7 +8982,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="195">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7982,7 +8990,7 @@
         <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>207</v>
@@ -7991,7 +8999,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="228" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="285">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8002,7 +9010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="375">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8016,7 +9024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8036,7 +9044,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="60">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8050,7 +9058,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="75">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8064,7 +9072,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8078,7 +9086,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8089,7 +9097,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8100,7 +9108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8111,7 +9119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="265.5" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8131,7 +9139,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8148,18 +9156,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="165">
       <c r="E22" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F22" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="90">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8167,13 +9175,13 @@
         <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="240">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8184,104 +9192,104 @@
         <v>213</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F25" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="210">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F29" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8304,15 +9312,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -8329,7 +9337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8343,7 +9351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8357,7 +9365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8371,7 +9379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8388,7 +9396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8396,7 +9404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8410,7 +9418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8418,7 +9426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8426,7 +9434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8440,72 +9448,72 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8524,14 +9532,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -8545,7 +9553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8553,7 +9561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8561,7 +9569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8569,104 +9577,104 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8685,13 +9693,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.375" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -8702,7 +9710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8710,7 +9718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8718,7 +9726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8726,7 +9734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8734,7 +9742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8742,7 +9750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="120">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8750,7 +9758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="180">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8758,7 +9766,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8766,7 +9774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8774,7 +9782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8782,7 +9790,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8790,7 +9798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="60">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8798,7 +9806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="409.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8806,7 +9814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="120">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8814,7 +9822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="405">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8822,7 +9830,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="375">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8833,132 +9841,132 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8977,129 +9985,129 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="124.875" customWidth="1"/>
+    <col min="2" max="2" width="124.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="315">
       <c r="B33" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="409.5">
       <c r="B37" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="72" thickBot="1">
+      <c r="B38" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B39" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+    <row r="40" spans="2:2" ht="114">
+      <c r="B40" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+    <row r="41" spans="2:2" ht="86.25" thickBot="1">
+      <c r="B41" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+    <row r="42" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B42" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+    <row r="43" spans="2:2" ht="85.5">
+      <c r="B43" s="13" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -9114,583 +10122,1566 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA0AC5-1B00-4AC3-BA44-CE4B5B5C5C88}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="51.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="114" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>231</v>
+        <v>612</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E16">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="E19" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E20" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="135">
       <c r="A21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E21" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="150">
       <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E24" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E25" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="150">
       <c r="A26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E26" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1">
       <c r="A27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1">
       <c r="A28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A29">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E30" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1">
       <c r="A31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E31" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="45">
       <c r="A32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E32" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="210">
       <c r="A33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E33" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="165">
       <c r="A34">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E34" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A35">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E35" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E36" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="345">
       <c r="A37">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>665</v>
+      </c>
+      <c r="E37" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="195">
       <c r="A38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E38" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1">
       <c r="A39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E39" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A40">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1">
       <c r="A41">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1">
       <c r="A42">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E42" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="105">
       <c r="A43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E43" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="135">
       <c r="A44">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E44" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1">
       <c r="A45">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E45" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A46">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1">
       <c r="A47">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E47" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A48">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E48" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="135">
       <c r="A49">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E49" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="120">
       <c r="A50">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E50" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A51">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A52">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E52" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="45">
       <c r="A53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E53" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A54">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E54" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="75">
       <c r="A55">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E55" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="30">
       <c r="A56">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1">
       <c r="A57">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E57" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1">
       <c r="A58">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E58" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="135">
       <c r="A59">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E59" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A60">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E60" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="45">
       <c r="A61">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E61" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A62">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E62" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="180">
       <c r="A63">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E63" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A64">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E64" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="75">
       <c r="A65">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E65" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="150">
       <c r="A66">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E66" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="75">
       <c r="A67">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E67" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="75">
       <c r="A68">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E68" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A69">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E69" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="90">
       <c r="A70">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E70" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="71.25">
       <c r="A71">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E71" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="71.25">
       <c r="A72">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E72" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="71.25">
       <c r="A73">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="72">
       <c r="A74">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="71.25">
       <c r="A75">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E75" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="71.25">
       <c r="A76">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E76" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="71.25">
       <c r="A77">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="75">
       <c r="A78">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="1" customFormat="1">
       <c r="A79">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" s="1" customFormat="1">
       <c r="A80">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1">
       <c r="A81">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" s="1" customFormat="1">
       <c r="A82">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" s="1" customFormat="1">
       <c r="A83">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A84">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E84" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="A85">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E85" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="1" customFormat="1">
       <c r="A86">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E86" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="1" customFormat="1" ht="154.5">
       <c r="A87">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E87" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="1" customFormat="1" ht="270">
       <c r="A88">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="1" customFormat="1">
       <c r="A89">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" s="1" customFormat="1">
       <c r="A90">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" s="1" customFormat="1">
       <c r="A91">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" s="1" customFormat="1">
       <c r="A92">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E92" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="1" customFormat="1" ht="135">
       <c r="A93">
         <v>90</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E93" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="1" customFormat="1" ht="75">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E94" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="1" customFormat="1" ht="90">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E95" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="1" customFormat="1">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="1" customFormat="1" ht="75">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E97" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="1" customFormat="1" ht="180">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E99" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E100" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="1" customFormat="1">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E101" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E102" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="1" customFormat="1" ht="105">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E103" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="1" customFormat="1" ht="105">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E104" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="1" customFormat="1" ht="45">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E105" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="1" customFormat="1" ht="75">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E106" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="1" customFormat="1" ht="29.25">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="E107" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="1" customFormat="1" ht="90">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E108" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="1" customFormat="1" ht="210">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E109" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="1" customFormat="1" ht="255">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E110" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="1" customFormat="1" ht="105">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E111" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="1" customFormat="1">
+      <c r="A112">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="1" customFormat="1" ht="90">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E113" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="1" customFormat="1">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E114" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="1" customFormat="1" ht="75">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E115" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="1" customFormat="1">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E116" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D37" r:id="rId1" display="https://baike.baidu.com/item/%E7%A5%96%E9%80%96/486877?fr=aladdin" xr:uid="{ADED2040-FD1C-403F-80CC-429A920CD8FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9698,259 +11689,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C8A5D9-1696-47E5-94E3-00A89F0F208E}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="4" max="4" width="46.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="42.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="42.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30">
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="409.5">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="409.5">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="409.5">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="409.5">
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="135">
       <c r="H6" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="135">
       <c r="H7" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="90">
       <c r="H8" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="370.5" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="409.5">
       <c r="B11" s="1">
         <v>280</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="60">
       <c r="B12" s="1">
         <v>283</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="409.5">
       <c r="B13" s="1">
         <v>286</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="210">
       <c r="B14" s="1">
         <v>287</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="409.5">
       <c r="B15" s="1">
         <v>290</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="75">
       <c r="B16" s="1">
         <v>291</v>
       </c>
@@ -9958,278 +11949,278 @@
         <v>306</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="90">
       <c r="B17" s="1">
         <v>292</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="342" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="409.5">
       <c r="B18" s="1">
         <v>295</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="60">
       <c r="B19" s="1">
         <v>297</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="60">
       <c r="B20" s="1">
         <v>298</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="180">
       <c r="B21" s="1">
         <v>299</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="409.5">
       <c r="B22" s="1">
         <v>300</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="327.75" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="405">
       <c r="B23" s="1">
         <v>301</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="45">
       <c r="D24" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="270.75" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="315">
       <c r="B25" s="1">
         <v>303</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="105">
       <c r="D26" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="75">
       <c r="D27" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="370.5" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="409.5">
       <c r="B28" s="1">
         <v>305</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="60">
       <c r="D29" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="228" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="270">
       <c r="B30" s="1">
         <v>306</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="256.5" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="330">
       <c r="B31" s="1">
         <v>307</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="150.75" thickBot="1">
       <c r="B33" s="1">
         <v>309</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="135.75" thickBot="1">
       <c r="B34" s="1">
         <v>310</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="409.6">
       <c r="B35" s="1">
         <v>311</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="366" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="409.5">
       <c r="B36" s="1">
         <v>312</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L36" s="45" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="409.5" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="L36" s="40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="409.5">
       <c r="B37" s="1">
         <v>313</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="270.75" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="330">
       <c r="D38" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="313.5" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="375">
       <c r="D39" s="1" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="180">
       <c r="B40" s="1">
         <v>315</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="370.5" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="409.5">
       <c r="B41" s="1">
         <v>316</v>
       </c>
@@ -10237,77 +12228,77 @@
         <v>317</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="210">
       <c r="B42" s="1">
         <v>317</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="225">
       <c r="B43" s="1">
         <v>318</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="384.75" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="409.5">
       <c r="B44" s="1">
         <v>319</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="240">
       <c r="B45" s="1">
         <v>320</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="255">
       <c r="B46" s="1">
         <v>321</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="299.25" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="360">
       <c r="B47" s="1">
         <v>322</v>
       </c>
@@ -10315,255 +12306,255 @@
         <v>324</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="185.25" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="240">
       <c r="B48" s="1">
         <v>323</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="256.5" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="330">
       <c r="B49" s="1">
         <v>324</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="228" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="285">
       <c r="B50" s="1">
         <v>325</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="213.75" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="270">
       <c r="D51" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="228" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="300">
       <c r="B52" s="1">
         <v>326</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="409.5" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="409.5">
       <c r="B53" s="1">
         <v>327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="185.25" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="213.75">
       <c r="B54" s="1">
         <v>328</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="270.75" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="330">
       <c r="B55" s="1">
         <v>329</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="285" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="360">
       <c r="B56" s="1">
         <v>330</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="409.5" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="409.5">
       <c r="D57" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="256.5" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="300">
       <c r="B58" s="1">
         <v>331</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="2:11" ht="228" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" ht="285">
       <c r="B59" s="1">
         <v>332</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="1">
         <v>333</v>
       </c>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="2:11" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" ht="255">
       <c r="B61" s="1">
         <v>334</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="57" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="75">
       <c r="B62" s="1">
         <v>337</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="J62" s="35"/>
     </row>
-    <row r="63" spans="2:11" ht="171" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="225">
       <c r="B63" s="1">
         <v>339</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="185.25" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="213.75">
       <c r="B64" s="1">
         <v>345</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" ht="185.25" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="213.75">
       <c r="B65" s="1">
         <v>346</v>
       </c>
@@ -10571,84 +12562,84 @@
         <v>347</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="171" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="225">
       <c r="B66" s="1">
         <v>373</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="90">
       <c r="B67" s="1">
         <v>383</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J67" s="35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="99.75">
+      <c r="E68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="285">
+      <c r="D69" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J69" s="41" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="J70" s="37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="30">
+      <c r="J71" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="45">
+      <c r="J72" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="E68" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" s="13" t="s">
+    <row r="73" spans="2:12" ht="42.75">
+      <c r="J73" s="37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="171">
+      <c r="J74" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="409.6" thickBot="1">
+      <c r="J75" s="38" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="228" x14ac:dyDescent="0.2">
-      <c r="D69" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J70" s="37" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="J71" s="22" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="J72" s="22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="J73" s="37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="J74" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J75" s="38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="15.75" thickBot="1">
       <c r="B76" s="16"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -10656,54 +12647,54 @@
       <c r="J76" s="36"/>
       <c r="L76" s="23"/>
     </row>
-    <row r="77" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="15.75" thickBot="1">
       <c r="B77" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="E77" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="J77" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E77" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>277</v>
-      </c>
       <c r="L77" s="29"/>
     </row>
-    <row r="78" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="42" t="s">
-        <v>384</v>
+    <row r="78" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B78" s="44" t="s">
+        <v>378</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E78" s="27"/>
       <c r="J78" s="27"/>
       <c r="L78" s="30"/>
     </row>
-    <row r="79" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="43"/>
+    <row r="79" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B79" s="45"/>
       <c r="C79" s="25" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E79" s="27"/>
       <c r="J79" s="27"/>
       <c r="L79" s="30"/>
     </row>
-    <row r="80" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="43"/>
+    <row r="80" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B80" s="45"/>
       <c r="C80" s="25" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D80" s="27">
         <v>290</v>
@@ -10712,43 +12703,43 @@
       <c r="J80" s="27"/>
       <c r="L80" s="30"/>
     </row>
-    <row r="81" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="15.75" thickBot="1">
       <c r="B81" s="28" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="27" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E81" s="27"/>
       <c r="J81" s="27"/>
       <c r="L81" s="30"/>
     </row>
-    <row r="82" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="15.75" thickBot="1">
       <c r="B82" s="28" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="27" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E82" s="27"/>
       <c r="J82" s="27"/>
       <c r="L82" s="30"/>
     </row>
-    <row r="83" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="15.75" thickBot="1">
       <c r="B83" s="28" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="27" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E83" s="27"/>
       <c r="J83" s="27"/>
       <c r="L83" s="30"/>
     </row>
-    <row r="84" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="15.75" thickBot="1">
       <c r="B84" s="24"/>
       <c r="C84" s="25"/>
       <c r="D84" s="27"/>
@@ -10756,7 +12747,7 @@
       <c r="J84" s="27"/>
       <c r="L84" s="30"/>
     </row>
-    <row r="85" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="15.75" thickBot="1">
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
@@ -10764,7 +12755,7 @@
       <c r="J85" s="27"/>
       <c r="L85" s="30"/>
     </row>
-    <row r="86" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="15.75" thickBot="1">
       <c r="B86" s="24"/>
       <c r="C86" s="25"/>
       <c r="D86" s="26"/>
@@ -10772,308 +12763,308 @@
       <c r="J86" s="27"/>
       <c r="L86" s="30"/>
     </row>
-    <row r="87" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="44" t="s">
-        <v>391</v>
+    <row r="87" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B87" s="46" t="s">
+        <v>385</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>280</v>
       </c>
       <c r="J87" s="16"/>
       <c r="L87" s="31"/>
     </row>
-    <row r="88" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="44"/>
+    <row r="88" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B88" s="46"/>
       <c r="C88" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="J88" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="L88" s="32"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B89" s="46"/>
+      <c r="C89" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="J88" s="20" t="s">
+      <c r="D89" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="J89" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="L88" s="32"/>
-    </row>
-    <row r="89" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="44"/>
-      <c r="C89" s="20" t="s">
+      <c r="L89" s="32"/>
+    </row>
+    <row r="90" spans="2:12" ht="75.75" thickBot="1">
+      <c r="B90" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="J89" s="20" t="s">
+      <c r="D90" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="L89" s="32"/>
-    </row>
-    <row r="90" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>288</v>
-      </c>
       <c r="E90" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J90" s="20"/>
       <c r="L90" s="32"/>
     </row>
-    <row r="91" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="44" t="s">
-        <v>332</v>
+    <row r="91" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B91" s="46" t="s">
+        <v>330</v>
       </c>
       <c r="C91" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>291</v>
       </c>
       <c r="J91" s="16"/>
       <c r="L91" s="31"/>
     </row>
-    <row r="92" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="44"/>
+    <row r="92" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B92" s="46"/>
       <c r="C92" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="J92" s="20"/>
       <c r="L92" s="32"/>
     </row>
-    <row r="93" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="75.75" thickBot="1">
       <c r="B93" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J93" s="20"/>
       <c r="L93" s="32"/>
     </row>
-    <row r="94" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="44" t="s">
-        <v>334</v>
+    <row r="94" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B94" s="46" t="s">
+        <v>332</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="J94" s="16"/>
       <c r="L94" s="31"/>
     </row>
-    <row r="95" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="44"/>
+    <row r="95" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B95" s="46"/>
       <c r="C95" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>302</v>
       </c>
       <c r="J95" s="16"/>
       <c r="L95" s="31"/>
     </row>
-    <row r="96" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="44" t="s">
-        <v>335</v>
+    <row r="96" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B96" s="46" t="s">
+        <v>333</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J96" s="20"/>
       <c r="L96" s="32"/>
     </row>
-    <row r="97" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="44"/>
+    <row r="97" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B97" s="46"/>
       <c r="C97" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>307</v>
       </c>
       <c r="J97" s="20"/>
       <c r="L97" s="32"/>
     </row>
-    <row r="98" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="75.75" thickBot="1">
       <c r="B98" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C98" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>310</v>
       </c>
       <c r="J98" s="16"/>
       <c r="L98" s="31"/>
     </row>
-    <row r="99" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="75.75" thickBot="1">
       <c r="B99" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J99" s="20"/>
       <c r="L99" s="32"/>
     </row>
-    <row r="100" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="44" t="s">
-        <v>338</v>
+    <row r="100" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B100" s="46" t="s">
+        <v>336</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J100" s="16"/>
       <c r="L100" s="31"/>
     </row>
-    <row r="101" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="44"/>
+    <row r="101" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B101" s="46"/>
       <c r="C101" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="J101" s="20"/>
       <c r="L101" s="32"/>
     </row>
-    <row r="102" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="44" t="s">
-        <v>339</v>
+    <row r="102" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B102" s="46" t="s">
+        <v>337</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J102" s="20"/>
       <c r="L102" s="32"/>
     </row>
-    <row r="103" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="44"/>
+    <row r="103" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B103" s="46"/>
       <c r="C103" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J103" s="19"/>
       <c r="L103" s="33"/>
     </row>
-    <row r="104" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="44"/>
+    <row r="104" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B104" s="46"/>
       <c r="C104" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="J104" s="16"/>
       <c r="L104" s="31"/>
     </row>
-    <row r="105" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="44"/>
+    <row r="105" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B105" s="46"/>
       <c r="C105" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>325</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="J105" s="16"/>
       <c r="L105" s="31"/>
     </row>
-    <row r="106" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="75.75" thickBot="1">
       <c r="B106" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J106" s="16"/>
       <c r="L106" s="31"/>
